--- a/InputData/web-app/BCF/BTU Conversion Factors.xlsx
+++ b/InputData/web-app/BCF/BTU Conversion Factors.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\web-app\BCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\OneDrive\Desktop\India InputData 5-6-2020\web-app\BCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B1C1AC-5F86-4F20-AB8D-D7B3CA7FF902}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="25875" windowHeight="10545"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -23,12 +24,20 @@
   <definedNames>
     <definedName name="gal_per_barrel">About!$A$63</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcMode="manual" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191029" calcMode="manual" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Michael Wang</author>
     <author>ywu</author>
@@ -37,7 +46,7 @@
     <author>A Elgowainy</author>
   </authors>
   <commentList>
-    <comment ref="B4" authorId="0" shapeId="0">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -50,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0">
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -64,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G15" authorId="0" shapeId="0">
+    <comment ref="G15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -87,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G20" authorId="0" shapeId="0">
+    <comment ref="G20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -110,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G21" authorId="0" shapeId="0">
+    <comment ref="G21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -133,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G22" authorId="0" shapeId="0">
+    <comment ref="G22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -158,7 +167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G29" authorId="1" shapeId="0">
+    <comment ref="G29" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -181,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A43" authorId="2" shapeId="0">
+    <comment ref="A43" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -194,7 +203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A63" authorId="3" shapeId="0">
+    <comment ref="A63" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -208,7 +217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B65" authorId="4" shapeId="0">
+    <comment ref="B65" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -232,7 +241,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A66" authorId="0" shapeId="0">
+    <comment ref="A66" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -246,7 +255,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B66" authorId="4" shapeId="0">
+    <comment ref="B66" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -271,7 +280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D66" authorId="3" shapeId="0">
+    <comment ref="D66" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -284,7 +293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F66" authorId="3" shapeId="0">
+    <comment ref="F66" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -297,7 +306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G66" authorId="3" shapeId="0">
+    <comment ref="G66" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -310,7 +319,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I66" authorId="3" shapeId="0">
+    <comment ref="I66" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000010000000}">
       <text>
         <r>
           <rPr>
@@ -323,7 +332,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B67" authorId="4" shapeId="0">
+    <comment ref="B67" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000011000000}">
       <text>
         <r>
           <rPr>
@@ -357,7 +366,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D67" authorId="3" shapeId="0">
+    <comment ref="D67" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000012000000}">
       <text>
         <r>
           <rPr>
@@ -370,7 +379,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F67" authorId="3" shapeId="0">
+    <comment ref="F67" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000013000000}">
       <text>
         <r>
           <rPr>
@@ -383,7 +392,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G67" authorId="3" shapeId="0">
+    <comment ref="G67" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000014000000}">
       <text>
         <r>
           <rPr>
@@ -396,7 +405,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I67" authorId="3" shapeId="0">
+    <comment ref="I67" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000015000000}">
       <text>
         <r>
           <rPr>
@@ -409,7 +418,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B68" authorId="4" shapeId="0">
+    <comment ref="B68" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000016000000}">
       <text>
         <r>
           <rPr>
@@ -443,7 +452,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D68" authorId="3" shapeId="0">
+    <comment ref="D68" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000017000000}">
       <text>
         <r>
           <rPr>
@@ -456,7 +465,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F68" authorId="3" shapeId="0">
+    <comment ref="F68" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000018000000}">
       <text>
         <r>
           <rPr>
@@ -469,7 +478,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G68" authorId="3" shapeId="0">
+    <comment ref="G68" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000019000000}">
       <text>
         <r>
           <rPr>
@@ -482,7 +491,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I68" authorId="3" shapeId="0">
+    <comment ref="I68" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -495,7 +504,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B69" authorId="4" shapeId="0">
+    <comment ref="B69" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -519,7 +528,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D69" authorId="3" shapeId="0">
+    <comment ref="D69" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -532,7 +541,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F69" authorId="3" shapeId="0">
+    <comment ref="F69" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -545,7 +554,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G69" authorId="3" shapeId="0">
+    <comment ref="G69" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -558,7 +567,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I69" authorId="3" shapeId="0">
+    <comment ref="I69" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -571,7 +580,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B70" authorId="4" shapeId="0">
+    <comment ref="B70" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000020000000}">
       <text>
         <r>
           <rPr>
@@ -595,7 +604,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D70" authorId="3" shapeId="0">
+    <comment ref="D70" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000021000000}">
       <text>
         <r>
           <rPr>
@@ -608,7 +617,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F70" authorId="3" shapeId="0">
+    <comment ref="F70" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000022000000}">
       <text>
         <r>
           <rPr>
@@ -621,7 +630,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G70" authorId="3" shapeId="0">
+    <comment ref="G70" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000023000000}">
       <text>
         <r>
           <rPr>
@@ -634,7 +643,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I70" authorId="3" shapeId="0">
+    <comment ref="I70" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000024000000}">
       <text>
         <r>
           <rPr>
@@ -647,7 +656,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B71" authorId="4" shapeId="0">
+    <comment ref="B71" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000025000000}">
       <text>
         <r>
           <rPr>
@@ -671,7 +680,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D71" authorId="3" shapeId="0">
+    <comment ref="D71" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000026000000}">
       <text>
         <r>
           <rPr>
@@ -684,7 +693,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F71" authorId="3" shapeId="0">
+    <comment ref="F71" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000027000000}">
       <text>
         <r>
           <rPr>
@@ -698,7 +707,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G71" authorId="3" shapeId="0">
+    <comment ref="G71" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000028000000}">
       <text>
         <r>
           <rPr>
@@ -711,7 +720,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I71" authorId="3" shapeId="0">
+    <comment ref="I71" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000029000000}">
       <text>
         <r>
           <rPr>
@@ -724,7 +733,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B72" authorId="4" shapeId="0">
+    <comment ref="B72" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00002A000000}">
       <text>
         <r>
           <rPr>
@@ -748,7 +757,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D72" authorId="3" shapeId="0">
+    <comment ref="D72" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00002B000000}">
       <text>
         <r>
           <rPr>
@@ -761,7 +770,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F72" authorId="3" shapeId="0">
+    <comment ref="F72" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00002C000000}">
       <text>
         <r>
           <rPr>
@@ -774,7 +783,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G72" authorId="3" shapeId="0">
+    <comment ref="G72" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00002D000000}">
       <text>
         <r>
           <rPr>
@@ -787,7 +796,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I72" authorId="3" shapeId="0">
+    <comment ref="I72" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00002E000000}">
       <text>
         <r>
           <rPr>
@@ -800,7 +809,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B73" authorId="4" shapeId="0">
+    <comment ref="B73" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00002F000000}">
       <text>
         <r>
           <rPr>
@@ -824,7 +833,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B74" authorId="4" shapeId="0">
+    <comment ref="B74" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000030000000}">
       <text>
         <r>
           <rPr>
@@ -848,7 +857,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B76" authorId="4" shapeId="0">
+    <comment ref="B76" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000031000000}">
       <text>
         <r>
           <rPr>
@@ -872,7 +881,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B77" authorId="4" shapeId="0">
+    <comment ref="B77" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000032000000}">
       <text>
         <r>
           <rPr>
@@ -896,7 +905,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B78" authorId="4" shapeId="0">
+    <comment ref="B78" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000033000000}">
       <text>
         <r>
           <rPr>
@@ -920,7 +929,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B79" authorId="4" shapeId="0">
+    <comment ref="B79" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000034000000}">
       <text>
         <r>
           <rPr>
@@ -944,7 +953,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B80" authorId="4" shapeId="0">
+    <comment ref="B80" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000035000000}">
       <text>
         <r>
           <rPr>
@@ -968,7 +977,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B81" authorId="4" shapeId="0">
+    <comment ref="B81" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000036000000}">
       <text>
         <r>
           <rPr>
@@ -992,7 +1001,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B82" authorId="4" shapeId="0">
+    <comment ref="B82" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000037000000}">
       <text>
         <r>
           <rPr>
@@ -1016,7 +1025,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B83" authorId="4" shapeId="0">
+    <comment ref="B83" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000038000000}">
       <text>
         <r>
           <rPr>
@@ -1040,7 +1049,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B84" authorId="4" shapeId="0">
+    <comment ref="B84" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000039000000}">
       <text>
         <r>
           <rPr>
@@ -1064,7 +1073,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B85" authorId="4" shapeId="0">
+    <comment ref="B85" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00003A000000}">
       <text>
         <r>
           <rPr>
@@ -1088,7 +1097,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B86" authorId="4" shapeId="0">
+    <comment ref="B86" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00003B000000}">
       <text>
         <r>
           <rPr>
@@ -1112,7 +1121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B87" authorId="4" shapeId="0">
+    <comment ref="B87" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00003C000000}">
       <text>
         <r>
           <rPr>
@@ -1136,7 +1145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B88" authorId="4" shapeId="0">
+    <comment ref="B88" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00003D000000}">
       <text>
         <r>
           <rPr>
@@ -1160,7 +1169,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A90" authorId="0" shapeId="0">
+    <comment ref="A90" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00003E000000}">
       <text>
         <r>
           <rPr>
@@ -1178,7 +1187,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="436">
   <si>
     <t>(from physical units to million Btu)</t>
   </si>
@@ -2131,9 +2140,6 @@
     <t>Relevant Conversion Factors</t>
   </si>
   <si>
-    <t>In the U.S. model:</t>
-  </si>
-  <si>
     <t>Petroleum Gasoline (fuel economy units)</t>
   </si>
   <si>
@@ -2176,30 +2182,12 @@
     <t>Large Fuel Output Units</t>
   </si>
   <si>
-    <t>millions of short tons</t>
-  </si>
-  <si>
-    <t>trillion cubic feet</t>
-  </si>
-  <si>
     <t>Fuel Economy Output Unit</t>
   </si>
   <si>
-    <t>miles per gallon</t>
-  </si>
-  <si>
-    <t>million barrels</t>
-  </si>
-  <si>
     <t>Small Fuel Output Units</t>
   </si>
   <si>
-    <t>short tons</t>
-  </si>
-  <si>
-    <t>thousand cubic feet</t>
-  </si>
-  <si>
     <t>BTU/MWh (pure unit conversion, not a heat rate)</t>
   </si>
   <si>
@@ -2227,9 +2215,6 @@
     <t>heat (not used)</t>
   </si>
   <si>
-    <t>gallons</t>
-  </si>
-  <si>
     <t>electricity, district heat</t>
   </si>
   <si>
@@ -2248,15 +2233,9 @@
     <t>nuclear fuel (uranium oxide)</t>
   </si>
   <si>
-    <t>million BTU</t>
-  </si>
-  <si>
     <t>nuclear fuel</t>
   </si>
   <si>
-    <t>trillion BTU</t>
-  </si>
-  <si>
     <t>nuclear</t>
   </si>
   <si>
@@ -2350,15 +2329,9 @@
     <t>crude oil, heavy fuel oil</t>
   </si>
   <si>
-    <t>barrels</t>
-  </si>
-  <si>
     <t>LPG/propane/butane</t>
   </si>
   <si>
-    <t>million gallons</t>
-  </si>
-  <si>
     <t>petroleum gasoline, petroleum diesel, biofuel gasoline, biofuel diesel, jet fuel or kerosene, LPG/propane/butane</t>
   </si>
   <si>
@@ -2392,9 +2365,6 @@
     <t>Lignite, Biomass, LPG, municipal solid waste, hydrogen</t>
   </si>
   <si>
-    <t>Energy Import Export Output Unit (BTU/energy output unit)</t>
-  </si>
-  <si>
     <t>Conversion Factor (output fuel economy unit/(miles/BTU))</t>
   </si>
   <si>
@@ -2444,27 +2414,108 @@
   </si>
   <si>
     <t>GREET1 2019</t>
+  </si>
+  <si>
+    <t>In the India model:</t>
+  </si>
+  <si>
+    <t>millions of metric tons</t>
+  </si>
+  <si>
+    <t>billion cubic meters</t>
+  </si>
+  <si>
+    <t>PJ</t>
+  </si>
+  <si>
+    <t>metric tons</t>
+  </si>
+  <si>
+    <t>cubic meters</t>
+  </si>
+  <si>
+    <t>liters</t>
+  </si>
+  <si>
+    <t>kilometers per liter</t>
+  </si>
+  <si>
+    <t>GJ</t>
+  </si>
+  <si>
+    <t>short tons per metric ton</t>
+  </si>
+  <si>
+    <t>cubic feet per cubic meter</t>
+  </si>
+  <si>
+    <t>kilometers per mile</t>
+  </si>
+  <si>
+    <t>liters per gallon</t>
+  </si>
+  <si>
+    <t>Gasoline kg/cubic meter</t>
+  </si>
+  <si>
+    <t>Diesel 2D kg/cubic meter</t>
+  </si>
+  <si>
+    <t>Kerosene (jet fuel) kg/cubic meter</t>
+  </si>
+  <si>
+    <t>barrels/cubic meter</t>
+  </si>
+  <si>
+    <t>J per BTU</t>
+  </si>
+  <si>
+    <t>crude oil kg/cubic meter</t>
+  </si>
+  <si>
+    <t>heavy fuel oil kg/cubic meter</t>
+  </si>
+  <si>
+    <t>liter LPG/metric ton</t>
+  </si>
+  <si>
+    <t>Energy Import Export Output Unit (BTU/GJ)</t>
+  </si>
+  <si>
+    <t>https://www.ppac.gov.in/WriteReadData/Reports/201912230427051503735SnapshotofIndiasOilandGasdataNovember2019.pdf</t>
+  </si>
+  <si>
+    <t>India-US weight-volume conversions for liquid fuels</t>
+  </si>
+  <si>
+    <t>Ministry of Petroleum &amp; Natural Gas/Petroleum Planning &amp; Analysis Cell</t>
+  </si>
+  <si>
+    <t>Ready Reckoner: Snapshot of India's Oil &amp; Gas Data</t>
+  </si>
+  <si>
+    <t>Table 25, Page 22</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="14">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="0.000E+00"/>
-    <numFmt numFmtId="166" formatCode="#,##0.000"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="#,##0.000000"/>
-    <numFmt numFmtId="169" formatCode="#,##0.0"/>
-    <numFmt numFmtId="170" formatCode="0.000000"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="0.0000"/>
-    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="174" formatCode="#,##0.000000000"/>
-    <numFmt numFmtId="175" formatCode="#,##0.0000000000"/>
-    <numFmt numFmtId="176" formatCode="#,##0.0000000"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.000E+00"/>
+    <numFmt numFmtId="167" formatCode="#,##0.000"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="170" formatCode="#,##0.0"/>
+    <numFmt numFmtId="171" formatCode="0.000000"/>
+    <numFmt numFmtId="172" formatCode="0.0"/>
+    <numFmt numFmtId="173" formatCode="0.0000"/>
+    <numFmt numFmtId="174" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="175" formatCode="#,##0.000000000"/>
+    <numFmt numFmtId="176" formatCode="#,##0.0000000000"/>
+    <numFmt numFmtId="177" formatCode="#,##0.0000000"/>
   </numFmts>
   <fonts count="39" x14ac:knownFonts="1">
     <font>
@@ -3465,10 +3516,10 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3477,11 +3528,11 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="47" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="54"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="54" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="54" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="18" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3493,7 +3544,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3528,7 +3579,7 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="32" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="32" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3543,7 +3594,7 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="32" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="32" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -3551,7 +3602,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="32" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="32" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3561,85 +3612,85 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="32" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="32" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="33" fillId="0" borderId="23" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="33" fillId="34" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="33" fillId="34" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="33" fillId="34" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="33" fillId="35" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="33" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="33" fillId="0" borderId="24" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="33" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="33" fillId="0" borderId="24" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="33" fillId="36" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="33" fillId="36" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="33" fillId="36" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="33" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="33" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="33" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="33" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="33" fillId="38" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="33" fillId="35" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="33" fillId="35" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="33" fillId="38" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="33" fillId="38" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="33" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="33" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="32" fillId="0" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="32" fillId="0" borderId="26" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="26" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="32" fillId="0" borderId="26" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="32" fillId="0" borderId="26" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="32" fillId="0" borderId="26" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="32" fillId="0" borderId="27" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="33" fillId="34" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="32" fillId="0" borderId="26" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="32" fillId="0" borderId="27" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="33" fillId="34" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="33" fillId="39" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="33" fillId="39" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="33" fillId="38" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="33" fillId="36" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="33" fillId="39" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="33" fillId="38" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="33" fillId="36" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="32" fillId="0" borderId="26" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="33" fillId="38" borderId="24" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="33" fillId="38" borderId="24" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="33" fillId="40" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="33" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="33" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="33" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="33" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="33" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="33" fillId="0" borderId="30" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="33" fillId="38" borderId="30" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="33" fillId="38" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="33" fillId="38" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3713,19 +3764,19 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3743,37 +3794,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="32" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3792,25 +3843,25 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3819,22 +3870,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3844,6 +3892,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3860,7 +3911,7 @@
     <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="17" xfId="56" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="17" xfId="56" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="26" fillId="0" borderId="17" xfId="56" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -3870,6 +3921,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="63">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3897,22 +3949,22 @@
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Body: normal cell" xfId="48"/>
-    <cellStyle name="Body: normal cell 2" xfId="57"/>
+    <cellStyle name="Body: normal cell" xfId="48" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Body: normal cell 2" xfId="57" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Comma" xfId="61" builtinId="3"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" customBuiltin="1"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="43"/>
-    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="59"/>
-    <cellStyle name="Footnotes: all except top row" xfId="52"/>
-    <cellStyle name="Footnotes: top row" xfId="45"/>
-    <cellStyle name="Footnotes: top row 2" xfId="55"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="43" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Footnotes: all except top row" xfId="52" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="45" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Footnotes: top row 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Header: bottom row" xfId="42"/>
-    <cellStyle name="Header: bottom row 2" xfId="58"/>
-    <cellStyle name="Header: top rows" xfId="51"/>
+    <cellStyle name="Header: bottom row" xfId="42" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Header: bottom row 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Header: top rows" xfId="51" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
@@ -3922,16 +3974,16 @@
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="54"/>
+    <cellStyle name="Normal 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Parent row" xfId="46"/>
-    <cellStyle name="Parent row 2" xfId="56"/>
+    <cellStyle name="Parent row" xfId="46" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Parent row 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
     <cellStyle name="Percent" xfId="62" builtinId="5"/>
-    <cellStyle name="Section Break" xfId="44"/>
-    <cellStyle name="Section Break: parent row" xfId="49"/>
-    <cellStyle name="Table title" xfId="50"/>
-    <cellStyle name="Table title 2" xfId="60"/>
+    <cellStyle name="Section Break" xfId="44" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Section Break: parent row" xfId="49" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Table title" xfId="50" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Table title 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -3963,7 +4015,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Table Style 1" pivot="0" count="2">
+    <tableStyle name="Table Style 1" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -4055,6 +4107,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4090,6 +4159,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4265,94 +4351,117 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.42578125" customWidth="1"/>
     <col min="2" max="2" width="30.5703125" customWidth="1"/>
     <col min="3" max="3" width="39.42578125" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
       <c r="B6" s="196" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C6" s="202"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E6" s="196" t="s">
+        <v>432</v>
+      </c>
+      <c r="F6" s="202"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>2019</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E8" s="3">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+      <c r="E9" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E10" s="4" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="196" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="C13" s="202"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -4384,54 +4493,54 @@
     <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
     </row>
     <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
     </row>
     <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
     </row>
     <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
     </row>
     <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
     </row>
     <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>317</v>
+        <v>409</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4439,70 +4548,70 @@
     </row>
     <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="198" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B37" s="199"/>
     </row>
     <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="203" t="s">
+        <v>342</v>
+      </c>
+      <c r="B38" s="203" t="s">
+        <v>343</v>
+      </c>
+      <c r="C38" s="204" t="s">
         <v>350</v>
-      </c>
-      <c r="B38" s="203" t="s">
-        <v>351</v>
-      </c>
-      <c r="C38" s="204" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="201" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>332</v>
+        <v>410</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="197" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>333</v>
+        <v>411</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="197" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="201" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>336</v>
+        <v>410</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="201" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="201" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>358</v>
+        <v>412</v>
       </c>
       <c r="C44" s="204" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
     </row>
     <row r="45" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4510,37 +4619,37 @@
     </row>
     <row r="46" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="198" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B46" s="199"/>
     </row>
     <row r="47" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="203" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B47" s="203" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="48" spans="1:3" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="201" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>338</v>
+        <v>413</v>
       </c>
     </row>
     <row r="49" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="197" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>339</v>
+        <v>414</v>
       </c>
     </row>
     <row r="50" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="197" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>270</v>
@@ -4548,48 +4657,48 @@
     </row>
     <row r="51" spans="1:2" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="201" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>349</v>
+        <v>415</v>
       </c>
     </row>
     <row r="52" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="201" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>390</v>
+        <v>413</v>
       </c>
     </row>
     <row r="53" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="201" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>356</v>
+        <v>417</v>
       </c>
     </row>
     <row r="54" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="198" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="56" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>335</v>
+        <v>416</v>
       </c>
     </row>
     <row r="57" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="58" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="198" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="59" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>358</v>
+        <v>417</v>
       </c>
     </row>
     <row r="60" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -4614,25 +4723,133 @@
         <v>3142000</v>
       </c>
       <c r="B64" t="s">
-        <v>340</v>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>1.1023099999999999</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>35.314700000000002</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>1.60934</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>3.7854100000000002</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>748</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>849</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>808</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>881</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>905</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>1844</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>6.29</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>1055.06</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>426</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E10" r:id="rId1" xr:uid="{C0F8492E-D5E5-43D6-9DC5-BFB1B696C46B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AK85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C32" sqref="C32"/>
       <selection pane="topRight" activeCell="C32" sqref="C32"/>
       <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4644,7 +4861,7 @@
   <sheetData>
     <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="C1" s="16">
         <v>2017</v>
@@ -4755,7 +4972,7 @@
         <v>121</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
@@ -4766,7 +4983,7 @@
         <v>120</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
@@ -4779,7 +4996,7 @@
         <v>118</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="20"/>
@@ -4791,7 +5008,7 @@
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
@@ -4916,7 +5133,7 @@
         <v>2</v>
       </c>
       <c r="AK12" s="17" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
     </row>
     <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6965,7 +7182,7 @@
         <v>96</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="C33" s="14">
         <v>5.0566430000000002</v>
@@ -7188,10 +7405,10 @@
     </row>
     <row r="35" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="C35" s="14">
         <v>5.2222799999999996</v>
@@ -7301,10 +7518,10 @@
     </row>
     <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C36" s="14">
         <v>5.2222799999999996</v>
@@ -11327,22 +11544,22 @@
     </row>
     <row r="82" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="8" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="83" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="8" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
     </row>
     <row r="84" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="8" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="85" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="8" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -11355,10 +11572,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X163"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView topLeftCell="A70" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11974,7 +12193,7 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="68" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="B21" s="49">
         <v>129487.84757606639</v>
@@ -12088,7 +12307,7 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="70" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="B25" s="49">
         <v>118237.434842673</v>
@@ -12742,7 +12961,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="48" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="B47" s="49">
         <v>112060.7</v>
@@ -13529,7 +13748,7 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="B75" s="49">
         <v>28385750.368920002</v>
@@ -13722,7 +13941,7 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="71" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="B82" s="49">
         <v>15929000</v>
@@ -13980,7 +14199,7 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="118" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="B92" s="119">
         <v>152370.90134048002</v>
@@ -14014,7 +14233,7 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="123" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="B93" s="124">
         <v>144230</v>
@@ -15702,27 +15921,27 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="22" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="B158" s="22" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="C158" s="22" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="D158" s="22" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="E158" s="22" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="F158" s="22" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="22" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="B159" s="22">
         <v>1</v>
@@ -15742,7 +15961,7 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="22" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="B160" s="22">
         <v>1E-3</v>
@@ -15762,7 +15981,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="22" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="B161" s="22">
         <v>9.9999999999999995E-7</v>
@@ -15782,7 +16001,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="22" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="B162" s="22">
         <v>3.2808398950131233E-3</v>
@@ -15802,7 +16021,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="22" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="B163" s="22">
         <v>6.2137273664980671E-7</v>
@@ -15822,19 +16041,19 @@
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B100">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B100" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>$D$100:$E$100</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B99">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B99" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"None, GWP, GTP"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>$C$93:$D$93</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B92">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B92" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>"AR5/GWP,AR5/GTP,AR4/GWP,AR3/GWP,AR2/GWP,AR1/GWP"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-0200-000004000000}">
       <formula1>"1,2"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15844,24 +16063,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AI22"/>
+  <dimension ref="A1:AI24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="35" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="B1" s="5">
         <v>2017</v>
@@ -15968,7 +16189,7 @@
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B2" s="5">
         <f>About!$A$64*10^6</f>
@@ -16109,430 +16330,430 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B3" s="5">
-        <f>'AEO Table 73'!C66*10^12</f>
-        <v>19437477000000</v>
+        <f>'AEO Table 73'!C66*10^12*About!$A$66</f>
+        <v>21426125271870</v>
       </c>
       <c r="C3" s="5">
-        <f>'AEO Table 73'!D66*10^12</f>
-        <v>19706896000000</v>
+        <f>'AEO Table 73'!D66*10^12*About!$A$66</f>
+        <v>21723108529760</v>
       </c>
       <c r="D3" s="5">
-        <f>'AEO Table 73'!E66*10^12</f>
-        <v>19588093000000</v>
+        <f>'AEO Table 73'!E66*10^12*About!$A$66</f>
+        <v>21592150794830</v>
       </c>
       <c r="E3" s="5">
-        <f>'AEO Table 73'!F66*10^12</f>
-        <v>19676338000000</v>
+        <f>'AEO Table 73'!F66*10^12*About!$A$66</f>
+        <v>21689424140780</v>
       </c>
       <c r="F3" s="5">
-        <f>'AEO Table 73'!G66*10^12</f>
-        <v>19593861000000</v>
+        <f>'AEO Table 73'!G66*10^12*About!$A$66</f>
+        <v>21598508918910</v>
       </c>
       <c r="G3" s="5">
-        <f>'AEO Table 73'!H66*10^12</f>
-        <v>19763271000000</v>
+        <f>'AEO Table 73'!H66*10^12*About!$A$66</f>
+        <v>21785251256009.996</v>
       </c>
       <c r="H3" s="5">
-        <f>'AEO Table 73'!I66*10^12</f>
-        <v>19874037000000</v>
+        <f>'AEO Table 73'!I66*10^12*About!$A$66</f>
+        <v>21907349725469.996</v>
       </c>
       <c r="I3" s="5">
-        <f>'AEO Table 73'!J66*10^12</f>
-        <v>19832983000000</v>
+        <f>'AEO Table 73'!J66*10^12*About!$A$66</f>
+        <v>21862095490729.996</v>
       </c>
       <c r="J3" s="5">
-        <f>'AEO Table 73'!K66*10^12</f>
-        <v>19854052000000</v>
+        <f>'AEO Table 73'!K66*10^12*About!$A$66</f>
+        <v>21885320060119.996</v>
       </c>
       <c r="K3" s="5">
-        <f>'AEO Table 73'!L66*10^12</f>
-        <v>19849159000000</v>
+        <f>'AEO Table 73'!L66*10^12*About!$A$66</f>
+        <v>21879926457289.996</v>
       </c>
       <c r="L3" s="5">
-        <f>'AEO Table 73'!M66*10^12</f>
-        <v>19841606000000</v>
+        <f>'AEO Table 73'!M66*10^12*About!$A$66</f>
+        <v>21871600709859.996</v>
       </c>
       <c r="M3" s="5">
-        <f>'AEO Table 73'!N66*10^12</f>
-        <v>19838451000000</v>
+        <f>'AEO Table 73'!N66*10^12*About!$A$66</f>
+        <v>21868122921809.996</v>
       </c>
       <c r="N3" s="5">
-        <f>'AEO Table 73'!O66*10^12</f>
-        <v>19782232000000</v>
+        <f>'AEO Table 73'!O66*10^12*About!$A$66</f>
+        <v>21806152155919.996</v>
       </c>
       <c r="O3" s="5">
-        <f>'AEO Table 73'!P66*10^12</f>
-        <v>19750866000000</v>
+        <f>'AEO Table 73'!P66*10^12*About!$A$66</f>
+        <v>21771577100459.996</v>
       </c>
       <c r="P3" s="5">
-        <f>'AEO Table 73'!Q66*10^12</f>
-        <v>19757530000000</v>
+        <f>'AEO Table 73'!Q66*10^12*About!$A$66</f>
+        <v>21778922894299.996</v>
       </c>
       <c r="Q3" s="5">
-        <f>'AEO Table 73'!R66*10^12</f>
-        <v>19792145000000</v>
+        <f>'AEO Table 73'!R66*10^12*About!$A$66</f>
+        <v>21817079354949.996</v>
       </c>
       <c r="R3" s="5">
-        <f>'AEO Table 73'!S66*10^12</f>
-        <v>19787580000000</v>
+        <f>'AEO Table 73'!S66*10^12*About!$A$66</f>
+        <v>21812047309799.996</v>
       </c>
       <c r="S3" s="5">
-        <f>'AEO Table 73'!T66*10^12</f>
-        <v>19792101000000</v>
+        <f>'AEO Table 73'!T66*10^12*About!$A$66</f>
+        <v>21817030853309.996</v>
       </c>
       <c r="T3" s="5">
-        <f>'AEO Table 73'!U66*10^12</f>
-        <v>19801369000000</v>
+        <f>'AEO Table 73'!U66*10^12*About!$A$66</f>
+        <v>21827247062389.996</v>
       </c>
       <c r="U3" s="5">
-        <f>'AEO Table 73'!V66*10^12</f>
-        <v>19790552000000</v>
+        <f>'AEO Table 73'!V66*10^12*About!$A$66</f>
+        <v>21815323375119.996</v>
       </c>
       <c r="V3" s="5">
-        <f>'AEO Table 73'!W66*10^12</f>
-        <v>19813770000000</v>
+        <f>'AEO Table 73'!W66*10^12*About!$A$66</f>
+        <v>21840916808699.996</v>
       </c>
       <c r="W3" s="5">
-        <f>'AEO Table 73'!X66*10^12</f>
-        <v>19823812000000</v>
+        <f>'AEO Table 73'!X66*10^12*About!$A$66</f>
+        <v>21851986205719.996</v>
       </c>
       <c r="X3" s="5">
-        <f>'AEO Table 73'!Y66*10^12</f>
-        <v>19819962000000</v>
+        <f>'AEO Table 73'!Y66*10^12*About!$A$66</f>
+        <v>21847742312219.996</v>
       </c>
       <c r="Y3" s="5">
-        <f>'AEO Table 73'!Z66*10^12</f>
-        <v>19817593000000</v>
+        <f>'AEO Table 73'!Z66*10^12*About!$A$66</f>
+        <v>21845130939829.996</v>
       </c>
       <c r="Z3" s="5">
-        <f>'AEO Table 73'!AA66*10^12</f>
-        <v>19814734000000</v>
+        <f>'AEO Table 73'!AA66*10^12*About!$A$66</f>
+        <v>21841979435539.996</v>
       </c>
       <c r="AA3" s="5">
-        <f>'AEO Table 73'!AB66*10^12</f>
-        <v>19808729000000</v>
+        <f>'AEO Table 73'!AB66*10^12*About!$A$66</f>
+        <v>21835360063989.996</v>
       </c>
       <c r="AB3" s="5">
-        <f>'AEO Table 73'!AC66*10^12</f>
-        <v>19816940000000</v>
+        <f>'AEO Table 73'!AC66*10^12*About!$A$66</f>
+        <v>21844411131399.996</v>
       </c>
       <c r="AC3" s="5">
-        <f>'AEO Table 73'!AD66*10^12</f>
-        <v>19822159000000</v>
+        <f>'AEO Table 73'!AD66*10^12*About!$A$66</f>
+        <v>21850164087289.996</v>
       </c>
       <c r="AD3" s="5">
-        <f>'AEO Table 73'!AE66*10^12</f>
-        <v>19832388000000</v>
+        <f>'AEO Table 73'!AE66*10^12*About!$A$66</f>
+        <v>21861439616279.996</v>
       </c>
       <c r="AE3" s="5">
-        <f>'AEO Table 73'!AF66*10^12</f>
-        <v>19856539000000</v>
+        <f>'AEO Table 73'!AF66*10^12*About!$A$66</f>
+        <v>21888061505089.996</v>
       </c>
       <c r="AF3" s="5">
-        <f>'AEO Table 73'!AG66*10^12</f>
-        <v>19880623000000</v>
+        <f>'AEO Table 73'!AG66*10^12*About!$A$66</f>
+        <v>21914609539129.996</v>
       </c>
       <c r="AG3" s="5">
-        <f>'AEO Table 73'!AH66*10^12</f>
-        <v>19899242000000</v>
+        <f>'AEO Table 73'!AH66*10^12*About!$A$66</f>
+        <v>21935133449019.996</v>
       </c>
       <c r="AH3" s="5">
-        <f>'AEO Table 73'!AI66*10^12</f>
-        <v>19884989000000</v>
+        <f>'AEO Table 73'!AI66*10^12*About!$A$66</f>
+        <v>21919422224589.996</v>
       </c>
       <c r="AI3" s="5">
-        <f>'AEO Table 73'!AJ66*10^12</f>
-        <v>19887484000000</v>
+        <f>'AEO Table 73'!AJ66*10^12*About!$A$66</f>
+        <v>21922172488039.996</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B4" s="5">
-        <f>'AEO Table 73'!C54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!C54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="C4" s="5">
-        <f>'AEO Table 73'!D54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!D54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="D4" s="5">
-        <f>'AEO Table 73'!E54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!E54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="E4" s="5">
-        <f>'AEO Table 73'!F54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!F54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="F4" s="5">
-        <f>'AEO Table 73'!G54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!G54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="G4" s="5">
-        <f>'AEO Table 73'!H54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!H54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="H4" s="5">
-        <f>'AEO Table 73'!I54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!I54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="I4" s="5">
-        <f>'AEO Table 73'!J54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!J54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="J4" s="5">
-        <f>'AEO Table 73'!K54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!K54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="K4" s="5">
-        <f>'AEO Table 73'!L54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!L54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="L4" s="5">
-        <f>'AEO Table 73'!M54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!M54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="M4" s="5">
-        <f>'AEO Table 73'!N54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!N54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="N4" s="5">
-        <f>'AEO Table 73'!O54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!O54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="O4" s="5">
-        <f>'AEO Table 73'!P54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!P54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="P4" s="5">
-        <f>'AEO Table 73'!Q54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!Q54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="Q4" s="5">
-        <f>'AEO Table 73'!R54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!R54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="R4" s="5">
-        <f>'AEO Table 73'!S54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!S54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="S4" s="5">
-        <f>'AEO Table 73'!T54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!T54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="T4" s="5">
-        <f>'AEO Table 73'!U54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!U54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="U4" s="5">
-        <f>'AEO Table 73'!V54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!V54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="V4" s="5">
-        <f>'AEO Table 73'!W54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!W54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="W4" s="5">
-        <f>'AEO Table 73'!X54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!X54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="X4" s="5">
-        <f>'AEO Table 73'!Y54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!Y54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="Y4" s="5">
-        <f>'AEO Table 73'!Z54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!Z54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="Z4" s="5">
-        <f>'AEO Table 73'!AA54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!AA54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="AA4" s="5">
-        <f>'AEO Table 73'!AB54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!AB54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="AB4" s="5">
-        <f>'AEO Table 73'!AC54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!AC54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="AC4" s="5">
-        <f>'AEO Table 73'!AD54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!AD54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="AD4" s="5">
-        <f>'AEO Table 73'!AE54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!AE54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="AE4" s="5">
-        <f>'AEO Table 73'!AF54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!AF54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="AF4" s="5">
-        <f>'AEO Table 73'!AG54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!AG54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="AG4" s="5">
-        <f>'AEO Table 73'!AH54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!AH54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="AH4" s="5">
-        <f>'AEO Table 73'!AI54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!AI54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="AI4" s="5">
-        <f>'AEO Table 73'!AJ54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!AJ54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B5" s="5">
-        <f t="shared" ref="B5:AI5" si="0">10^12</f>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="D5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="G5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="H5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="I5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="J5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="K5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="L5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="M5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="N5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="O5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="P5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="Q5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="R5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="S5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="T5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="U5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="V5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="W5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="X5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="Y5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="Z5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="AA5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="AB5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="AC5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="AD5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="AE5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="AF5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="AG5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="AH5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="AI5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B6" s="5">
         <v>0</v>
@@ -16639,7 +16860,7 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B7" s="5">
         <v>0</v>
@@ -16746,7 +16967,7 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
@@ -16853,853 +17074,853 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="C9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="D9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="E9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="F9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="G9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="H9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="I9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="J9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="K9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="L9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="M9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="N9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="O9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="P9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="Q9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="R9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="S9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="T9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="U9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="V9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="W9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="X9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="Y9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="Z9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="AA9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="AB9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="AC9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="AD9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="AE9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="AF9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="AG9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="AH9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="AI9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B10" s="5">
-        <f>'AEO Table 73'!C32*10^12</f>
-        <v>5056643000000</v>
+        <f>'AEO Table 73'!C32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42521770681818.188</v>
       </c>
       <c r="C10" s="5">
-        <f>'AEO Table 73'!D32*10^12</f>
-        <v>5055260000000</v>
+        <f>'AEO Table 73'!D32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42510140909090.914</v>
       </c>
       <c r="D10" s="5">
-        <f>'AEO Table 73'!E32*10^12</f>
-        <v>5055925000000</v>
+        <f>'AEO Table 73'!E32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42515732954545.453</v>
       </c>
       <c r="E10" s="5">
-        <f>'AEO Table 73'!F32*10^12</f>
-        <v>5056270000000</v>
+        <f>'AEO Table 73'!F32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42518634090909.086</v>
       </c>
       <c r="F10" s="5">
-        <f>'AEO Table 73'!G32*10^12</f>
-        <v>5055361000000</v>
+        <f>'AEO Table 73'!G32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42510990227272.727</v>
       </c>
       <c r="G10" s="5">
-        <f>'AEO Table 73'!H32*10^12</f>
-        <v>5053336000000</v>
+        <f>'AEO Table 73'!H32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42493961818181.813</v>
       </c>
       <c r="H10" s="5">
-        <f>'AEO Table 73'!I32*10^12</f>
-        <v>5050816000000</v>
+        <f>'AEO Table 73'!I32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42472770909090.914</v>
       </c>
       <c r="I10" s="5">
-        <f>'AEO Table 73'!J32*10^12</f>
-        <v>5050002000000</v>
+        <f>'AEO Table 73'!J32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42465925909090.914</v>
       </c>
       <c r="J10" s="5">
-        <f>'AEO Table 73'!K32*10^12</f>
-        <v>5049479000000</v>
+        <f>'AEO Table 73'!K32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42461527954545.453</v>
       </c>
       <c r="K10" s="5">
-        <f>'AEO Table 73'!L32*10^12</f>
-        <v>5049067000000</v>
+        <f>'AEO Table 73'!L32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42458063409090.914</v>
       </c>
       <c r="L10" s="5">
-        <f>'AEO Table 73'!M32*10^12</f>
-        <v>5048620000000</v>
+        <f>'AEO Table 73'!M32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42454304545454.547</v>
       </c>
       <c r="M10" s="5">
-        <f>'AEO Table 73'!N32*10^12</f>
-        <v>5048186000000</v>
+        <f>'AEO Table 73'!N32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42450655000000</v>
       </c>
       <c r="N10" s="5">
-        <f>'AEO Table 73'!O32*10^12</f>
-        <v>5047752000000</v>
+        <f>'AEO Table 73'!O32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42447005454545.453</v>
       </c>
       <c r="O10" s="5">
-        <f>'AEO Table 73'!P32*10^12</f>
-        <v>5047827000000</v>
+        <f>'AEO Table 73'!P32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42447636136363.641</v>
       </c>
       <c r="P10" s="5">
-        <f>'AEO Table 73'!Q32*10^12</f>
-        <v>5047112000000</v>
+        <f>'AEO Table 73'!Q32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42441623636363.641</v>
       </c>
       <c r="Q10" s="5">
-        <f>'AEO Table 73'!R32*10^12</f>
-        <v>5046712000000</v>
+        <f>'AEO Table 73'!R32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42438260000000</v>
       </c>
       <c r="R10" s="5">
-        <f>'AEO Table 73'!S32*10^12</f>
-        <v>5046464000000</v>
+        <f>'AEO Table 73'!S32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42436174545454.547</v>
       </c>
       <c r="S10" s="5">
-        <f>'AEO Table 73'!T32*10^12</f>
-        <v>5045877000000</v>
+        <f>'AEO Table 73'!T32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42431238409090.914</v>
       </c>
       <c r="T10" s="5">
-        <f>'AEO Table 73'!U32*10^12</f>
-        <v>5045186000000</v>
+        <f>'AEO Table 73'!U32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42425427727272.727</v>
       </c>
       <c r="U10" s="5">
-        <f>'AEO Table 73'!V32*10^12</f>
-        <v>5044430000000</v>
+        <f>'AEO Table 73'!V32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42419070454545.453</v>
       </c>
       <c r="V10" s="5">
-        <f>'AEO Table 73'!W32*10^12</f>
-        <v>5043581000000</v>
+        <f>'AEO Table 73'!W32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42411931136363.641</v>
       </c>
       <c r="W10" s="5">
-        <f>'AEO Table 73'!X32*10^12</f>
-        <v>5042755000000</v>
+        <f>'AEO Table 73'!X32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42404985227272.727</v>
       </c>
       <c r="X10" s="5">
-        <f>'AEO Table 73'!Y32*10^12</f>
-        <v>5041688000000</v>
+        <f>'AEO Table 73'!Y32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42396012727272.727</v>
       </c>
       <c r="Y10" s="5">
-        <f>'AEO Table 73'!Z32*10^12</f>
-        <v>5040498000000</v>
+        <f>'AEO Table 73'!Z32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42386005909090.914</v>
       </c>
       <c r="Z10" s="5">
-        <f>'AEO Table 73'!AA32*10^12</f>
-        <v>5039160000000</v>
+        <f>'AEO Table 73'!AA32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42374754545454.547</v>
       </c>
       <c r="AA10" s="5">
-        <f>'AEO Table 73'!AB32*10^12</f>
-        <v>5037867000000</v>
+        <f>'AEO Table 73'!AB32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42363881590909.086</v>
       </c>
       <c r="AB10" s="5">
-        <f>'AEO Table 73'!AC32*10^12</f>
-        <v>5036224000000</v>
+        <f>'AEO Table 73'!AC32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42350065454545.453</v>
       </c>
       <c r="AC10" s="5">
-        <f>'AEO Table 73'!AD32*10^12</f>
-        <v>5034602000000</v>
+        <f>'AEO Table 73'!AD32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42336425909090.914</v>
       </c>
       <c r="AD10" s="5">
-        <f>'AEO Table 73'!AE32*10^12</f>
-        <v>5032873000000</v>
+        <f>'AEO Table 73'!AE32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42321886590909.086</v>
       </c>
       <c r="AE10" s="5">
-        <f>'AEO Table 73'!AF32*10^12</f>
-        <v>5030945000000</v>
+        <f>'AEO Table 73'!AF32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42305673863636.359</v>
       </c>
       <c r="AF10" s="5">
-        <f>'AEO Table 73'!AG32*10^12</f>
-        <v>5028548000000</v>
+        <f>'AEO Table 73'!AG32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42285517272727.273</v>
       </c>
       <c r="AG10" s="5">
-        <f>'AEO Table 73'!AH32*10^12</f>
-        <v>5025918000000</v>
+        <f>'AEO Table 73'!AH32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42263401363636.359</v>
       </c>
       <c r="AH10" s="5">
-        <f>'AEO Table 73'!AI32*10^12</f>
-        <v>5023038000000</v>
+        <f>'AEO Table 73'!AI32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42239183181818.188</v>
       </c>
       <c r="AI10" s="5">
-        <f>'AEO Table 73'!AJ32*10^12</f>
-        <v>5023036000000</v>
+        <f>'AEO Table 73'!AJ32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42239166363636.359</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B11" s="5">
-        <f>'AEO Table 73'!C19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!C19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="C11" s="5">
-        <f>'AEO Table 73'!D19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!D19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="D11" s="5">
-        <f>'AEO Table 73'!E19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!E19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="E11" s="5">
-        <f>'AEO Table 73'!F19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!F19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="F11" s="5">
-        <f>'AEO Table 73'!G19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!G19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="G11" s="5">
-        <f>'AEO Table 73'!H19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!H19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="H11" s="5">
-        <f>'AEO Table 73'!I19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!I19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="I11" s="5">
-        <f>'AEO Table 73'!J19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!J19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="J11" s="5">
-        <f>'AEO Table 73'!K19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!K19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="K11" s="5">
-        <f>'AEO Table 73'!L19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!L19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="L11" s="5">
-        <f>'AEO Table 73'!M19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!M19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="M11" s="5">
-        <f>'AEO Table 73'!N19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!N19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="N11" s="5">
-        <f>'AEO Table 73'!O19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!O19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="O11" s="5">
-        <f>'AEO Table 73'!P19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!P19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="P11" s="5">
-        <f>'AEO Table 73'!Q19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!Q19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="Q11" s="5">
-        <f>'AEO Table 73'!R19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!R19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="R11" s="5">
-        <f>'AEO Table 73'!S19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!S19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="S11" s="5">
-        <f>'AEO Table 73'!T19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!T19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="T11" s="5">
-        <f>'AEO Table 73'!U19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!U19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="U11" s="5">
-        <f>'AEO Table 73'!V19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!V19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="V11" s="5">
-        <f>'AEO Table 73'!W19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!W19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="W11" s="5">
-        <f>'AEO Table 73'!X19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!X19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="X11" s="5">
-        <f>'AEO Table 73'!Y19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!Y19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="Y11" s="5">
-        <f>'AEO Table 73'!Z19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!Z19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="Z11" s="5">
-        <f>'AEO Table 73'!AA19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!AA19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="AA11" s="5">
-        <f>'AEO Table 73'!AB19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!AB19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="AB11" s="5">
-        <f>'AEO Table 73'!AC19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!AC19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="AC11" s="5">
-        <f>'AEO Table 73'!AD19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!AD19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="AD11" s="5">
-        <f>'AEO Table 73'!AE19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!AE19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="AE11" s="5">
-        <f>'AEO Table 73'!AF19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!AF19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="AF11" s="5">
-        <f>'AEO Table 73'!AG19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!AG19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="AG11" s="5">
-        <f>'AEO Table 73'!AH19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!AH19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="AH11" s="5">
-        <f>'AEO Table 73'!AI19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!AI19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="AI11" s="5">
-        <f>'AEO Table 73'!AJ19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!AJ19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B12" s="5">
-        <f>'AEO Table 73'!C29*10^12</f>
-        <v>3997220000000</v>
+        <f>'AEO Table 73'!C29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33612986363636.363</v>
       </c>
       <c r="C12" s="5">
-        <f>'AEO Table 73'!D29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!D29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="D12" s="5">
-        <f>'AEO Table 73'!E29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!E29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="E12" s="5">
-        <f>'AEO Table 73'!F29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!F29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="F12" s="5">
-        <f>'AEO Table 73'!G29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!G29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="G12" s="5">
-        <f>'AEO Table 73'!H29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!H29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="H12" s="5">
-        <f>'AEO Table 73'!I29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!I29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="I12" s="5">
-        <f>'AEO Table 73'!J29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!J29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="J12" s="5">
-        <f>'AEO Table 73'!K29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!K29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="K12" s="5">
-        <f>'AEO Table 73'!L29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!L29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="L12" s="5">
-        <f>'AEO Table 73'!M29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!M29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="M12" s="5">
-        <f>'AEO Table 73'!N29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!N29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="N12" s="5">
-        <f>'AEO Table 73'!O29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!O29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="O12" s="5">
-        <f>'AEO Table 73'!P29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!P29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="P12" s="5">
-        <f>'AEO Table 73'!Q29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!Q29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="Q12" s="5">
-        <f>'AEO Table 73'!R29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!R29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="R12" s="5">
-        <f>'AEO Table 73'!S29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!S29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="S12" s="5">
-        <f>'AEO Table 73'!T29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!T29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="T12" s="5">
-        <f>'AEO Table 73'!U29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!U29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="U12" s="5">
-        <f>'AEO Table 73'!V29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!V29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="V12" s="5">
-        <f>'AEO Table 73'!W29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!W29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="W12" s="5">
-        <f>'AEO Table 73'!X29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!X29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="X12" s="5">
-        <f>'AEO Table 73'!Y29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!Y29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="Y12" s="5">
-        <f>'AEO Table 73'!Z29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!Z29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="Z12" s="5">
-        <f>'AEO Table 73'!AA29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!AA29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="AA12" s="5">
-        <f>'AEO Table 73'!AB29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!AB29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="AB12" s="5">
-        <f>'AEO Table 73'!AC29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!AC29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="AC12" s="5">
-        <f>'AEO Table 73'!AD29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!AD29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="AD12" s="5">
-        <f>'AEO Table 73'!AE29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!AE29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="AE12" s="5">
-        <f>'AEO Table 73'!AF29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!AF29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="AF12" s="5">
-        <f>'AEO Table 73'!AG29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!AG29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="AG12" s="5">
-        <f>'AEO Table 73'!AH29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!AH29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="AH12" s="5">
-        <f>'AEO Table 73'!AI29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!AI29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="AI12" s="5">
-        <f>'AEO Table 73'!AJ29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!AJ29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B13" s="5">
-        <f>'AEO Table 73'!C18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!C18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="C13" s="5">
-        <f>'AEO Table 73'!D18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!D18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="D13" s="5">
-        <f>'AEO Table 73'!E18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!E18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="E13" s="5">
-        <f>'AEO Table 73'!F18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!F18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="F13" s="5">
-        <f>'AEO Table 73'!G18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!G18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="G13" s="5">
-        <f>'AEO Table 73'!H18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!H18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="H13" s="5">
-        <f>'AEO Table 73'!I18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!I18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="I13" s="5">
-        <f>'AEO Table 73'!J18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!J18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="J13" s="5">
-        <f>'AEO Table 73'!K18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!K18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="K13" s="5">
-        <f>'AEO Table 73'!L18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!L18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="L13" s="5">
-        <f>'AEO Table 73'!M18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!M18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="M13" s="5">
-        <f>'AEO Table 73'!N18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!N18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="N13" s="5">
-        <f>'AEO Table 73'!O18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!O18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="O13" s="5">
-        <f>'AEO Table 73'!P18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!P18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="P13" s="5">
-        <f>'AEO Table 73'!Q18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!Q18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="Q13" s="5">
-        <f>'AEO Table 73'!R18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!R18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="R13" s="5">
-        <f>'AEO Table 73'!S18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!S18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="S13" s="5">
-        <f>'AEO Table 73'!T18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!T18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="T13" s="5">
-        <f>'AEO Table 73'!U18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!U18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="U13" s="5">
-        <f>'AEO Table 73'!V18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!V18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="V13" s="5">
-        <f>'AEO Table 73'!W18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!W18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="W13" s="5">
-        <f>'AEO Table 73'!X18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!X18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="X13" s="5">
-        <f>'AEO Table 73'!Y18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!Y18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="Y13" s="5">
-        <f>'AEO Table 73'!Z18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!Z18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="Z13" s="5">
-        <f>'AEO Table 73'!AA18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!AA18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="AA13" s="5">
-        <f>'AEO Table 73'!AB18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!AB18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="AB13" s="5">
-        <f>'AEO Table 73'!AC18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!AC18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="AC13" s="5">
-        <f>'AEO Table 73'!AD18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!AD18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="AD13" s="5">
-        <f>'AEO Table 73'!AE18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!AE18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="AE13" s="5">
-        <f>'AEO Table 73'!AF18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!AF18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="AF13" s="5">
-        <f>'AEO Table 73'!AG18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!AG18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="AG13" s="5">
-        <f>'AEO Table 73'!AH18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!AH18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="AH13" s="5">
-        <f>'AEO Table 73'!AI18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!AI18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="AI13" s="5">
-        <f>'AEO Table 73'!AJ18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!AJ18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="B14" s="5">
-        <f>'AEO Table 73'!C30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!C30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="C14" s="5">
-        <f>'AEO Table 73'!D30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!D30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="D14" s="5">
-        <f>'AEO Table 73'!E30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!E30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="E14" s="5">
-        <f>'AEO Table 73'!F30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!F30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="F14" s="5">
-        <f>'AEO Table 73'!G30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!G30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="G14" s="5">
-        <f>'AEO Table 73'!H30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!H30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="H14" s="5">
-        <f>'AEO Table 73'!I30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!I30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="I14" s="5">
-        <f>'AEO Table 73'!J30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!J30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="J14" s="5">
-        <f>'AEO Table 73'!K30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!K30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="K14" s="5">
-        <f>'AEO Table 73'!L30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!L30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="L14" s="5">
-        <f>'AEO Table 73'!M30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!M30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="M14" s="5">
-        <f>'AEO Table 73'!N30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!N30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="N14" s="5">
-        <f>'AEO Table 73'!O30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!O30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="O14" s="5">
-        <f>'AEO Table 73'!P30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!P30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="P14" s="5">
-        <f>'AEO Table 73'!Q30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!Q30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="Q14" s="5">
-        <f>'AEO Table 73'!R30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!R30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="R14" s="5">
-        <f>'AEO Table 73'!S30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!S30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="S14" s="5">
-        <f>'AEO Table 73'!T30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!T30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="T14" s="5">
-        <f>'AEO Table 73'!U30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!U30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="U14" s="5">
-        <f>'AEO Table 73'!V30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!V30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="V14" s="5">
-        <f>'AEO Table 73'!W30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!W30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="W14" s="5">
-        <f>'AEO Table 73'!X30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!X30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="X14" s="5">
-        <f>'AEO Table 73'!Y30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!Y30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="Y14" s="5">
-        <f>'AEO Table 73'!Z30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!Z30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="Z14" s="5">
-        <f>'AEO Table 73'!AA30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!AA30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="AA14" s="5">
-        <f>'AEO Table 73'!AB30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!AB30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="AB14" s="5">
-        <f>'AEO Table 73'!AC30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!AC30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="AC14" s="5">
-        <f>'AEO Table 73'!AD30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!AD30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="AD14" s="5">
-        <f>'AEO Table 73'!AE30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!AE30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="AE14" s="5">
-        <f>'AEO Table 73'!AF30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!AF30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="AF14" s="5">
-        <f>'AEO Table 73'!AG30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!AG30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="AG14" s="5">
-        <f>'AEO Table 73'!AH30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!AH30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="AH14" s="5">
-        <f>'AEO Table 73'!AI30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!AI30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="AI14" s="5">
-        <f>'AEO Table 73'!AJ30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!AJ30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B15" s="5">
         <f>About!$A$64*10^6</f>
@@ -17840,7 +18061,7 @@
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B16" s="5">
         <v>0</v>
@@ -17947,712 +18168,712 @@
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="C17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="D17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="E17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="F17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="G17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="H17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="I17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="J17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="K17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="L17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="M17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="N17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="O17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="P17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="Q17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="R17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="S17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="T17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="U17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="V17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="W17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="X17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="Y17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="Z17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="AA17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="AB17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="AC17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="AD17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="AE17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="AF17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="AG17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="AH17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="AI17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="B18" s="5">
-        <f>'AEO Table 73'!C48*10^12</f>
-        <v>5723000000000</v>
+        <f>'AEO Table 73'!C48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40860011350737.797</v>
       </c>
       <c r="C18" s="5">
-        <f>'AEO Table 73'!D48*10^12</f>
-        <v>5719936000000</v>
+        <f>'AEO Table 73'!D48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40838135573212.258</v>
       </c>
       <c r="D18" s="5">
-        <f>'AEO Table 73'!E48*10^12</f>
-        <v>5709374000000</v>
+        <f>'AEO Table 73'!E48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40762726969353.008</v>
       </c>
       <c r="E18" s="5">
-        <f>'AEO Table 73'!F48*10^12</f>
-        <v>5702021000000</v>
+        <f>'AEO Table 73'!F48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40710229387060.156</v>
       </c>
       <c r="F18" s="5">
-        <f>'AEO Table 73'!G48*10^12</f>
-        <v>5699036000000</v>
+        <f>'AEO Table 73'!G48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40688917639046.539</v>
       </c>
       <c r="G18" s="5">
-        <f>'AEO Table 73'!H48*10^12</f>
-        <v>5702903000000</v>
+        <f>'AEO Table 73'!H48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40716526526674.234</v>
       </c>
       <c r="H18" s="5">
-        <f>'AEO Table 73'!I48*10^12</f>
-        <v>5701469000000</v>
+        <f>'AEO Table 73'!I48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40706288320090.805</v>
       </c>
       <c r="I18" s="5">
-        <f>'AEO Table 73'!J48*10^12</f>
-        <v>5697845000000</v>
+        <f>'AEO Table 73'!J48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40680414358683.313</v>
       </c>
       <c r="J18" s="5">
-        <f>'AEO Table 73'!K48*10^12</f>
-        <v>5696569000000</v>
+        <f>'AEO Table 73'!K48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40671304211123.727</v>
       </c>
       <c r="K18" s="5">
-        <f>'AEO Table 73'!L48*10^12</f>
-        <v>5695571000000</v>
+        <f>'AEO Table 73'!L48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40664178876276.953</v>
       </c>
       <c r="L18" s="5">
-        <f>'AEO Table 73'!M48*10^12</f>
-        <v>5691691000000</v>
+        <f>'AEO Table 73'!M48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40636477173666.289</v>
       </c>
       <c r="M18" s="5">
-        <f>'AEO Table 73'!N48*10^12</f>
-        <v>5689583000000</v>
+        <f>'AEO Table 73'!N48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40621426867196.367</v>
       </c>
       <c r="N18" s="5">
-        <f>'AEO Table 73'!O48*10^12</f>
-        <v>5687317000000</v>
+        <f>'AEO Table 73'!O48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40605248501702.617</v>
       </c>
       <c r="O18" s="5">
-        <f>'AEO Table 73'!P48*10^12</f>
-        <v>5686403000000</v>
+        <f>'AEO Table 73'!P48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40598722894438.141</v>
       </c>
       <c r="P18" s="5">
-        <f>'AEO Table 73'!Q48*10^12</f>
-        <v>5685931000000</v>
+        <f>'AEO Table 73'!Q48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40595352996594.781</v>
       </c>
       <c r="Q18" s="5">
-        <f>'AEO Table 73'!R48*10^12</f>
-        <v>5686055000000</v>
+        <f>'AEO Table 73'!R48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40596238308740.07</v>
       </c>
       <c r="R18" s="5">
-        <f>'AEO Table 73'!S48*10^12</f>
-        <v>5686259000000</v>
+        <f>'AEO Table 73'!S48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40597694790011.352</v>
       </c>
       <c r="S18" s="5">
-        <f>'AEO Table 73'!T48*10^12</f>
-        <v>5685382000000</v>
+        <f>'AEO Table 73'!T48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40591433348467.648</v>
       </c>
       <c r="T18" s="5">
-        <f>'AEO Table 73'!U48*10^12</f>
-        <v>5685214000000</v>
+        <f>'AEO Table 73'!U48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40590233893303.063</v>
       </c>
       <c r="U18" s="5">
-        <f>'AEO Table 73'!V48*10^12</f>
-        <v>5685896000000</v>
+        <f>'AEO Table 73'!V48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40595103110102.156</v>
       </c>
       <c r="V18" s="5">
-        <f>'AEO Table 73'!W48*10^12</f>
-        <v>5686885000000</v>
+        <f>'AEO Table 73'!W48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40602164188422.25</v>
       </c>
       <c r="W18" s="5">
-        <f>'AEO Table 73'!X48*10^12</f>
-        <v>5687922000000</v>
+        <f>'AEO Table 73'!X48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40609567968217.938</v>
       </c>
       <c r="X18" s="5">
-        <f>'AEO Table 73'!Y48*10^12</f>
-        <v>5690170000000</v>
+        <f>'AEO Table 73'!Y48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40625617820658.344</v>
       </c>
       <c r="Y18" s="5">
-        <f>'AEO Table 73'!Z48*10^12</f>
-        <v>5690964000000</v>
+        <f>'AEO Table 73'!Z48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40631286674233.828</v>
       </c>
       <c r="Z18" s="5">
-        <f>'AEO Table 73'!AA48*10^12</f>
-        <v>5689439000000</v>
+        <f>'AEO Table 73'!AA48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40620398762769.578</v>
       </c>
       <c r="AA18" s="5">
-        <f>'AEO Table 73'!AB48*10^12</f>
-        <v>5688754000000</v>
+        <f>'AEO Table 73'!AB48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40615508127128.266</v>
       </c>
       <c r="AB18" s="5">
-        <f>'AEO Table 73'!AC48*10^12</f>
-        <v>5686469000000</v>
+        <f>'AEO Table 73'!AC48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40599194108967.078</v>
       </c>
       <c r="AC18" s="5">
-        <f>'AEO Table 73'!AD48*10^12</f>
-        <v>5684444000000</v>
+        <f>'AEO Table 73'!AD48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40584736390465.375</v>
       </c>
       <c r="AD18" s="5">
-        <f>'AEO Table 73'!AE48*10^12</f>
-        <v>5683516000000</v>
+        <f>'AEO Table 73'!AE48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40578110828603.859</v>
       </c>
       <c r="AE18" s="5">
-        <f>'AEO Table 73'!AF48*10^12</f>
-        <v>5682888000000</v>
+        <f>'AEO Table 73'!AF48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40573627150964.813</v>
       </c>
       <c r="AF18" s="5">
-        <f>'AEO Table 73'!AG48*10^12</f>
-        <v>5681393000000</v>
+        <f>'AEO Table 73'!AG48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40562953427922.813</v>
       </c>
       <c r="AG18" s="5">
-        <f>'AEO Table 73'!AH48*10^12</f>
-        <v>5679274000000</v>
+        <f>'AEO Table 73'!AH48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40547824585698.07</v>
       </c>
       <c r="AH18" s="5">
-        <f>'AEO Table 73'!AI48*10^12</f>
-        <v>5678185000000</v>
+        <f>'AEO Table 73'!AI48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40540049545970.492</v>
       </c>
       <c r="AI18" s="5">
-        <f>'AEO Table 73'!AJ48*10^12</f>
-        <v>5676202000000</v>
+        <f>'AEO Table 73'!AJ48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40525891691259.93</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="B19" s="5">
-        <f>'AEO Table 73'!C41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!C41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="C19" s="5">
-        <f>'AEO Table 73'!D41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!D41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="D19" s="5">
-        <f>'AEO Table 73'!E41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!E41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="E19" s="5">
-        <f>'AEO Table 73'!F41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!F41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="F19" s="5">
-        <f>'AEO Table 73'!G41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!G41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="G19" s="5">
-        <f>'AEO Table 73'!H41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!H41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="H19" s="5">
-        <f>'AEO Table 73'!I41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!I41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="I19" s="5">
-        <f>'AEO Table 73'!J41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!J41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="J19" s="5">
-        <f>'AEO Table 73'!K41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!K41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="K19" s="5">
-        <f>'AEO Table 73'!L41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!L41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="L19" s="5">
-        <f>'AEO Table 73'!M41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!M41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="M19" s="5">
-        <f>'AEO Table 73'!N41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!N41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="N19" s="5">
-        <f>'AEO Table 73'!O41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!O41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="O19" s="5">
-        <f>'AEO Table 73'!P41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!P41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="P19" s="5">
-        <f>'AEO Table 73'!Q41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!Q41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="Q19" s="5">
-        <f>'AEO Table 73'!R41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!R41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="R19" s="5">
-        <f>'AEO Table 73'!S41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!S41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="S19" s="5">
-        <f>'AEO Table 73'!T41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!T41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="T19" s="5">
-        <f>'AEO Table 73'!U41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!U41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="U19" s="5">
-        <f>'AEO Table 73'!V41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!V41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="V19" s="5">
-        <f>'AEO Table 73'!W41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!W41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="W19" s="5">
-        <f>'AEO Table 73'!X41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!X41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="X19" s="5">
-        <f>'AEO Table 73'!Y41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!Y41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="Y19" s="5">
-        <f>'AEO Table 73'!Z41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!Z41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="Z19" s="5">
-        <f>'AEO Table 73'!AA41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!AA41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="AA19" s="5">
-        <f>'AEO Table 73'!AB41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!AB41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="AB19" s="5">
-        <f>'AEO Table 73'!AC41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!AC41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="AC19" s="5">
-        <f>'AEO Table 73'!AD41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!AD41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="AD19" s="5">
-        <f>'AEO Table 73'!AE41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!AE41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="AE19" s="5">
-        <f>'AEO Table 73'!AF41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!AF41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="AF19" s="5">
-        <f>'AEO Table 73'!AG41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!AG41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="AG19" s="5">
-        <f>'AEO Table 73'!AH41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!AH41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="AH19" s="5">
-        <f>'AEO Table 73'!AI41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!AI41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="AI19" s="5">
-        <f>'AEO Table 73'!AJ41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!AJ41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="B20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="C20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="D20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="E20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="F20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="G20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="H20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="I20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="J20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="K20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="L20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="M20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="N20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="O20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="P20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="Q20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="R20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="S20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="T20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="U20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="V20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="W20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="X20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="Y20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="Z20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="AA20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="AB20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="AC20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="AD20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="AE20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="AF20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="AG20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="AH20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="AI20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="B21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="C21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="D21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="E21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="F21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="G21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="H21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="I21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="J21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="K21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="L21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="M21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="N21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="O21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="P21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="Q21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="R21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="S21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="T21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="U21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="V21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="W21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="X21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="Y21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="Z21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="AA21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="AB21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="AC21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="AD21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="AE21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="AF21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="AG21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="AH21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="AI21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="B22" s="207">
         <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
@@ -18790,6 +19011,9 @@
         <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
         <v>874650000000</v>
       </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B24" s="209"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18797,13 +19021,15 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AI22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18814,7 +19040,7 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="B1" s="5">
         <v>2017</v>
@@ -18921,7 +19147,7 @@
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="B2" s="5">
         <f>About!$A$64</f>
@@ -19062,430 +19288,430 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B3" s="5">
-        <f>'AEO Table 73'!C66*10^6</f>
-        <v>19437477</v>
+        <f>'AEO Table 73'!C66*10^6*About!$A$66</f>
+        <v>21426125.271869998</v>
       </c>
       <c r="C3" s="5">
-        <f>'AEO Table 73'!D66*10^6</f>
-        <v>19706896</v>
+        <f>'AEO Table 73'!D66*10^6*About!$A$66</f>
+        <v>21723108.529759999</v>
       </c>
       <c r="D3" s="5">
-        <f>'AEO Table 73'!E66*10^6</f>
-        <v>19588093</v>
+        <f>'AEO Table 73'!E66*10^6*About!$A$66</f>
+        <v>21592150.794829998</v>
       </c>
       <c r="E3" s="5">
-        <f>'AEO Table 73'!F66*10^6</f>
-        <v>19676338</v>
+        <f>'AEO Table 73'!F66*10^6*About!$A$66</f>
+        <v>21689424.140779998</v>
       </c>
       <c r="F3" s="5">
-        <f>'AEO Table 73'!G66*10^6</f>
-        <v>19593861</v>
+        <f>'AEO Table 73'!G66*10^6*About!$A$66</f>
+        <v>21598508.918909997</v>
       </c>
       <c r="G3" s="5">
-        <f>'AEO Table 73'!H66*10^6</f>
-        <v>19763271</v>
+        <f>'AEO Table 73'!H66*10^6*About!$A$66</f>
+        <v>21785251.25601</v>
       </c>
       <c r="H3" s="5">
-        <f>'AEO Table 73'!I66*10^6</f>
-        <v>19874037</v>
+        <f>'AEO Table 73'!I66*10^6*About!$A$66</f>
+        <v>21907349.725469999</v>
       </c>
       <c r="I3" s="5">
-        <f>'AEO Table 73'!J66*10^6</f>
-        <v>19832983</v>
+        <f>'AEO Table 73'!J66*10^6*About!$A$66</f>
+        <v>21862095.490729999</v>
       </c>
       <c r="J3" s="5">
-        <f>'AEO Table 73'!K66*10^6</f>
-        <v>19854052</v>
+        <f>'AEO Table 73'!K66*10^6*About!$A$66</f>
+        <v>21885320.060119998</v>
       </c>
       <c r="K3" s="5">
-        <f>'AEO Table 73'!L66*10^6</f>
-        <v>19849159</v>
+        <f>'AEO Table 73'!L66*10^6*About!$A$66</f>
+        <v>21879926.457289997</v>
       </c>
       <c r="L3" s="5">
-        <f>'AEO Table 73'!M66*10^6</f>
-        <v>19841606</v>
+        <f>'AEO Table 73'!M66*10^6*About!$A$66</f>
+        <v>21871600.709859997</v>
       </c>
       <c r="M3" s="5">
-        <f>'AEO Table 73'!N66*10^6</f>
-        <v>19838451</v>
+        <f>'AEO Table 73'!N66*10^6*About!$A$66</f>
+        <v>21868122.921809997</v>
       </c>
       <c r="N3" s="5">
-        <f>'AEO Table 73'!O66*10^6</f>
-        <v>19782232</v>
+        <f>'AEO Table 73'!O66*10^6*About!$A$66</f>
+        <v>21806152.155919999</v>
       </c>
       <c r="O3" s="5">
-        <f>'AEO Table 73'!P66*10^6</f>
-        <v>19750866</v>
+        <f>'AEO Table 73'!P66*10^6*About!$A$66</f>
+        <v>21771577.100459997</v>
       </c>
       <c r="P3" s="5">
-        <f>'AEO Table 73'!Q66*10^6</f>
-        <v>19757530</v>
+        <f>'AEO Table 73'!Q66*10^6*About!$A$66</f>
+        <v>21778922.894299999</v>
       </c>
       <c r="Q3" s="5">
-        <f>'AEO Table 73'!R66*10^6</f>
-        <v>19792145</v>
+        <f>'AEO Table 73'!R66*10^6*About!$A$66</f>
+        <v>21817079.35495</v>
       </c>
       <c r="R3" s="5">
-        <f>'AEO Table 73'!S66*10^6</f>
-        <v>19787580</v>
+        <f>'AEO Table 73'!S66*10^6*About!$A$66</f>
+        <v>21812047.309799999</v>
       </c>
       <c r="S3" s="5">
-        <f>'AEO Table 73'!T66*10^6</f>
-        <v>19792101</v>
+        <f>'AEO Table 73'!T66*10^6*About!$A$66</f>
+        <v>21817030.853309996</v>
       </c>
       <c r="T3" s="5">
-        <f>'AEO Table 73'!U66*10^6</f>
-        <v>19801369</v>
+        <f>'AEO Table 73'!U66*10^6*About!$A$66</f>
+        <v>21827247.06239</v>
       </c>
       <c r="U3" s="5">
-        <f>'AEO Table 73'!V66*10^6</f>
-        <v>19790552</v>
+        <f>'AEO Table 73'!V66*10^6*About!$A$66</f>
+        <v>21815323.375119999</v>
       </c>
       <c r="V3" s="5">
-        <f>'AEO Table 73'!W66*10^6</f>
-        <v>19813770</v>
+        <f>'AEO Table 73'!W66*10^6*About!$A$66</f>
+        <v>21840916.808699999</v>
       </c>
       <c r="W3" s="5">
-        <f>'AEO Table 73'!X66*10^6</f>
-        <v>19823812</v>
+        <f>'AEO Table 73'!X66*10^6*About!$A$66</f>
+        <v>21851986.205719996</v>
       </c>
       <c r="X3" s="5">
-        <f>'AEO Table 73'!Y66*10^6</f>
-        <v>19819962</v>
+        <f>'AEO Table 73'!Y66*10^6*About!$A$66</f>
+        <v>21847742.31222</v>
       </c>
       <c r="Y3" s="5">
-        <f>'AEO Table 73'!Z66*10^6</f>
-        <v>19817593</v>
+        <f>'AEO Table 73'!Z66*10^6*About!$A$66</f>
+        <v>21845130.939829998</v>
       </c>
       <c r="Z3" s="5">
-        <f>'AEO Table 73'!AA66*10^6</f>
-        <v>19814734</v>
+        <f>'AEO Table 73'!AA66*10^6*About!$A$66</f>
+        <v>21841979.435539998</v>
       </c>
       <c r="AA3" s="5">
-        <f>'AEO Table 73'!AB66*10^6</f>
-        <v>19808729</v>
+        <f>'AEO Table 73'!AB66*10^6*About!$A$66</f>
+        <v>21835360.063989997</v>
       </c>
       <c r="AB3" s="5">
-        <f>'AEO Table 73'!AC66*10^6</f>
-        <v>19816940</v>
+        <f>'AEO Table 73'!AC66*10^6*About!$A$66</f>
+        <v>21844411.131399997</v>
       </c>
       <c r="AC3" s="5">
-        <f>'AEO Table 73'!AD66*10^6</f>
-        <v>19822159</v>
+        <f>'AEO Table 73'!AD66*10^6*About!$A$66</f>
+        <v>21850164.087289996</v>
       </c>
       <c r="AD3" s="5">
-        <f>'AEO Table 73'!AE66*10^6</f>
-        <v>19832388</v>
+        <f>'AEO Table 73'!AE66*10^6*About!$A$66</f>
+        <v>21861439.616279997</v>
       </c>
       <c r="AE3" s="5">
-        <f>'AEO Table 73'!AF66*10^6</f>
-        <v>19856539</v>
+        <f>'AEO Table 73'!AF66*10^6*About!$A$66</f>
+        <v>21888061.505089998</v>
       </c>
       <c r="AF3" s="5">
-        <f>'AEO Table 73'!AG66*10^6</f>
-        <v>19880623</v>
+        <f>'AEO Table 73'!AG66*10^6*About!$A$66</f>
+        <v>21914609.539129999</v>
       </c>
       <c r="AG3" s="5">
-        <f>'AEO Table 73'!AH66*10^6</f>
-        <v>19899242</v>
+        <f>'AEO Table 73'!AH66*10^6*About!$A$66</f>
+        <v>21935133.449019998</v>
       </c>
       <c r="AH3" s="5">
-        <f>'AEO Table 73'!AI66*10^6</f>
-        <v>19884989</v>
+        <f>'AEO Table 73'!AI66*10^6*About!$A$66</f>
+        <v>21919422.22459</v>
       </c>
       <c r="AI3" s="5">
-        <f>'AEO Table 73'!AJ66*10^6</f>
-        <v>19887484</v>
+        <f>'AEO Table 73'!AJ66*10^6*About!$A$66</f>
+        <v>21922172.488039996</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B4" s="5">
-        <f>'AEO Table 73'!C54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="C4" s="5">
-        <f>'AEO Table 73'!D54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="D4" s="5">
-        <f>'AEO Table 73'!E54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="E4" s="5">
-        <f>'AEO Table 73'!F54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="F4" s="5">
-        <f>'AEO Table 73'!G54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="G4" s="5">
-        <f>'AEO Table 73'!H54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="H4" s="5">
-        <f>'AEO Table 73'!I54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="I4" s="5">
-        <f>'AEO Table 73'!J54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="J4" s="5">
-        <f>'AEO Table 73'!K54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="K4" s="5">
-        <f>'AEO Table 73'!L54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="L4" s="5">
-        <f>'AEO Table 73'!M54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="M4" s="5">
-        <f>'AEO Table 73'!N54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="N4" s="5">
-        <f>'AEO Table 73'!O54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="O4" s="5">
-        <f>'AEO Table 73'!P54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="P4" s="5">
-        <f>'AEO Table 73'!Q54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="Q4" s="5">
-        <f>'AEO Table 73'!R54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="R4" s="5">
-        <f>'AEO Table 73'!S54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="S4" s="5">
-        <f>'AEO Table 73'!T54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="T4" s="5">
-        <f>'AEO Table 73'!U54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="U4" s="5">
-        <f>'AEO Table 73'!V54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="V4" s="5">
-        <f>'AEO Table 73'!W54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="W4" s="5">
-        <f>'AEO Table 73'!X54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="X4" s="5">
-        <f>'AEO Table 73'!Y54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="Y4" s="5">
-        <f>'AEO Table 73'!Z54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="Z4" s="5">
-        <f>'AEO Table 73'!AA54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="AA4" s="5">
-        <f>'AEO Table 73'!AB54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="AB4" s="5">
-        <f>'AEO Table 73'!AC54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="AC4" s="5">
-        <f>'AEO Table 73'!AD54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="AD4" s="5">
-        <f>'AEO Table 73'!AE54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="AE4" s="5">
-        <f>'AEO Table 73'!AF54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="AF4" s="5">
-        <f>'AEO Table 73'!AG54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="AG4" s="5">
-        <f>'AEO Table 73'!AH54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="AH4" s="5">
-        <f>'AEO Table 73'!AI54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="AI4" s="5">
-        <f>'AEO Table 73'!AJ54*10^6</f>
-        <v>1036999.9999999999</v>
+        <v>323</v>
+      </c>
+      <c r="B4" s="209">
+        <f>'AEO Table 73'!C54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="C4" s="209">
+        <f>'AEO Table 73'!D54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="D4" s="209">
+        <f>'AEO Table 73'!E54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="E4" s="209">
+        <f>'AEO Table 73'!F54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="F4" s="209">
+        <f>'AEO Table 73'!G54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="G4" s="209">
+        <f>'AEO Table 73'!H54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="H4" s="209">
+        <f>'AEO Table 73'!I54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="I4" s="209">
+        <f>'AEO Table 73'!J54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="J4" s="209">
+        <f>'AEO Table 73'!K54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="K4" s="209">
+        <f>'AEO Table 73'!L54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="L4" s="209">
+        <f>'AEO Table 73'!M54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="M4" s="209">
+        <f>'AEO Table 73'!N54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="N4" s="209">
+        <f>'AEO Table 73'!O54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="O4" s="209">
+        <f>'AEO Table 73'!P54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="P4" s="209">
+        <f>'AEO Table 73'!Q54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="Q4" s="209">
+        <f>'AEO Table 73'!R54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="R4" s="209">
+        <f>'AEO Table 73'!S54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="S4" s="209">
+        <f>'AEO Table 73'!T54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="T4" s="209">
+        <f>'AEO Table 73'!U54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="U4" s="209">
+        <f>'AEO Table 73'!V54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="V4" s="209">
+        <f>'AEO Table 73'!W54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="W4" s="209">
+        <f>'AEO Table 73'!X54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="X4" s="209">
+        <f>'AEO Table 73'!Y54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="Y4" s="209">
+        <f>'AEO Table 73'!Z54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="Z4" s="209">
+        <f>'AEO Table 73'!AA54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="AA4" s="209">
+        <f>'AEO Table 73'!AB54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="AB4" s="209">
+        <f>'AEO Table 73'!AC54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="AC4" s="209">
+        <f>'AEO Table 73'!AD54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="AD4" s="209">
+        <f>'AEO Table 73'!AE54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="AE4" s="209">
+        <f>'AEO Table 73'!AF54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="AF4" s="209">
+        <f>'AEO Table 73'!AG54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="AG4" s="209">
+        <f>'AEO Table 73'!AH54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="AH4" s="209">
+        <f>'AEO Table 73'!AI54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="AI4" s="209">
+        <f>'AEO Table 73'!AJ54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="B5" s="5">
-        <f t="shared" ref="B5:AI5" si="0">10^6</f>
-        <v>1000000</v>
-      </c>
-      <c r="C5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="D5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="E5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="F5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="G5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="H5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="I5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="J5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="K5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="L5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="M5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="N5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="O5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="P5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="Q5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="R5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="S5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="T5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="U5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="V5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="W5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="X5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="Y5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="Z5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="AA5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="AB5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="AC5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="AD5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="AE5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="AF5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="AG5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="AH5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="AI5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
+        <v>349</v>
+      </c>
+      <c r="B5" s="209">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="C5" s="209">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="D5" s="209">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="E5" s="209">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="F5" s="209">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="G5" s="209">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="H5" s="209">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="I5" s="209">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="J5" s="209">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="K5" s="209">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="L5" s="209">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="M5" s="209">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="N5" s="209">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="O5" s="209">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="P5" s="209">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="Q5" s="209">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="R5" s="209">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="S5" s="209">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="T5" s="209">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="U5" s="209">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="V5" s="209">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="W5" s="209">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="X5" s="209">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="Y5" s="209">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="Z5" s="209">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="AA5" s="209">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="AB5" s="209">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="AC5" s="209">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="AD5" s="209">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="AE5" s="209">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="AF5" s="209">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="AG5" s="209">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="AH5" s="209">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="AI5" s="209">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B6" s="5">
         <v>0</v>
@@ -19592,7 +19818,7 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B7" s="5">
         <v>0</v>
@@ -19699,7 +19925,7 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
@@ -19806,853 +20032,853 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="C9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="D9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="E9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="F9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="G9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="H9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="I9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="J9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="K9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="L9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="M9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="N9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="O9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="P9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="Q9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="R9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="S9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="T9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="U9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="V9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="W9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="X9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="Y9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="Z9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="AA9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="AB9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="AC9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="AD9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="AE9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="AF9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="AG9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="AH9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="AI9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B10" s="5">
-        <f>'AEO Table 73'!C32*10^6/gal_per_barrel</f>
-        <v>120396.26190476191</v>
-      </c>
-      <c r="C10" s="5">
-        <f>'AEO Table 73'!D32*10^6/gal_per_barrel</f>
-        <v>120363.33333333333</v>
-      </c>
-      <c r="D10" s="5">
-        <f>'AEO Table 73'!E32*10^6/gal_per_barrel</f>
-        <v>120379.16666666667</v>
-      </c>
-      <c r="E10" s="5">
-        <f>'AEO Table 73'!F32*10^6/gal_per_barrel</f>
-        <v>120387.38095238095</v>
-      </c>
-      <c r="F10" s="5">
-        <f>'AEO Table 73'!G32*10^6/gal_per_barrel</f>
-        <v>120365.73809523809</v>
-      </c>
-      <c r="G10" s="5">
-        <f>'AEO Table 73'!H32*10^6/gal_per_barrel</f>
-        <v>120317.52380952382</v>
-      </c>
-      <c r="H10" s="5">
-        <f>'AEO Table 73'!I32*10^6/gal_per_barrel</f>
-        <v>120257.52380952382</v>
-      </c>
-      <c r="I10" s="5">
-        <f>'AEO Table 73'!J32*10^6/gal_per_barrel</f>
-        <v>120238.14285714286</v>
-      </c>
-      <c r="J10" s="5">
-        <f>'AEO Table 73'!K32*10^6/gal_per_barrel</f>
-        <v>120225.69047619047</v>
-      </c>
-      <c r="K10" s="5">
-        <f>'AEO Table 73'!L32*10^6/gal_per_barrel</f>
-        <v>120215.88095238095</v>
-      </c>
-      <c r="L10" s="5">
-        <f>'AEO Table 73'!M32*10^6/gal_per_barrel</f>
-        <v>120205.23809523809</v>
-      </c>
-      <c r="M10" s="5">
-        <f>'AEO Table 73'!N32*10^6/gal_per_barrel</f>
-        <v>120194.90476190476</v>
-      </c>
-      <c r="N10" s="5">
-        <f>'AEO Table 73'!O32*10^6/gal_per_barrel</f>
-        <v>120184.57142857143</v>
-      </c>
-      <c r="O10" s="5">
-        <f>'AEO Table 73'!P32*10^6/gal_per_barrel</f>
-        <v>120186.35714285714</v>
-      </c>
-      <c r="P10" s="5">
-        <f>'AEO Table 73'!Q32*10^6/gal_per_barrel</f>
-        <v>120169.33333333333</v>
-      </c>
-      <c r="Q10" s="5">
-        <f>'AEO Table 73'!R32*10^6/gal_per_barrel</f>
-        <v>120159.80952380953</v>
-      </c>
-      <c r="R10" s="5">
-        <f>'AEO Table 73'!S32*10^6/gal_per_barrel</f>
-        <v>120153.90476190476</v>
-      </c>
-      <c r="S10" s="5">
-        <f>'AEO Table 73'!T32*10^6/gal_per_barrel</f>
-        <v>120139.92857142857</v>
-      </c>
-      <c r="T10" s="5">
-        <f>'AEO Table 73'!U32*10^6/gal_per_barrel</f>
-        <v>120123.47619047618</v>
-      </c>
-      <c r="U10" s="5">
-        <f>'AEO Table 73'!V32*10^6/gal_per_barrel</f>
-        <v>120105.47619047618</v>
-      </c>
-      <c r="V10" s="5">
-        <f>'AEO Table 73'!W32*10^6/gal_per_barrel</f>
-        <v>120085.26190476191</v>
-      </c>
-      <c r="W10" s="5">
-        <f>'AEO Table 73'!X32*10^6/gal_per_barrel</f>
-        <v>120065.59523809524</v>
-      </c>
-      <c r="X10" s="5">
-        <f>'AEO Table 73'!Y32*10^6/gal_per_barrel</f>
-        <v>120040.19047619047</v>
-      </c>
-      <c r="Y10" s="5">
-        <f>'AEO Table 73'!Z32*10^6/gal_per_barrel</f>
-        <v>120011.85714285714</v>
-      </c>
-      <c r="Z10" s="5">
-        <f>'AEO Table 73'!AA32*10^6/gal_per_barrel</f>
-        <v>119980</v>
-      </c>
-      <c r="AA10" s="5">
-        <f>'AEO Table 73'!AB32*10^6/gal_per_barrel</f>
-        <v>119949.21428571429</v>
-      </c>
-      <c r="AB10" s="5">
-        <f>'AEO Table 73'!AC32*10^6/gal_per_barrel</f>
-        <v>119910.09523809524</v>
-      </c>
-      <c r="AC10" s="5">
-        <f>'AEO Table 73'!AD32*10^6/gal_per_barrel</f>
-        <v>119871.47619047618</v>
-      </c>
-      <c r="AD10" s="5">
-        <f>'AEO Table 73'!AE32*10^6/gal_per_barrel</f>
-        <v>119830.30952380953</v>
-      </c>
-      <c r="AE10" s="5">
-        <f>'AEO Table 73'!AF32*10^6/gal_per_barrel</f>
-        <v>119784.40476190476</v>
-      </c>
-      <c r="AF10" s="5">
-        <f>'AEO Table 73'!AG32*10^6/gal_per_barrel</f>
-        <v>119727.33333333333</v>
-      </c>
-      <c r="AG10" s="5">
-        <f>'AEO Table 73'!AH32*10^6/gal_per_barrel</f>
-        <v>119664.71428571429</v>
-      </c>
-      <c r="AH10" s="5">
-        <f>'AEO Table 73'!AI32*10^6/gal_per_barrel</f>
-        <v>119596.14285714286</v>
-      </c>
-      <c r="AI10" s="5">
-        <f>'AEO Table 73'!AJ32*10^6/gal_per_barrel</f>
-        <v>119596.09523809524</v>
+        <v>325</v>
+      </c>
+      <c r="B10" s="209">
+        <f>'AEO Table 73'!C32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31805.342592945519</v>
+      </c>
+      <c r="C10" s="209">
+        <f>'AEO Table 73'!D32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31796.64378055041</v>
+      </c>
+      <c r="D10" s="209">
+        <f>'AEO Table 73'!E32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31800.826506683996</v>
+      </c>
+      <c r="E10" s="209">
+        <f>'AEO Table 73'!F32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31802.99649242247</v>
+      </c>
+      <c r="F10" s="209">
+        <f>'AEO Table 73'!G32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31797.279051737616</v>
+      </c>
+      <c r="G10" s="209">
+        <f>'AEO Table 73'!H32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31784.542178924821</v>
+      </c>
+      <c r="H10" s="209">
+        <f>'AEO Table 73'!I32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31768.691848313341</v>
+      </c>
+      <c r="I10" s="209">
+        <f>'AEO Table 73'!J32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31763.571939933285</v>
+      </c>
+      <c r="J10" s="209">
+        <f>'AEO Table 73'!K32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31760.282367350028</v>
+      </c>
+      <c r="K10" s="209">
+        <f>'AEO Table 73'!L32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31757.690964091325</v>
+      </c>
+      <c r="L10" s="209">
+        <f>'AEO Table 73'!M32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31754.879417351909</v>
+      </c>
+      <c r="M10" s="209">
+        <f>'AEO Table 73'!N32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31752.149638191044</v>
+      </c>
+      <c r="N10" s="209">
+        <f>'AEO Table 73'!O32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31749.419859030178</v>
+      </c>
+      <c r="O10" s="209">
+        <f>'AEO Table 73'!P32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31749.891595060282</v>
+      </c>
+      <c r="P10" s="209">
+        <f>'AEO Table 73'!Q32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31745.394378239958</v>
+      </c>
+      <c r="Q10" s="209">
+        <f>'AEO Table 73'!R32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31742.878452746074</v>
+      </c>
+      <c r="R10" s="209">
+        <f>'AEO Table 73'!S32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31741.318578939867</v>
+      </c>
+      <c r="S10" s="209">
+        <f>'AEO Table 73'!T32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31737.626458277588</v>
+      </c>
+      <c r="T10" s="209">
+        <f>'AEO Table 73'!U32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31733.2801969869</v>
+      </c>
+      <c r="U10" s="209">
+        <f>'AEO Table 73'!V32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31728.525097803456</v>
+      </c>
+      <c r="V10" s="209">
+        <f>'AEO Table 73'!W32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31723.185045942686</v>
+      </c>
+      <c r="W10" s="209">
+        <f>'AEO Table 73'!X32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31717.989659797811</v>
+      </c>
+      <c r="X10" s="209">
+        <f>'AEO Table 73'!Y32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31711.278428542872</v>
+      </c>
+      <c r="Y10" s="209">
+        <f>'AEO Table 73'!Z32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31703.793550198563</v>
+      </c>
+      <c r="Z10" s="209">
+        <f>'AEO Table 73'!AA32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31695.377779421513</v>
+      </c>
+      <c r="AA10" s="209">
+        <f>'AEO Table 73'!AB32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31687.245050262529</v>
+      </c>
+      <c r="AB10" s="209">
+        <f>'AEO Table 73'!AC32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31676.910886296395</v>
+      </c>
+      <c r="AC10" s="209">
+        <f>'AEO Table 73'!AD32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31666.708808418687</v>
+      </c>
+      <c r="AD10" s="209">
+        <f>'AEO Table 73'!AE32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31655.833720471368</v>
+      </c>
+      <c r="AE10" s="209">
+        <f>'AEO Table 73'!AF32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31643.70695959084</v>
+      </c>
+      <c r="AF10" s="209">
+        <f>'AEO Table 73'!AG32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31628.630276068729</v>
+      </c>
+      <c r="AG10" s="209">
+        <f>'AEO Table 73'!AH32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31612.088065946431</v>
+      </c>
+      <c r="AH10" s="209">
+        <f>'AEO Table 73'!AI32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31593.973402390453</v>
+      </c>
+      <c r="AI10" s="209">
+        <f>'AEO Table 73'!AJ32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31593.960822762987</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B11" s="5">
-        <f>'AEO Table 73'!C19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="C11" s="5">
-        <f>'AEO Table 73'!D19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="D11" s="5">
-        <f>'AEO Table 73'!E19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="E11" s="5">
-        <f>'AEO Table 73'!F19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="F11" s="5">
-        <f>'AEO Table 73'!G19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="G11" s="5">
-        <f>'AEO Table 73'!H19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="H11" s="5">
-        <f>'AEO Table 73'!I19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="I11" s="5">
-        <f>'AEO Table 73'!J19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="J11" s="5">
-        <f>'AEO Table 73'!K19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="K11" s="5">
-        <f>'AEO Table 73'!L19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="L11" s="5">
-        <f>'AEO Table 73'!M19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="M11" s="5">
-        <f>'AEO Table 73'!N19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="N11" s="5">
-        <f>'AEO Table 73'!O19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="O11" s="5">
-        <f>'AEO Table 73'!P19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="P11" s="5">
-        <f>'AEO Table 73'!Q19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="Q11" s="5">
-        <f>'AEO Table 73'!R19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="R11" s="5">
-        <f>'AEO Table 73'!S19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="S11" s="5">
-        <f>'AEO Table 73'!T19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="T11" s="5">
-        <f>'AEO Table 73'!U19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="U11" s="5">
-        <f>'AEO Table 73'!V19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="V11" s="5">
-        <f>'AEO Table 73'!W19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="W11" s="5">
-        <f>'AEO Table 73'!X19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="X11" s="5">
-        <f>'AEO Table 73'!Y19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="Y11" s="5">
-        <f>'AEO Table 73'!Z19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="Z11" s="5">
-        <f>'AEO Table 73'!AA19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="AA11" s="5">
-        <f>'AEO Table 73'!AB19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="AB11" s="5">
-        <f>'AEO Table 73'!AC19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="AC11" s="5">
-        <f>'AEO Table 73'!AD19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="AD11" s="5">
-        <f>'AEO Table 73'!AE19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="AE11" s="5">
-        <f>'AEO Table 73'!AF19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="AF11" s="5">
-        <f>'AEO Table 73'!AG19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="AG11" s="5">
-        <f>'AEO Table 73'!AH19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="AH11" s="5">
-        <f>'AEO Table 73'!AI19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="AI11" s="5">
-        <f>'AEO Table 73'!AJ19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <v>326</v>
+      </c>
+      <c r="B11" s="209">
+        <f>'AEO Table 73'!C19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="C11" s="209">
+        <f>'AEO Table 73'!D19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="D11" s="209">
+        <f>'AEO Table 73'!E19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="E11" s="209">
+        <f>'AEO Table 73'!F19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="F11" s="209">
+        <f>'AEO Table 73'!G19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="G11" s="209">
+        <f>'AEO Table 73'!H19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="H11" s="209">
+        <f>'AEO Table 73'!I19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="I11" s="209">
+        <f>'AEO Table 73'!J19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="J11" s="209">
+        <f>'AEO Table 73'!K19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="K11" s="209">
+        <f>'AEO Table 73'!L19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="L11" s="209">
+        <f>'AEO Table 73'!M19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="M11" s="209">
+        <f>'AEO Table 73'!N19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="N11" s="209">
+        <f>'AEO Table 73'!O19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="O11" s="209">
+        <f>'AEO Table 73'!P19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="P11" s="209">
+        <f>'AEO Table 73'!Q19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="Q11" s="209">
+        <f>'AEO Table 73'!R19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="R11" s="209">
+        <f>'AEO Table 73'!S19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="S11" s="209">
+        <f>'AEO Table 73'!T19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="T11" s="209">
+        <f>'AEO Table 73'!U19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="U11" s="209">
+        <f>'AEO Table 73'!V19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="V11" s="209">
+        <f>'AEO Table 73'!W19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="W11" s="209">
+        <f>'AEO Table 73'!X19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="X11" s="209">
+        <f>'AEO Table 73'!Y19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="Y11" s="209">
+        <f>'AEO Table 73'!Z19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="Z11" s="209">
+        <f>'AEO Table 73'!AA19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="AA11" s="209">
+        <f>'AEO Table 73'!AB19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="AB11" s="209">
+        <f>'AEO Table 73'!AC19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="AC11" s="209">
+        <f>'AEO Table 73'!AD19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="AD11" s="209">
+        <f>'AEO Table 73'!AE19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="AE11" s="209">
+        <f>'AEO Table 73'!AF19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="AF11" s="209">
+        <f>'AEO Table 73'!AG19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="AG11" s="209">
+        <f>'AEO Table 73'!AH19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="AH11" s="209">
+        <f>'AEO Table 73'!AI19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="AI11" s="209">
+        <f>'AEO Table 73'!AJ19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B12" s="5">
-        <f>'AEO Table 73'!C29*10^6/gal_per_barrel</f>
-        <v>95171.904761904763</v>
-      </c>
-      <c r="C12" s="5">
-        <f>'AEO Table 73'!D29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="D12" s="5">
-        <f>'AEO Table 73'!E29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="E12" s="5">
-        <f>'AEO Table 73'!F29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="F12" s="5">
-        <f>'AEO Table 73'!G29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="G12" s="5">
-        <f>'AEO Table 73'!H29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="H12" s="5">
-        <f>'AEO Table 73'!I29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="I12" s="5">
-        <f>'AEO Table 73'!J29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="J12" s="5">
-        <f>'AEO Table 73'!K29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="K12" s="5">
-        <f>'AEO Table 73'!L29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="L12" s="5">
-        <f>'AEO Table 73'!M29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="M12" s="5">
-        <f>'AEO Table 73'!N29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="N12" s="5">
-        <f>'AEO Table 73'!O29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="O12" s="5">
-        <f>'AEO Table 73'!P29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="P12" s="5">
-        <f>'AEO Table 73'!Q29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="Q12" s="5">
-        <f>'AEO Table 73'!R29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="R12" s="5">
-        <f>'AEO Table 73'!S29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="S12" s="5">
-        <f>'AEO Table 73'!T29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="T12" s="5">
-        <f>'AEO Table 73'!U29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="U12" s="5">
-        <f>'AEO Table 73'!V29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="V12" s="5">
-        <f>'AEO Table 73'!W29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="W12" s="5">
-        <f>'AEO Table 73'!X29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="X12" s="5">
-        <f>'AEO Table 73'!Y29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="Y12" s="5">
-        <f>'AEO Table 73'!Z29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="Z12" s="5">
-        <f>'AEO Table 73'!AA29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="AA12" s="5">
-        <f>'AEO Table 73'!AB29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="AB12" s="5">
-        <f>'AEO Table 73'!AC29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="AC12" s="5">
-        <f>'AEO Table 73'!AD29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="AD12" s="5">
-        <f>'AEO Table 73'!AE29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="AE12" s="5">
-        <f>'AEO Table 73'!AF29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="AF12" s="5">
-        <f>'AEO Table 73'!AG29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="AG12" s="5">
-        <f>'AEO Table 73'!AH29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="AH12" s="5">
-        <f>'AEO Table 73'!AI29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="AI12" s="5">
-        <f>'AEO Table 73'!AJ29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
+        <v>327</v>
+      </c>
+      <c r="B12" s="209">
+        <f>'AEO Table 73'!C29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25141.769256673586</v>
+      </c>
+      <c r="C12" s="209">
+        <f>'AEO Table 73'!D29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="D12" s="209">
+        <f>'AEO Table 73'!E29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="E12" s="209">
+        <f>'AEO Table 73'!F29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="F12" s="209">
+        <f>'AEO Table 73'!G29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="G12" s="209">
+        <f>'AEO Table 73'!H29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="H12" s="209">
+        <f>'AEO Table 73'!I29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="I12" s="209">
+        <f>'AEO Table 73'!J29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="J12" s="209">
+        <f>'AEO Table 73'!K29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="K12" s="209">
+        <f>'AEO Table 73'!L29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="L12" s="209">
+        <f>'AEO Table 73'!M29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="M12" s="209">
+        <f>'AEO Table 73'!N29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="N12" s="209">
+        <f>'AEO Table 73'!O29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="O12" s="209">
+        <f>'AEO Table 73'!P29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="P12" s="209">
+        <f>'AEO Table 73'!Q29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="Q12" s="209">
+        <f>'AEO Table 73'!R29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="R12" s="209">
+        <f>'AEO Table 73'!S29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="S12" s="209">
+        <f>'AEO Table 73'!T29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="T12" s="209">
+        <f>'AEO Table 73'!U29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="U12" s="209">
+        <f>'AEO Table 73'!V29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="V12" s="209">
+        <f>'AEO Table 73'!W29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="W12" s="209">
+        <f>'AEO Table 73'!X29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="X12" s="209">
+        <f>'AEO Table 73'!Y29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="Y12" s="209">
+        <f>'AEO Table 73'!Z29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="Z12" s="209">
+        <f>'AEO Table 73'!AA29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="AA12" s="209">
+        <f>'AEO Table 73'!AB29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="AB12" s="209">
+        <f>'AEO Table 73'!AC29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="AC12" s="209">
+        <f>'AEO Table 73'!AD29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="AD12" s="209">
+        <f>'AEO Table 73'!AE29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="AE12" s="209">
+        <f>'AEO Table 73'!AF29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="AF12" s="209">
+        <f>'AEO Table 73'!AG29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="AG12" s="209">
+        <f>'AEO Table 73'!AH29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="AH12" s="209">
+        <f>'AEO Table 73'!AI29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="AI12" s="209">
+        <f>'AEO Table 73'!AJ29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B13" s="5">
-        <f>'AEO Table 73'!C18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="C13" s="5">
-        <f>'AEO Table 73'!D18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="D13" s="5">
-        <f>'AEO Table 73'!E18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="E13" s="5">
-        <f>'AEO Table 73'!F18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="F13" s="5">
-        <f>'AEO Table 73'!G18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="G13" s="5">
-        <f>'AEO Table 73'!H18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="H13" s="5">
-        <f>'AEO Table 73'!I18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="I13" s="5">
-        <f>'AEO Table 73'!J18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="J13" s="5">
-        <f>'AEO Table 73'!K18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="K13" s="5">
-        <f>'AEO Table 73'!L18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="L13" s="5">
-        <f>'AEO Table 73'!M18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="M13" s="5">
-        <f>'AEO Table 73'!N18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="N13" s="5">
-        <f>'AEO Table 73'!O18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="O13" s="5">
-        <f>'AEO Table 73'!P18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="P13" s="5">
-        <f>'AEO Table 73'!Q18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="Q13" s="5">
-        <f>'AEO Table 73'!R18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="R13" s="5">
-        <f>'AEO Table 73'!S18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="S13" s="5">
-        <f>'AEO Table 73'!T18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="T13" s="5">
-        <f>'AEO Table 73'!U18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="U13" s="5">
-        <f>'AEO Table 73'!V18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="V13" s="5">
-        <f>'AEO Table 73'!W18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="W13" s="5">
-        <f>'AEO Table 73'!X18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="X13" s="5">
-        <f>'AEO Table 73'!Y18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="Y13" s="5">
-        <f>'AEO Table 73'!Z18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="Z13" s="5">
-        <f>'AEO Table 73'!AA18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="AA13" s="5">
-        <f>'AEO Table 73'!AB18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="AB13" s="5">
-        <f>'AEO Table 73'!AC18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="AC13" s="5">
-        <f>'AEO Table 73'!AD18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="AD13" s="5">
-        <f>'AEO Table 73'!AE18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="AE13" s="5">
-        <f>'AEO Table 73'!AF18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="AF13" s="5">
-        <f>'AEO Table 73'!AG18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="AG13" s="5">
-        <f>'AEO Table 73'!AH18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="AH13" s="5">
-        <f>'AEO Table 73'!AI18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="AI13" s="5">
-        <f>'AEO Table 73'!AJ18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
+        <v>328</v>
+      </c>
+      <c r="B13" s="209">
+        <f>'AEO Table 73'!C18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="C13" s="209">
+        <f>'AEO Table 73'!D18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="D13" s="209">
+        <f>'AEO Table 73'!E18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="E13" s="209">
+        <f>'AEO Table 73'!F18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="F13" s="209">
+        <f>'AEO Table 73'!G18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="G13" s="209">
+        <f>'AEO Table 73'!H18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="H13" s="209">
+        <f>'AEO Table 73'!I18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="I13" s="209">
+        <f>'AEO Table 73'!J18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="J13" s="209">
+        <f>'AEO Table 73'!K18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="K13" s="209">
+        <f>'AEO Table 73'!L18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="L13" s="209">
+        <f>'AEO Table 73'!M18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="M13" s="209">
+        <f>'AEO Table 73'!N18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="N13" s="209">
+        <f>'AEO Table 73'!O18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="O13" s="209">
+        <f>'AEO Table 73'!P18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="P13" s="209">
+        <f>'AEO Table 73'!Q18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="Q13" s="209">
+        <f>'AEO Table 73'!R18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="R13" s="209">
+        <f>'AEO Table 73'!S18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="S13" s="209">
+        <f>'AEO Table 73'!T18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="T13" s="209">
+        <f>'AEO Table 73'!U18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="U13" s="209">
+        <f>'AEO Table 73'!V18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="V13" s="209">
+        <f>'AEO Table 73'!W18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="W13" s="209">
+        <f>'AEO Table 73'!X18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="X13" s="209">
+        <f>'AEO Table 73'!Y18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="Y13" s="209">
+        <f>'AEO Table 73'!Z18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="Z13" s="209">
+        <f>'AEO Table 73'!AA18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="AA13" s="209">
+        <f>'AEO Table 73'!AB18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="AB13" s="209">
+        <f>'AEO Table 73'!AC18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="AC13" s="209">
+        <f>'AEO Table 73'!AD18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="AD13" s="209">
+        <f>'AEO Table 73'!AE18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="AE13" s="209">
+        <f>'AEO Table 73'!AF18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="AF13" s="209">
+        <f>'AEO Table 73'!AG18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="AG13" s="209">
+        <f>'AEO Table 73'!AH18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="AH13" s="209">
+        <f>'AEO Table 73'!AI18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="AI13" s="209">
+        <f>'AEO Table 73'!AJ18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="B14" s="5">
-        <f>'AEO Table 73'!C30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="C14" s="5">
-        <f>'AEO Table 73'!D30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="D14" s="5">
-        <f>'AEO Table 73'!E30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="E14" s="5">
-        <f>'AEO Table 73'!F30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="F14" s="5">
-        <f>'AEO Table 73'!G30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="G14" s="5">
-        <f>'AEO Table 73'!H30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="H14" s="5">
-        <f>'AEO Table 73'!I30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="I14" s="5">
-        <f>'AEO Table 73'!J30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="J14" s="5">
-        <f>'AEO Table 73'!K30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="K14" s="5">
-        <f>'AEO Table 73'!L30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="L14" s="5">
-        <f>'AEO Table 73'!M30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="M14" s="5">
-        <f>'AEO Table 73'!N30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="N14" s="5">
-        <f>'AEO Table 73'!O30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="O14" s="5">
-        <f>'AEO Table 73'!P30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="P14" s="5">
-        <f>'AEO Table 73'!Q30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="Q14" s="5">
-        <f>'AEO Table 73'!R30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="R14" s="5">
-        <f>'AEO Table 73'!S30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="S14" s="5">
-        <f>'AEO Table 73'!T30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="T14" s="5">
-        <f>'AEO Table 73'!U30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="U14" s="5">
-        <f>'AEO Table 73'!V30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="V14" s="5">
-        <f>'AEO Table 73'!W30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="W14" s="5">
-        <f>'AEO Table 73'!X30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="X14" s="5">
-        <f>'AEO Table 73'!Y30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="Y14" s="5">
-        <f>'AEO Table 73'!Z30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="Z14" s="5">
-        <f>'AEO Table 73'!AA30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="AA14" s="5">
-        <f>'AEO Table 73'!AB30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="AB14" s="5">
-        <f>'AEO Table 73'!AC30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="AC14" s="5">
-        <f>'AEO Table 73'!AD30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="AD14" s="5">
-        <f>'AEO Table 73'!AE30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="AE14" s="5">
-        <f>'AEO Table 73'!AF30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="AF14" s="5">
-        <f>'AEO Table 73'!AG30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="AG14" s="5">
-        <f>'AEO Table 73'!AH30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="AH14" s="5">
-        <f>'AEO Table 73'!AI30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="AI14" s="5">
-        <f>'AEO Table 73'!AJ30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <v>362</v>
+      </c>
+      <c r="B14" s="209">
+        <f>'AEO Table 73'!C30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="C14" s="209">
+        <f>'AEO Table 73'!D30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="D14" s="209">
+        <f>'AEO Table 73'!E30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="E14" s="209">
+        <f>'AEO Table 73'!F30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="F14" s="209">
+        <f>'AEO Table 73'!G30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="G14" s="209">
+        <f>'AEO Table 73'!H30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="H14" s="209">
+        <f>'AEO Table 73'!I30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="I14" s="209">
+        <f>'AEO Table 73'!J30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="J14" s="209">
+        <f>'AEO Table 73'!K30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="K14" s="209">
+        <f>'AEO Table 73'!L30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="L14" s="209">
+        <f>'AEO Table 73'!M30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="M14" s="209">
+        <f>'AEO Table 73'!N30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="N14" s="209">
+        <f>'AEO Table 73'!O30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="O14" s="209">
+        <f>'AEO Table 73'!P30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="P14" s="209">
+        <f>'AEO Table 73'!Q30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="Q14" s="209">
+        <f>'AEO Table 73'!R30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="R14" s="209">
+        <f>'AEO Table 73'!S30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="S14" s="209">
+        <f>'AEO Table 73'!T30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="T14" s="209">
+        <f>'AEO Table 73'!U30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="U14" s="209">
+        <f>'AEO Table 73'!V30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="V14" s="209">
+        <f>'AEO Table 73'!W30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="W14" s="209">
+        <f>'AEO Table 73'!X30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="X14" s="209">
+        <f>'AEO Table 73'!Y30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="Y14" s="209">
+        <f>'AEO Table 73'!Z30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="Z14" s="209">
+        <f>'AEO Table 73'!AA30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="AA14" s="209">
+        <f>'AEO Table 73'!AB30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="AB14" s="209">
+        <f>'AEO Table 73'!AC30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="AC14" s="209">
+        <f>'AEO Table 73'!AD30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="AD14" s="209">
+        <f>'AEO Table 73'!AE30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="AE14" s="209">
+        <f>'AEO Table 73'!AF30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="AF14" s="209">
+        <f>'AEO Table 73'!AG30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="AG14" s="209">
+        <f>'AEO Table 73'!AH30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="AH14" s="209">
+        <f>'AEO Table 73'!AI30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="AI14" s="209">
+        <f>'AEO Table 73'!AJ30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B15" s="5">
         <f>About!$A$64</f>
@@ -20793,7 +21019,7 @@
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B16" s="5">
         <v>0</v>
@@ -20900,712 +21126,712 @@
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="C17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="D17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="E17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="F17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="G17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="H17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="I17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="J17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="K17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="L17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="M17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="N17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="O17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="P17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="Q17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="R17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="S17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="T17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="U17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="V17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="W17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="X17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="Y17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="Z17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="AA17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="AB17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="AC17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="AD17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="AE17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="AF17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="AG17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="AH17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="AI17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="B18" s="5">
-        <f>'AEO Table 73'!C48*10^6</f>
-        <v>5723000</v>
+        <f>'AEO Table 73'!C48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40860011.350737795</v>
       </c>
       <c r="C18" s="5">
-        <f>'AEO Table 73'!D48*10^6</f>
-        <v>5719936</v>
+        <f>'AEO Table 73'!D48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40838135.573212251</v>
       </c>
       <c r="D18" s="5">
-        <f>'AEO Table 73'!E48*10^6</f>
-        <v>5709374</v>
+        <f>'AEO Table 73'!E48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40762726.969353013</v>
       </c>
       <c r="E18" s="5">
-        <f>'AEO Table 73'!F48*10^6</f>
-        <v>5702021</v>
+        <f>'AEO Table 73'!F48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40710229.387060165</v>
       </c>
       <c r="F18" s="5">
-        <f>'AEO Table 73'!G48*10^6</f>
-        <v>5699036</v>
+        <f>'AEO Table 73'!G48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40688917.639046535</v>
       </c>
       <c r="G18" s="5">
-        <f>'AEO Table 73'!H48*10^6</f>
-        <v>5702903</v>
+        <f>'AEO Table 73'!H48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40716526.526674226</v>
       </c>
       <c r="H18" s="5">
-        <f>'AEO Table 73'!I48*10^6</f>
-        <v>5701469</v>
+        <f>'AEO Table 73'!I48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40706288.320090801</v>
       </c>
       <c r="I18" s="5">
-        <f>'AEO Table 73'!J48*10^6</f>
-        <v>5697845</v>
+        <f>'AEO Table 73'!J48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40680414.35868331</v>
       </c>
       <c r="J18" s="5">
-        <f>'AEO Table 73'!K48*10^6</f>
-        <v>5696569</v>
+        <f>'AEO Table 73'!K48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40671304.21112372</v>
       </c>
       <c r="K18" s="5">
-        <f>'AEO Table 73'!L48*10^6</f>
-        <v>5695571</v>
+        <f>'AEO Table 73'!L48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40664178.876276962</v>
       </c>
       <c r="L18" s="5">
-        <f>'AEO Table 73'!M48*10^6</f>
-        <v>5691691</v>
+        <f>'AEO Table 73'!M48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40636477.173666291</v>
       </c>
       <c r="M18" s="5">
-        <f>'AEO Table 73'!N48*10^6</f>
-        <v>5689583</v>
+        <f>'AEO Table 73'!N48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40621426.867196366</v>
       </c>
       <c r="N18" s="5">
-        <f>'AEO Table 73'!O48*10^6</f>
-        <v>5687317</v>
+        <f>'AEO Table 73'!O48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40605248.501702614</v>
       </c>
       <c r="O18" s="5">
-        <f>'AEO Table 73'!P48*10^6</f>
-        <v>5686403</v>
+        <f>'AEO Table 73'!P48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40598722.894438133</v>
       </c>
       <c r="P18" s="5">
-        <f>'AEO Table 73'!Q48*10^6</f>
-        <v>5685931</v>
+        <f>'AEO Table 73'!Q48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40595352.996594779</v>
       </c>
       <c r="Q18" s="5">
-        <f>'AEO Table 73'!R48*10^6</f>
-        <v>5686055</v>
+        <f>'AEO Table 73'!R48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40596238.308740072</v>
       </c>
       <c r="R18" s="5">
-        <f>'AEO Table 73'!S48*10^6</f>
-        <v>5686259</v>
+        <f>'AEO Table 73'!S48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40597694.790011354</v>
       </c>
       <c r="S18" s="5">
-        <f>'AEO Table 73'!T48*10^6</f>
-        <v>5685382</v>
+        <f>'AEO Table 73'!T48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40591433.348467655</v>
       </c>
       <c r="T18" s="5">
-        <f>'AEO Table 73'!U48*10^6</f>
-        <v>5685214</v>
+        <f>'AEO Table 73'!U48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40590233.893303066</v>
       </c>
       <c r="U18" s="5">
-        <f>'AEO Table 73'!V48*10^6</f>
-        <v>5685896</v>
+        <f>'AEO Table 73'!V48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40595103.110102162</v>
       </c>
       <c r="V18" s="5">
-        <f>'AEO Table 73'!W48*10^6</f>
-        <v>5686885</v>
+        <f>'AEO Table 73'!W48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40602164.188422248</v>
       </c>
       <c r="W18" s="5">
-        <f>'AEO Table 73'!X48*10^6</f>
-        <v>5687922</v>
+        <f>'AEO Table 73'!X48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40609567.968217939</v>
       </c>
       <c r="X18" s="5">
-        <f>'AEO Table 73'!Y48*10^6</f>
-        <v>5690170</v>
+        <f>'AEO Table 73'!Y48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40625617.820658341</v>
       </c>
       <c r="Y18" s="5">
-        <f>'AEO Table 73'!Z48*10^6</f>
-        <v>5690964</v>
+        <f>'AEO Table 73'!Z48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40631286.674233831</v>
       </c>
       <c r="Z18" s="5">
-        <f>'AEO Table 73'!AA48*10^6</f>
-        <v>5689439</v>
+        <f>'AEO Table 73'!AA48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40620398.76276958</v>
       </c>
       <c r="AA18" s="5">
-        <f>'AEO Table 73'!AB48*10^6</f>
-        <v>5688754</v>
+        <f>'AEO Table 73'!AB48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40615508.127128266</v>
       </c>
       <c r="AB18" s="5">
-        <f>'AEO Table 73'!AC48*10^6</f>
-        <v>5686469</v>
+        <f>'AEO Table 73'!AC48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40599194.108967081</v>
       </c>
       <c r="AC18" s="5">
-        <f>'AEO Table 73'!AD48*10^6</f>
-        <v>5684444</v>
+        <f>'AEO Table 73'!AD48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40584736.390465379</v>
       </c>
       <c r="AD18" s="5">
-        <f>'AEO Table 73'!AE48*10^6</f>
-        <v>5683516</v>
+        <f>'AEO Table 73'!AE48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40578110.828603856</v>
       </c>
       <c r="AE18" s="5">
-        <f>'AEO Table 73'!AF48*10^6</f>
-        <v>5682888</v>
+        <f>'AEO Table 73'!AF48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40573627.150964811</v>
       </c>
       <c r="AF18" s="5">
-        <f>'AEO Table 73'!AG48*10^6</f>
-        <v>5681393</v>
+        <f>'AEO Table 73'!AG48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40562953.427922808</v>
       </c>
       <c r="AG18" s="5">
-        <f>'AEO Table 73'!AH48*10^6</f>
-        <v>5679274</v>
+        <f>'AEO Table 73'!AH48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40547824.585698076</v>
       </c>
       <c r="AH18" s="5">
-        <f>'AEO Table 73'!AI48*10^6</f>
-        <v>5678185</v>
+        <f>'AEO Table 73'!AI48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40540049.545970485</v>
       </c>
       <c r="AI18" s="5">
-        <f>'AEO Table 73'!AJ48*10^6</f>
-        <v>5676202</v>
+        <f>'AEO Table 73'!AJ48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40525891.691259928</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="B19" s="5">
-        <f>'AEO Table 73'!C41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!C41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="C19" s="5">
-        <f>'AEO Table 73'!D41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!D41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="D19" s="5">
-        <f>'AEO Table 73'!E41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!E41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="E19" s="5">
-        <f>'AEO Table 73'!F41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!F41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="F19" s="5">
-        <f>'AEO Table 73'!G41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!G41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="G19" s="5">
-        <f>'AEO Table 73'!H41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!H41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="H19" s="5">
-        <f>'AEO Table 73'!I41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!I41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="I19" s="5">
-        <f>'AEO Table 73'!J41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!J41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="J19" s="5">
-        <f>'AEO Table 73'!K41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!K41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="K19" s="5">
-        <f>'AEO Table 73'!L41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!L41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="L19" s="5">
-        <f>'AEO Table 73'!M41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!M41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="M19" s="5">
-        <f>'AEO Table 73'!N41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!N41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="N19" s="5">
-        <f>'AEO Table 73'!O41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!O41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="O19" s="5">
-        <f>'AEO Table 73'!P41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!P41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="P19" s="5">
-        <f>'AEO Table 73'!Q41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!Q41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="Q19" s="5">
-        <f>'AEO Table 73'!R41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!R41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="R19" s="5">
-        <f>'AEO Table 73'!S41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!S41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="S19" s="5">
-        <f>'AEO Table 73'!T41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!T41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="T19" s="5">
-        <f>'AEO Table 73'!U41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!U41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="U19" s="5">
-        <f>'AEO Table 73'!V41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!V41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="V19" s="5">
-        <f>'AEO Table 73'!W41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!W41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="W19" s="5">
-        <f>'AEO Table 73'!X41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!X41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="X19" s="5">
-        <f>'AEO Table 73'!Y41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!Y41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="Y19" s="5">
-        <f>'AEO Table 73'!Z41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!Z41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="Z19" s="5">
-        <f>'AEO Table 73'!AA41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!AA41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="AA19" s="5">
-        <f>'AEO Table 73'!AB41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!AB41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="AB19" s="5">
-        <f>'AEO Table 73'!AC41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!AC41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="AC19" s="5">
-        <f>'AEO Table 73'!AD41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!AD41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="AD19" s="5">
-        <f>'AEO Table 73'!AE41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!AE41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="AE19" s="5">
-        <f>'AEO Table 73'!AF41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!AF41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="AF19" s="5">
-        <f>'AEO Table 73'!AG41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!AG41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="AG19" s="5">
-        <f>'AEO Table 73'!AH41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!AH41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="AH19" s="5">
-        <f>'AEO Table 73'!AI41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!AI41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="AI19" s="5">
-        <f>'AEO Table 73'!AJ41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!AJ41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="B20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="C20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="D20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="E20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="F20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="G20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="H20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="I20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="J20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="K20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="L20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="M20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="N20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="O20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="P20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="Q20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="R20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="S20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="T20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="U20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="V20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="W20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="X20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="Y20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="Z20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="AA20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="AB20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="AC20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="AD20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="AE20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="AF20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="AG20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="AH20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="AI20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
+        <v>360</v>
+      </c>
+      <c r="B20" s="209">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="C20" s="209">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="D20" s="209">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="E20" s="209">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="F20" s="209">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="G20" s="209">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="H20" s="209">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="I20" s="209">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="J20" s="209">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="K20" s="209">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="L20" s="209">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="M20" s="209">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="N20" s="209">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="O20" s="209">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="P20" s="209">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="Q20" s="209">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="R20" s="209">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="S20" s="209">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="T20" s="209">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="U20" s="209">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="V20" s="209">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="W20" s="209">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="X20" s="209">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="Y20" s="209">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="Z20" s="209">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="AA20" s="209">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="AB20" s="209">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="AC20" s="209">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="AD20" s="209">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="AE20" s="209">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="AF20" s="209">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="AG20" s="209">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="AH20" s="209">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="AI20" s="209">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="B21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="C21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="D21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="E21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="F21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="G21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="H21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="I21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="J21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="K21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="L21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="M21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="N21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="O21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="P21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="Q21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="R21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="S21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="T21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="U21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="V21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="W21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="X21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="Y21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="Z21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="AA21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="AB21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="AC21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="AD21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="AE21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="AF21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="AG21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="AH21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="AI21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="B22" s="5">
         <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
@@ -21750,13 +21976,15 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AI11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:AI8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -21766,7 +21994,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="B1" s="2">
         <v>2017</v>
@@ -22087,284 +22315,284 @@
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B4" s="6">
-        <f>'AEO Table 73'!C32*10^6/gal_per_barrel</f>
-        <v>120396.26190476191</v>
+        <f>'AEO Table 73'!C32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51185.610048530943</v>
       </c>
       <c r="C4" s="6">
-        <f>'AEO Table 73'!D32*10^6/gal_per_barrel</f>
-        <v>120363.33333333333</v>
+        <f>'AEO Table 73'!D32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51171.610701790996</v>
       </c>
       <c r="D4" s="6">
-        <f>'AEO Table 73'!E32*10^6/gal_per_barrel</f>
-        <v>120379.16666666667</v>
+        <f>'AEO Table 73'!E32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51178.342130266821</v>
       </c>
       <c r="E4" s="6">
-        <f>'AEO Table 73'!F32*10^6/gal_per_barrel</f>
-        <v>120387.38095238095</v>
+        <f>'AEO Table 73'!F32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51181.834375115177</v>
       </c>
       <c r="F4" s="6">
-        <f>'AEO Table 73'!G32*10^6/gal_per_barrel</f>
-        <v>120365.73809523809</v>
+        <f>'AEO Table 73'!G32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51172.633069123418</v>
       </c>
       <c r="G4" s="6">
-        <f>'AEO Table 73'!H32*10^6/gal_per_barrel</f>
-        <v>120317.52380952382</v>
+        <f>'AEO Table 73'!H32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51152.135110230869</v>
       </c>
       <c r="H4" s="6">
-        <f>'AEO Table 73'!I32*10^6/gal_per_barrel</f>
-        <v>120257.52380952382</v>
+        <f>'AEO Table 73'!I32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51126.626539164594</v>
       </c>
       <c r="I4" s="6">
-        <f>'AEO Table 73'!J32*10^6/gal_per_barrel</f>
-        <v>120238.14285714286</v>
+        <f>'AEO Table 73'!J32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51118.38686581223</v>
       </c>
       <c r="J4" s="6">
-        <f>'AEO Table 73'!K32*10^6/gal_per_barrel</f>
-        <v>120225.69047619047</v>
+        <f>'AEO Table 73'!K32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51113.092825071093</v>
       </c>
       <c r="K4" s="6">
-        <f>'AEO Table 73'!L32*10^6/gal_per_barrel</f>
-        <v>120215.88095238095</v>
+        <f>'AEO Table 73'!L32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51108.922376150731</v>
       </c>
       <c r="L4" s="6">
-        <f>'AEO Table 73'!M32*10^6/gal_per_barrel</f>
-        <v>120205.23809523809</v>
+        <f>'AEO Table 73'!M32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51104.397641521122</v>
       </c>
       <c r="M4" s="6">
-        <f>'AEO Table 73'!N32*10^6/gal_per_barrel</f>
-        <v>120194.90476190476</v>
+        <f>'AEO Table 73'!N32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51100.004498726375</v>
       </c>
       <c r="N4" s="6">
-        <f>'AEO Table 73'!O32*10^6/gal_per_barrel</f>
-        <v>120184.57142857143</v>
+        <f>'AEO Table 73'!O32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51095.611355931629</v>
       </c>
       <c r="O4" s="6">
-        <f>'AEO Table 73'!P32*10^6/gal_per_barrel</f>
-        <v>120186.35714285714</v>
+        <f>'AEO Table 73'!P32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51096.370539594311</v>
       </c>
       <c r="P4" s="6">
-        <f>'AEO Table 73'!Q32*10^6/gal_per_barrel</f>
-        <v>120169.33333333333</v>
+        <f>'AEO Table 73'!Q32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51089.132988676698</v>
       </c>
       <c r="Q4" s="6">
-        <f>'AEO Table 73'!R32*10^6/gal_per_barrel</f>
-        <v>120159.80952380953</v>
+        <f>'AEO Table 73'!R32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51085.084009142367</v>
       </c>
       <c r="R4" s="6">
-        <f>'AEO Table 73'!S32*10^6/gal_per_barrel</f>
-        <v>120153.90476190476</v>
+        <f>'AEO Table 73'!S32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51082.573641831084</v>
       </c>
       <c r="S4" s="6">
-        <f>'AEO Table 73'!T32*10^6/gal_per_barrel</f>
-        <v>120139.92857142857</v>
+        <f>'AEO Table 73'!T32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51076.631764364451</v>
       </c>
       <c r="T4" s="6">
-        <f>'AEO Table 73'!U32*10^6/gal_per_barrel</f>
-        <v>120123.47619047618</v>
+        <f>'AEO Table 73'!U32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51069.6371522189</v>
       </c>
       <c r="U4" s="6">
-        <f>'AEO Table 73'!V32*10^6/gal_per_barrel</f>
-        <v>120105.47619047618</v>
+        <f>'AEO Table 73'!V32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51061.984580899014</v>
       </c>
       <c r="V4" s="6">
-        <f>'AEO Table 73'!W32*10^6/gal_per_barrel</f>
-        <v>120085.26190476191</v>
+        <f>'AEO Table 73'!W32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51053.390621837403</v>
       </c>
       <c r="W4" s="6">
-        <f>'AEO Table 73'!X32*10^6/gal_per_barrel</f>
-        <v>120065.59523809524</v>
+        <f>'AEO Table 73'!X32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51045.029479099016</v>
       </c>
       <c r="X4" s="6">
-        <f>'AEO Table 73'!Y32*10^6/gal_per_barrel</f>
-        <v>120040.19047619047</v>
+        <f>'AEO Table 73'!Y32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51034.228826191182</v>
       </c>
       <c r="Y4" s="6">
-        <f>'AEO Table 73'!Z32*10^6/gal_per_barrel</f>
-        <v>120011.85714285714</v>
+        <f>'AEO Table 73'!Z32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51022.183112076549</v>
       </c>
       <c r="Z4" s="6">
-        <f>'AEO Table 73'!AA32*10^6/gal_per_barrel</f>
-        <v>119980</v>
+        <f>'AEO Table 73'!AA32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51008.639275534217</v>
       </c>
       <c r="AA4" s="6">
-        <f>'AEO Table 73'!AB32*10^6/gal_per_barrel</f>
-        <v>119949.21428571429</v>
+        <f>'AEO Table 73'!AB32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>50995.550949189499</v>
       </c>
       <c r="AB4" s="6">
-        <f>'AEO Table 73'!AC32*10^6/gal_per_barrel</f>
-        <v>119910.09523809524</v>
+        <f>'AEO Table 73'!AC32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>50978.919765752238</v>
       </c>
       <c r="AC4" s="6">
-        <f>'AEO Table 73'!AD32*10^6/gal_per_barrel</f>
-        <v>119871.47619047618</v>
+        <f>'AEO Table 73'!AD32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>50962.50115374053</v>
       </c>
       <c r="AD4" s="6">
-        <f>'AEO Table 73'!AE32*10^6/gal_per_barrel</f>
-        <v>119830.30952380953</v>
+        <f>'AEO Table 73'!AE32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>50944.999439703395</v>
       </c>
       <c r="AE4" s="6">
-        <f>'AEO Table 73'!AF32*10^6/gal_per_barrel</f>
-        <v>119784.40476190476</v>
+        <f>'AEO Table 73'!AF32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>50925.483358347927</v>
       </c>
       <c r="AF4" s="6">
-        <f>'AEO Table 73'!AG32*10^6/gal_per_barrel</f>
-        <v>119727.33333333333</v>
+        <f>'AEO Table 73'!AG32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>50901.219848488443</v>
       </c>
       <c r="AG4" s="6">
-        <f>'AEO Table 73'!AH32*10^6/gal_per_barrel</f>
-        <v>119664.71428571429</v>
+        <f>'AEO Table 73'!AH32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>50874.597808050232</v>
       </c>
       <c r="AH4" s="6">
-        <f>'AEO Table 73'!AI32*10^6/gal_per_barrel</f>
-        <v>119596.14285714286</v>
+        <f>'AEO Table 73'!AI32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>50845.445155403053</v>
       </c>
       <c r="AI4" s="6">
-        <f>'AEO Table 73'!AJ32*10^6/gal_per_barrel</f>
-        <v>119596.09523809524</v>
+        <f>'AEO Table 73'!AJ32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>50845.424910505382</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B5" s="6">
-        <f>'AEO Table 73'!C19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!C19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="C5" s="6">
-        <f>'AEO Table 73'!D19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!D19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="D5" s="6">
-        <f>'AEO Table 73'!E19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!E19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="E5" s="6">
-        <f>'AEO Table 73'!F19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!F19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="F5" s="6">
-        <f>'AEO Table 73'!G19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!G19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="G5" s="6">
-        <f>'AEO Table 73'!H19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!H19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="H5" s="6">
-        <f>'AEO Table 73'!I19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!I19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="I5" s="6">
-        <f>'AEO Table 73'!J19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!J19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="J5" s="6">
-        <f>'AEO Table 73'!K19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!K19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="K5" s="6">
-        <f>'AEO Table 73'!L19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!L19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="L5" s="6">
-        <f>'AEO Table 73'!M19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!M19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="M5" s="6">
-        <f>'AEO Table 73'!N19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!N19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="N5" s="6">
-        <f>'AEO Table 73'!O19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!O19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="O5" s="6">
-        <f>'AEO Table 73'!P19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!P19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="P5" s="6">
-        <f>'AEO Table 73'!Q19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!Q19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="Q5" s="6">
-        <f>'AEO Table 73'!R19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!R19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="R5" s="6">
-        <f>'AEO Table 73'!S19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!S19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="S5" s="6">
-        <f>'AEO Table 73'!T19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!T19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="T5" s="6">
-        <f>'AEO Table 73'!U19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!U19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="U5" s="6">
-        <f>'AEO Table 73'!V19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!V19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="V5" s="6">
-        <f>'AEO Table 73'!W19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!W19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="W5" s="6">
-        <f>'AEO Table 73'!X19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!X19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="X5" s="6">
-        <f>'AEO Table 73'!Y19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!Y19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="Y5" s="6">
-        <f>'AEO Table 73'!Z19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!Z19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="Z5" s="6">
-        <f>'AEO Table 73'!AA19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!AA19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="AA5" s="6">
-        <f>'AEO Table 73'!AB19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!AB19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="AB5" s="6">
-        <f>'AEO Table 73'!AC19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!AC19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="AC5" s="6">
-        <f>'AEO Table 73'!AD19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!AD19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="AD5" s="6">
-        <f>'AEO Table 73'!AE19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!AE19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="AE5" s="6">
-        <f>'AEO Table 73'!AF19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!AF19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="AF5" s="6">
-        <f>'AEO Table 73'!AG19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!AG19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="AG5" s="6">
-        <f>'AEO Table 73'!AH19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!AH19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="AH5" s="6">
-        <f>'AEO Table 73'!AI19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!AI19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="AI5" s="6">
-        <f>'AEO Table 73'!AJ19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!AJ19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
@@ -22583,148 +22811,148 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B8" s="6">
-        <f>'AEO Table 73'!C30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!C30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="C8" s="6">
-        <f>'AEO Table 73'!D30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!D30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="D8" s="6">
-        <f>'AEO Table 73'!E30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!E30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="E8" s="6">
-        <f>'AEO Table 73'!F30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!F30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="F8" s="6">
-        <f>'AEO Table 73'!G30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!G30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="G8" s="6">
-        <f>'AEO Table 73'!H30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!H30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="H8" s="6">
-        <f>'AEO Table 73'!I30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!I30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="I8" s="6">
-        <f>'AEO Table 73'!J30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!J30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="J8" s="6">
-        <f>'AEO Table 73'!K30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!K30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="K8" s="6">
-        <f>'AEO Table 73'!L30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!L30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="L8" s="6">
-        <f>'AEO Table 73'!M30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!M30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="M8" s="6">
-        <f>'AEO Table 73'!N30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!N30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="N8" s="6">
-        <f>'AEO Table 73'!O30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!O30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="O8" s="6">
-        <f>'AEO Table 73'!P30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!P30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="P8" s="6">
-        <f>'AEO Table 73'!Q30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!Q30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="Q8" s="6">
-        <f>'AEO Table 73'!R30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!R30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="R8" s="6">
-        <f>'AEO Table 73'!S30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!S30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="S8" s="6">
-        <f>'AEO Table 73'!T30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!T30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="T8" s="6">
-        <f>'AEO Table 73'!U30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!U30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="U8" s="6">
-        <f>'AEO Table 73'!V30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!V30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="V8" s="6">
-        <f>'AEO Table 73'!W30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!W30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="W8" s="6">
-        <f>'AEO Table 73'!X30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!X30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="X8" s="6">
-        <f>'AEO Table 73'!Y30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!Y30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="Y8" s="6">
-        <f>'AEO Table 73'!Z30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!Z30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="Z8" s="6">
-        <f>'AEO Table 73'!AA30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!AA30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="AA8" s="6">
-        <f>'AEO Table 73'!AB30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!AB30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="AB8" s="6">
-        <f>'AEO Table 73'!AC30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!AC30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="AC8" s="6">
-        <f>'AEO Table 73'!AD30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!AD30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="AD8" s="6">
-        <f>'AEO Table 73'!AE30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!AE30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="AE8" s="6">
-        <f>'AEO Table 73'!AF30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!AF30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="AF8" s="6">
-        <f>'AEO Table 73'!AG30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!AG30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="AG8" s="6">
-        <f>'AEO Table 73'!AH30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!AH30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="AH8" s="6">
-        <f>'AEO Table 73'!AI30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!AI30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="AI8" s="6">
-        <f>'AEO Table 73'!AJ30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!AJ30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
@@ -22831,7 +23059,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -22938,7 +23166,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -23049,19 +23277,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -23069,8 +23299,8 @@
         <v>299</v>
       </c>
       <c r="B2">
-        <f>10^12</f>
-        <v>1000000000000</v>
+        <f>10^9/About!A80</f>
+        <v>947813.39449889108</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/web-app/BCF/BTU Conversion Factors.xlsx
+++ b/InputData/web-app/BCF/BTU Conversion Factors.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\OneDrive\Desktop\India InputData 5-6-2020\web-app\BCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-india\InputData\web-app\BCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B1C1AC-5F86-4F20-AB8D-D7B3CA7FF902}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
   <definedNames>
     <definedName name="gal_per_barrel">About!$A$63</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcMode="manual" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="162913" calcMode="manual" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Michael Wang</author>
     <author>ywu</author>
@@ -46,7 +45,7 @@
     <author>A Elgowainy</author>
   </authors>
   <commentList>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="B4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="H4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="G15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -96,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="G20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -119,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+    <comment ref="G21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -142,7 +141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
+    <comment ref="G22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -167,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G29" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
+    <comment ref="G29" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -190,7 +189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A43" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
+    <comment ref="A43" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -203,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A63" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
+    <comment ref="A63" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -217,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B65" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
+    <comment ref="B65" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -241,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A66" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
+    <comment ref="A66" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -255,7 +254,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B66" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
+    <comment ref="B66" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -280,7 +279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D66" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000D000000}">
+    <comment ref="D66" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -293,7 +292,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F66" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
+    <comment ref="F66" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -306,7 +305,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G66" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000F000000}">
+    <comment ref="G66" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -319,7 +318,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I66" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000010000000}">
+    <comment ref="I66" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -332,7 +331,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B67" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000011000000}">
+    <comment ref="B67" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -366,7 +365,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D67" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000012000000}">
+    <comment ref="D67" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -379,7 +378,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F67" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000013000000}">
+    <comment ref="F67" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -392,7 +391,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G67" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000014000000}">
+    <comment ref="G67" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -405,7 +404,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I67" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000015000000}">
+    <comment ref="I67" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -418,7 +417,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B68" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000016000000}">
+    <comment ref="B68" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -452,7 +451,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D68" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000017000000}">
+    <comment ref="D68" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -465,7 +464,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F68" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000018000000}">
+    <comment ref="F68" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -478,7 +477,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G68" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000019000000}">
+    <comment ref="G68" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -491,7 +490,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I68" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001A000000}">
+    <comment ref="I68" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -504,7 +503,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B69" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001B000000}">
+    <comment ref="B69" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -528,7 +527,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D69" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001C000000}">
+    <comment ref="D69" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -541,7 +540,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F69" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001D000000}">
+    <comment ref="F69" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -554,7 +553,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G69" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001E000000}">
+    <comment ref="G69" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -567,7 +566,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I69" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001F000000}">
+    <comment ref="I69" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -580,7 +579,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B70" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000020000000}">
+    <comment ref="B70" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -604,7 +603,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D70" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000021000000}">
+    <comment ref="D70" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -617,7 +616,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F70" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000022000000}">
+    <comment ref="F70" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -630,7 +629,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G70" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000023000000}">
+    <comment ref="G70" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -643,7 +642,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I70" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000024000000}">
+    <comment ref="I70" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -656,7 +655,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B71" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000025000000}">
+    <comment ref="B71" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -680,7 +679,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D71" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000026000000}">
+    <comment ref="D71" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -693,7 +692,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F71" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000027000000}">
+    <comment ref="F71" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -707,7 +706,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G71" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000028000000}">
+    <comment ref="G71" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -720,7 +719,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I71" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000029000000}">
+    <comment ref="I71" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -733,7 +732,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B72" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00002A000000}">
+    <comment ref="B72" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -757,7 +756,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D72" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00002B000000}">
+    <comment ref="D72" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -770,7 +769,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F72" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00002C000000}">
+    <comment ref="F72" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -783,7 +782,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G72" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00002D000000}">
+    <comment ref="G72" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -796,7 +795,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I72" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00002E000000}">
+    <comment ref="I72" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -809,7 +808,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B73" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00002F000000}">
+    <comment ref="B73" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -833,7 +832,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B74" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000030000000}">
+    <comment ref="B74" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -857,7 +856,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B76" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000031000000}">
+    <comment ref="B76" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -881,7 +880,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B77" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000032000000}">
+    <comment ref="B77" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -905,7 +904,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B78" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000033000000}">
+    <comment ref="B78" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -929,7 +928,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B79" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000034000000}">
+    <comment ref="B79" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -953,7 +952,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B80" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000035000000}">
+    <comment ref="B80" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -977,7 +976,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B81" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000036000000}">
+    <comment ref="B81" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1001,7 +1000,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B82" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000037000000}">
+    <comment ref="B82" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1025,7 +1024,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B83" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000038000000}">
+    <comment ref="B83" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1049,7 +1048,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B84" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000039000000}">
+    <comment ref="B84" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1073,7 +1072,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B85" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00003A000000}">
+    <comment ref="B85" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1097,7 +1096,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B86" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00003B000000}">
+    <comment ref="B86" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1121,7 +1120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B87" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00003C000000}">
+    <comment ref="B87" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1145,7 +1144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B88" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00003D000000}">
+    <comment ref="B88" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1169,7 +1168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A90" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00003E000000}">
+    <comment ref="A90" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2500,22 +2499,22 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="14">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="0.000E+00"/>
-    <numFmt numFmtId="167" formatCode="#,##0.000"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="#,##0.000000"/>
-    <numFmt numFmtId="170" formatCode="#,##0.0"/>
-    <numFmt numFmtId="171" formatCode="0.000000"/>
-    <numFmt numFmtId="172" formatCode="0.0"/>
-    <numFmt numFmtId="173" formatCode="0.0000"/>
-    <numFmt numFmtId="174" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="175" formatCode="#,##0.000000000"/>
-    <numFmt numFmtId="176" formatCode="#,##0.0000000000"/>
-    <numFmt numFmtId="177" formatCode="#,##0.0000000"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.000E+00"/>
+    <numFmt numFmtId="166" formatCode="#,##0.000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="169" formatCode="#,##0.0"/>
+    <numFmt numFmtId="170" formatCode="0.000000"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="0.0000"/>
+    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="174" formatCode="#,##0.000000000"/>
+    <numFmt numFmtId="175" formatCode="#,##0.0000000000"/>
+    <numFmt numFmtId="176" formatCode="#,##0.0000000"/>
   </numFmts>
   <fonts count="39" x14ac:knownFonts="1">
     <font>
@@ -3516,7 +3515,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="210">
@@ -3528,11 +3527,11 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="47" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="54"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="54" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="54" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="18" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3544,7 +3543,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3579,7 +3578,7 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="32" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="32" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3594,7 +3593,7 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="32" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="32" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -3602,7 +3601,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="32" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="32" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3612,85 +3611,85 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="32" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="32" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="33" fillId="0" borderId="23" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="33" fillId="34" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="33" fillId="34" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="33" fillId="34" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="33" fillId="35" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="33" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="33" fillId="0" borderId="24" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="33" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="33" fillId="0" borderId="24" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="33" fillId="36" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="33" fillId="36" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="33" fillId="36" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="33" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="33" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="33" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="33" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="33" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="33" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="33" fillId="38" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="33" fillId="35" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="33" fillId="35" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="33" fillId="38" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="33" fillId="38" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="33" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="33" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="33" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="32" fillId="0" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="32" fillId="0" borderId="26" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="32" fillId="0" borderId="26" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="26" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="32" fillId="0" borderId="26" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="32" fillId="0" borderId="26" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="32" fillId="0" borderId="27" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="33" fillId="34" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="32" fillId="0" borderId="26" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="32" fillId="0" borderId="27" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="33" fillId="34" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="33" fillId="39" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="33" fillId="39" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="33" fillId="38" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="33" fillId="36" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="33" fillId="39" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="33" fillId="38" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="33" fillId="36" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="32" fillId="0" borderId="26" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="33" fillId="38" borderId="24" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="33" fillId="38" borderId="24" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="33" fillId="40" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="33" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="33" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="33" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="33" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="33" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="33" fillId="0" borderId="30" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="33" fillId="38" borderId="30" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="33" fillId="38" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="33" fillId="38" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3764,19 +3763,19 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3794,37 +3793,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="32" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3843,25 +3842,25 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3870,19 +3869,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3892,9 +3894,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3911,17 +3910,17 @@
     <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="26" fillId="0" borderId="17" xfId="56" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="17" xfId="56" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="26" fillId="0" borderId="17" xfId="56" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="63">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3949,22 +3948,22 @@
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Body: normal cell" xfId="48" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="Body: normal cell 2" xfId="57" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Body: normal cell" xfId="48"/>
+    <cellStyle name="Body: normal cell 2" xfId="57"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Comma" xfId="61" builtinId="3"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" customBuiltin="1"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="43" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="Footnotes: all except top row" xfId="52" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="Footnotes: top row" xfId="45" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="Footnotes: top row 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="43"/>
+    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="59"/>
+    <cellStyle name="Footnotes: all except top row" xfId="52"/>
+    <cellStyle name="Footnotes: top row" xfId="45"/>
+    <cellStyle name="Footnotes: top row 2" xfId="55"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Header: bottom row" xfId="42" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="Header: bottom row 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="Header: top rows" xfId="51" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Header: bottom row" xfId="42"/>
+    <cellStyle name="Header: bottom row 2" xfId="58"/>
+    <cellStyle name="Header: top rows" xfId="51"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
@@ -3974,16 +3973,16 @@
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Normal 2" xfId="54"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Parent row" xfId="46" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="Parent row 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Parent row" xfId="46"/>
+    <cellStyle name="Parent row 2" xfId="56"/>
     <cellStyle name="Percent" xfId="62" builtinId="5"/>
-    <cellStyle name="Section Break" xfId="44" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="Section Break: parent row" xfId="49" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="Table title" xfId="50" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="Table title 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Section Break" xfId="44"/>
+    <cellStyle name="Section Break: parent row" xfId="49"/>
+    <cellStyle name="Table title" xfId="50"/>
+    <cellStyle name="Table title 2" xfId="60"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -4015,7 +4014,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Table Style 1" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Table Style 1" pivot="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -4107,23 +4106,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4159,23 +4141,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4351,46 +4316,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="39.42578125" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="37.3984375" customWidth="1"/>
+    <col min="2" max="2" width="30.59765625" customWidth="1"/>
+    <col min="3" max="3" width="39.3984375" customWidth="1"/>
+    <col min="5" max="5" width="28.3984375" customWidth="1"/>
+    <col min="6" max="6" width="19.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -4403,7 +4368,7 @@
       </c>
       <c r="F6" s="202"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>46</v>
       </c>
@@ -4411,7 +4376,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B8" s="3">
         <v>2019</v>
       </c>
@@ -4419,7 +4384,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>376</v>
       </c>
@@ -4427,7 +4392,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B10" s="4" t="s">
         <v>123</v>
       </c>
@@ -4435,7 +4400,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>122</v>
       </c>
@@ -4443,116 +4408,116 @@
         <v>435</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B13" s="196" t="s">
         <v>391</v>
       </c>
       <c r="C13" s="202"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B15" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A37" s="198" t="s">
         <v>330</v>
       </c>
       <c r="B37" s="199"/>
     </row>
-    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A38" s="203" t="s">
         <v>342</v>
       </c>
@@ -4563,7 +4528,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A39" s="201" t="s">
         <v>382</v>
       </c>
@@ -4571,7 +4536,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A40" s="197" t="s">
         <v>323</v>
       </c>
@@ -4579,7 +4544,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A41" s="197" t="s">
         <v>357</v>
       </c>
@@ -4587,7 +4552,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A42" s="201" t="s">
         <v>378</v>
       </c>
@@ -4595,7 +4560,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A43" s="201" t="s">
         <v>380</v>
       </c>
@@ -4603,7 +4568,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A44" s="201" t="s">
         <v>348</v>
       </c>
@@ -4614,16 +4579,16 @@
         <v>351</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A45" s="201"/>
     </row>
-    <row r="46" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A46" s="198" t="s">
         <v>332</v>
       </c>
       <c r="B46" s="199"/>
     </row>
-    <row r="47" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A47" s="203" t="s">
         <v>342</v>
       </c>
@@ -4631,7 +4596,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A48" s="201" t="s">
         <v>382</v>
       </c>
@@ -4639,7 +4604,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="49" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A49" s="197" t="s">
         <v>323</v>
       </c>
@@ -4647,7 +4612,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="50" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A50" s="197" t="s">
         <v>357</v>
       </c>
@@ -4655,7 +4620,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="51" spans="1:2" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A51" s="201" t="s">
         <v>381</v>
       </c>
@@ -4663,7 +4628,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="52" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A52" s="201" t="s">
         <v>379</v>
       </c>
@@ -4671,7 +4636,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="53" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A53" s="201" t="s">
         <v>347</v>
       </c>
@@ -4679,37 +4644,37 @@
         <v>417</v>
       </c>
     </row>
-    <row r="54" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="55" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A55" s="198" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="56" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A56" s="2" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="57" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="58" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A58" s="198" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="59" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A59" s="2" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="60" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="61" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="62" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A62" s="196" t="s">
         <v>316</v>
       </c>
       <c r="B62" s="202"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63" s="200">
         <v>42</v>
       </c>
@@ -4717,7 +4682,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64">
         <f>3.142*10^6</f>
         <v>3142000</v>
@@ -4726,7 +4691,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66" s="2">
         <v>1.1023099999999999</v>
       </c>
@@ -4734,7 +4699,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67" s="2">
         <v>35.314700000000002</v>
       </c>
@@ -4742,7 +4707,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68" s="2">
         <v>1.60934</v>
       </c>
@@ -4750,7 +4715,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69" s="2">
         <v>3.7854100000000002</v>
       </c>
@@ -4758,11 +4723,11 @@
         <v>421</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71" s="2">
         <v>748</v>
       </c>
@@ -4770,7 +4735,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72" s="2">
         <v>849</v>
       </c>
@@ -4778,7 +4743,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73" s="2">
         <v>808</v>
       </c>
@@ -4786,7 +4751,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74" s="2">
         <v>881</v>
       </c>
@@ -4794,7 +4759,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="75" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A75" s="2">
         <v>905</v>
       </c>
@@ -4802,7 +4767,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="76" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A76" s="2">
         <v>1844</v>
       </c>
@@ -4810,8 +4775,8 @@
         <v>429</v>
       </c>
     </row>
-    <row r="77" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78" s="2">
         <v>6.29</v>
       </c>
@@ -4819,11 +4784,11 @@
         <v>425</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80" s="2">
         <v>1055.06</v>
       </c>
@@ -4833,7 +4798,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E10" r:id="rId1" xr:uid="{C0F8492E-D5E5-43D6-9DC5-BFB1B696C46B}"/>
+    <hyperlink ref="E10" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -4841,7 +4806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4852,14 +4817,14 @@
       <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="7" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="20.86328125" style="7" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="45.73046875" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="9.1328125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="18" t="s">
         <v>377</v>
       </c>
@@ -4966,8 +4931,8 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C3" s="20" t="s">
         <v>121</v>
       </c>
@@ -4978,7 +4943,7 @@
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
     </row>
-    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="20" t="s">
         <v>120</v>
       </c>
@@ -4991,7 +4956,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="20" t="s">
         <v>118</v>
       </c>
@@ -5002,7 +4967,7 @@
       <c r="F5" s="20"/>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="20" t="s">
         <v>117</v>
       </c>
@@ -5013,7 +4978,7 @@
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
     </row>
-    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="9" t="s">
         <v>116</v>
       </c>
@@ -5021,12 +4986,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="18" t="s">
         <v>2</v>
       </c>
@@ -5136,7 +5101,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="16" t="s">
         <v>2</v>
       </c>
@@ -5246,17 +5211,17 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B14" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="9" t="s">
         <v>114</v>
       </c>
@@ -5369,7 +5334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="9" t="s">
         <v>113</v>
       </c>
@@ -5482,7 +5447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="9" t="s">
         <v>112</v>
       </c>
@@ -5595,7 +5560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="9" t="s">
         <v>111</v>
       </c>
@@ -5708,7 +5673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="9" t="s">
         <v>110</v>
       </c>
@@ -5821,7 +5786,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="9" t="s">
         <v>109</v>
       </c>
@@ -5934,7 +5899,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="9" t="s">
         <v>108</v>
       </c>
@@ -6047,7 +6012,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="9" t="s">
         <v>107</v>
       </c>
@@ -6160,7 +6125,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="9" t="s">
         <v>106</v>
       </c>
@@ -6273,7 +6238,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="9" t="s">
         <v>105</v>
       </c>
@@ -6386,7 +6351,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="9" t="s">
         <v>104</v>
       </c>
@@ -6499,7 +6464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="9" t="s">
         <v>103</v>
       </c>
@@ -6612,7 +6577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="9" t="s">
         <v>102</v>
       </c>
@@ -6725,7 +6690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="9" t="s">
         <v>100</v>
       </c>
@@ -6838,7 +6803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="9" t="s">
         <v>99</v>
       </c>
@@ -6951,7 +6916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="9" t="s">
         <v>98</v>
       </c>
@@ -7064,7 +7029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="9" t="s">
         <v>97</v>
       </c>
@@ -7177,7 +7142,7 @@
         <v>-2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="9" t="s">
         <v>96</v>
       </c>
@@ -7290,7 +7255,7 @@
         <v>-2.1599999999999999E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="9" t="s">
         <v>95</v>
       </c>
@@ -7403,7 +7368,7 @@
         <v>-2.2499999999999999E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="9" t="s">
         <v>370</v>
       </c>
@@ -7516,7 +7481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="9" t="s">
         <v>368</v>
       </c>
@@ -7629,7 +7594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="9" t="s">
         <v>94</v>
       </c>
@@ -7742,7 +7707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="9" t="s">
         <v>93</v>
       </c>
@@ -7855,7 +7820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="9" t="s">
         <v>92</v>
       </c>
@@ -7968,7 +7933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="9" t="s">
         <v>91</v>
       </c>
@@ -8081,7 +8046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="9" t="s">
         <v>90</v>
       </c>
@@ -8194,7 +8159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="9" t="s">
         <v>89</v>
       </c>
@@ -8307,7 +8272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="9" t="s">
         <v>88</v>
       </c>
@@ -8420,7 +8385,7 @@
         <v>1.9699999999999999E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="9" t="s">
         <v>87</v>
       </c>
@@ -8533,7 +8498,7 @@
         <v>-4.8299999999999998E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="9" t="s">
         <v>86</v>
       </c>
@@ -8646,7 +8611,7 @@
         <v>-3.1150000000000001E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="9" t="s">
         <v>85</v>
       </c>
@@ -8759,12 +8724,12 @@
         <v>-1.013E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="9" t="s">
         <v>84</v>
       </c>
@@ -8877,7 +8842,7 @@
         <v>-2.4000000000000001E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="9" t="s">
         <v>83</v>
       </c>
@@ -8990,7 +8955,7 @@
         <v>-3.0000000000000001E-6</v>
       </c>
     </row>
-    <row r="50" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="9" t="s">
         <v>82</v>
       </c>
@@ -9103,7 +9068,7 @@
         <v>2.3E-5</v>
       </c>
     </row>
-    <row r="51" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="9" t="s">
         <v>81</v>
       </c>
@@ -9216,12 +9181,12 @@
         <v>-2.7700000000000001E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="9" t="s">
         <v>80</v>
       </c>
@@ -9334,7 +9299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="9" t="s">
         <v>79</v>
       </c>
@@ -9447,7 +9412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="9" t="s">
         <v>78</v>
       </c>
@@ -9560,7 +9525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="9" t="s">
         <v>77</v>
       </c>
@@ -9673,7 +9638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="9" t="s">
         <v>76</v>
       </c>
@@ -9786,7 +9751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="9" t="s">
         <v>75</v>
       </c>
@@ -9899,7 +9864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="9" t="s">
         <v>74</v>
       </c>
@@ -10012,12 +9977,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="9" t="s">
         <v>73</v>
       </c>
@@ -10130,7 +10095,7 @@
         <v>-1.4100000000000001E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="9" t="s">
         <v>72</v>
       </c>
@@ -10243,7 +10208,7 @@
         <v>-1.0139999999999999E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="9" t="s">
         <v>71</v>
       </c>
@@ -10356,7 +10321,7 @@
         <v>-2.1699999999999999E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="9" t="s">
         <v>70</v>
       </c>
@@ -10469,7 +10434,7 @@
         <v>2.8499999999999999E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="9" t="s">
         <v>69</v>
       </c>
@@ -10582,7 +10547,7 @@
         <v>2.3E-5</v>
       </c>
     </row>
-    <row r="68" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="9" t="s">
         <v>68</v>
       </c>
@@ -10695,7 +10660,7 @@
         <v>-5.5000000000000002E-5</v>
       </c>
     </row>
-    <row r="69" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="9" t="s">
         <v>67</v>
       </c>
@@ -10808,7 +10773,7 @@
         <v>-9.5000000000000005E-5</v>
       </c>
     </row>
-    <row r="70" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="9" t="s">
         <v>66</v>
       </c>
@@ -10921,7 +10886,7 @@
         <v>2.5799999999999998E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="9" t="s">
         <v>65</v>
       </c>
@@ -11034,7 +10999,7 @@
         <v>5.7700000000000004E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="9" t="s">
         <v>64</v>
       </c>
@@ -11147,7 +11112,7 @@
         <v>-1.2830000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="9" t="s">
         <v>63</v>
       </c>
@@ -11260,7 +11225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="9" t="s">
         <v>62</v>
       </c>
@@ -11373,7 +11338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="9" t="s">
         <v>61</v>
       </c>
@@ -11486,78 +11451,78 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="208" t="s">
+    <row r="77" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="209" t="s">
         <v>57</v>
       </c>
-      <c r="C78" s="208"/>
-      <c r="D78" s="208"/>
-      <c r="E78" s="208"/>
-      <c r="F78" s="208"/>
-      <c r="G78" s="208"/>
-      <c r="H78" s="208"/>
-      <c r="I78" s="208"/>
-      <c r="J78" s="208"/>
-      <c r="K78" s="208"/>
-      <c r="L78" s="208"/>
-      <c r="M78" s="208"/>
-      <c r="N78" s="208"/>
-      <c r="O78" s="208"/>
-      <c r="P78" s="208"/>
-      <c r="Q78" s="208"/>
-      <c r="R78" s="208"/>
-      <c r="S78" s="208"/>
-      <c r="T78" s="208"/>
-      <c r="U78" s="208"/>
-      <c r="V78" s="208"/>
-      <c r="W78" s="208"/>
-      <c r="X78" s="208"/>
-      <c r="Y78" s="208"/>
-      <c r="Z78" s="208"/>
-      <c r="AA78" s="208"/>
-      <c r="AB78" s="208"/>
-      <c r="AC78" s="208"/>
-      <c r="AD78" s="208"/>
-      <c r="AE78" s="208"/>
-      <c r="AF78" s="208"/>
-      <c r="AG78" s="208"/>
-      <c r="AH78" s="208"/>
-      <c r="AI78" s="208"/>
-      <c r="AJ78" s="208"/>
-      <c r="AK78" s="208"/>
-    </row>
-    <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C78" s="209"/>
+      <c r="D78" s="209"/>
+      <c r="E78" s="209"/>
+      <c r="F78" s="209"/>
+      <c r="G78" s="209"/>
+      <c r="H78" s="209"/>
+      <c r="I78" s="209"/>
+      <c r="J78" s="209"/>
+      <c r="K78" s="209"/>
+      <c r="L78" s="209"/>
+      <c r="M78" s="209"/>
+      <c r="N78" s="209"/>
+      <c r="O78" s="209"/>
+      <c r="P78" s="209"/>
+      <c r="Q78" s="209"/>
+      <c r="R78" s="209"/>
+      <c r="S78" s="209"/>
+      <c r="T78" s="209"/>
+      <c r="U78" s="209"/>
+      <c r="V78" s="209"/>
+      <c r="W78" s="209"/>
+      <c r="X78" s="209"/>
+      <c r="Y78" s="209"/>
+      <c r="Z78" s="209"/>
+      <c r="AA78" s="209"/>
+      <c r="AB78" s="209"/>
+      <c r="AC78" s="209"/>
+      <c r="AD78" s="209"/>
+      <c r="AE78" s="209"/>
+      <c r="AF78" s="209"/>
+      <c r="AG78" s="209"/>
+      <c r="AH78" s="209"/>
+      <c r="AI78" s="209"/>
+      <c r="AJ78" s="209"/>
+      <c r="AK78" s="209"/>
+    </row>
+    <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="81" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="82" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B82" s="8" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="83" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="8" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="84" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" s="8" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="85" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="8" t="s">
         <v>363</v>
       </c>
@@ -11572,47 +11537,47 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X163"/>
   <sheetViews>
     <sheetView topLeftCell="A70" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="33.140625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="22" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="22" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="22"/>
-    <col min="11" max="11" width="10.42578125" style="22" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" style="22"/>
-    <col min="15" max="15" width="12.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="9.140625" style="22"/>
-    <col min="19" max="19" width="10.42578125" style="22" customWidth="1"/>
-    <col min="20" max="22" width="9.140625" style="22"/>
-    <col min="23" max="23" width="10.7109375" style="22" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="22"/>
+    <col min="1" max="1" width="33.1328125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="12.86328125" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.3984375" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.265625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="13.3984375" style="22" customWidth="1"/>
+    <col min="8" max="8" width="12.73046875" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.73046875" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1328125" style="22"/>
+    <col min="11" max="11" width="10.3984375" style="22" customWidth="1"/>
+    <col min="12" max="12" width="12.3984375" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.1328125" style="22"/>
+    <col min="15" max="15" width="12.86328125" style="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="9.1328125" style="22"/>
+    <col min="19" max="19" width="10.3984375" style="22" customWidth="1"/>
+    <col min="20" max="22" width="9.1328125" style="22"/>
+    <col min="23" max="23" width="10.73046875" style="22" customWidth="1"/>
+    <col min="24" max="16384" width="9.1328125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A1" s="21" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A2" s="23" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="24" t="s">
         <v>126</v>
       </c>
@@ -11635,7 +11600,7 @@
       </c>
       <c r="I3" s="29"/>
     </row>
-    <row r="4" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="26.65" x14ac:dyDescent="0.45">
       <c r="A4" s="30"/>
       <c r="B4" s="31" t="s">
         <v>302</v>
@@ -11660,7 +11625,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A5" s="35" t="s">
         <v>137</v>
       </c>
@@ -11677,7 +11642,7 @@
       <c r="H5" s="39"/>
       <c r="I5" s="40"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A6" s="41" t="s">
         <v>139</v>
       </c>
@@ -11702,7 +11667,7 @@
       <c r="T6" s="47"/>
       <c r="V6" s="47"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A7" s="48" t="s">
         <v>142</v>
       </c>
@@ -11739,7 +11704,7 @@
       <c r="V7" s="55"/>
       <c r="W7" s="55"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A8" s="48" t="s">
         <v>143</v>
       </c>
@@ -11776,7 +11741,7 @@
       <c r="V8" s="55"/>
       <c r="W8" s="55"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A9" s="48" t="s">
         <v>144</v>
       </c>
@@ -11813,7 +11778,7 @@
       <c r="V9" s="55"/>
       <c r="W9" s="55"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A10" s="48" t="s">
         <v>145</v>
       </c>
@@ -11846,7 +11811,7 @@
       <c r="V10" s="55"/>
       <c r="W10" s="55"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A11" s="48" t="s">
         <v>146</v>
       </c>
@@ -11887,7 +11852,7 @@
       <c r="V11" s="55"/>
       <c r="W11" s="55"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A12" s="48" t="s">
         <v>147</v>
       </c>
@@ -11924,7 +11889,7 @@
       <c r="R12" s="55"/>
       <c r="S12" s="55"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A13" s="22" t="s">
         <v>148</v>
       </c>
@@ -11953,7 +11918,7 @@
         <v>0.93726057101554028</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A14" s="22" t="s">
         <v>149</v>
       </c>
@@ -11982,7 +11947,7 @@
         <v>0.93726057101554017</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A15" s="48" t="s">
         <v>150</v>
       </c>
@@ -12020,7 +11985,7 @@
       <c r="V15" s="65"/>
       <c r="W15" s="61"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A16" s="48" t="s">
         <v>151</v>
       </c>
@@ -12054,7 +12019,7 @@
       <c r="V16" s="65"/>
       <c r="W16" s="61"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A17" s="48" t="s">
         <v>152</v>
       </c>
@@ -12092,7 +12057,7 @@
       <c r="V17" s="65"/>
       <c r="W17" s="61"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A18" s="48" t="s">
         <v>153</v>
       </c>
@@ -12126,7 +12091,7 @@
       <c r="V18" s="65"/>
       <c r="W18" s="61"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A19" s="48" t="s">
         <v>154</v>
       </c>
@@ -12160,7 +12125,7 @@
       <c r="M19" s="65"/>
       <c r="N19" s="61"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A20" s="67" t="s">
         <v>303</v>
       </c>
@@ -12191,7 +12156,7 @@
       <c r="O20" s="55"/>
       <c r="W20" s="61"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A21" s="68" t="s">
         <v>395</v>
       </c>
@@ -12218,7 +12183,7 @@
       </c>
       <c r="I21" s="54"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A22" s="48" t="s">
         <v>155</v>
       </c>
@@ -12247,7 +12212,7 @@
         <v>0.93499781627602274</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A23" s="48" t="s">
         <v>156</v>
       </c>
@@ -12276,7 +12241,7 @@
         <v>0.93499781627602274</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A24" s="48" t="s">
         <v>157</v>
       </c>
@@ -12305,7 +12270,7 @@
         <v>0.93476175247841387</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A25" s="70" t="s">
         <v>396</v>
       </c>
@@ -12334,7 +12299,7 @@
         <v>0.93404711473172097</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A26" s="71" t="s">
         <v>158</v>
       </c>
@@ -12363,7 +12328,7 @@
         <v>0.93500003751584637</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A27" s="71" t="s">
         <v>159</v>
       </c>
@@ -12392,7 +12357,7 @@
         <v>0.93500003751584626</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A28" s="71" t="s">
         <v>160</v>
       </c>
@@ -12422,7 +12387,7 @@
       </c>
       <c r="J28" s="73"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A29" s="71" t="s">
         <v>161</v>
       </c>
@@ -12451,7 +12416,7 @@
         <v>0.93499781627602263</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A30" s="71" t="s">
         <v>162</v>
       </c>
@@ -12480,7 +12445,7 @@
         <v>0.93499781627602263</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A31" s="71" t="s">
         <v>163</v>
       </c>
@@ -12510,7 +12475,7 @@
       </c>
       <c r="J31" s="73"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A32" s="71" t="s">
         <v>164</v>
       </c>
@@ -12539,7 +12504,7 @@
         <v>0.90299302022950434</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" s="71" t="s">
         <v>165</v>
       </c>
@@ -12569,7 +12534,7 @@
       </c>
       <c r="J33" s="73"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" s="71" t="s">
         <v>166</v>
       </c>
@@ -12598,7 +12563,7 @@
         <v>0.92867915675168411</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" s="71" t="s">
         <v>167</v>
       </c>
@@ -12628,7 +12593,7 @@
       </c>
       <c r="J35" s="73"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" s="71" t="s">
         <v>168</v>
       </c>
@@ -12658,7 +12623,7 @@
       </c>
       <c r="J36" s="73"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" s="71" t="s">
         <v>169</v>
       </c>
@@ -12688,7 +12653,7 @@
       </c>
       <c r="J37" s="73"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" s="71" t="s">
         <v>170</v>
       </c>
@@ -12718,7 +12683,7 @@
       </c>
       <c r="J38" s="73"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" s="71" t="s">
         <v>171</v>
       </c>
@@ -12749,7 +12714,7 @@
       <c r="J39" s="73"/>
       <c r="K39" s="73"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" s="71" t="s">
         <v>172</v>
       </c>
@@ -12780,7 +12745,7 @@
       <c r="J40" s="73"/>
       <c r="K40" s="73"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" s="71" t="s">
         <v>173</v>
       </c>
@@ -12810,7 +12775,7 @@
       </c>
       <c r="K41" s="73"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" s="70" t="s">
         <v>174</v>
       </c>
@@ -12840,7 +12805,7 @@
       </c>
       <c r="K42" s="73"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" s="70" t="s">
         <v>175</v>
       </c>
@@ -12870,7 +12835,7 @@
       </c>
       <c r="K43" s="73"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" s="71" t="s">
         <v>176</v>
       </c>
@@ -12900,7 +12865,7 @@
       </c>
       <c r="K44" s="73"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" s="22" t="s">
         <v>177</v>
       </c>
@@ -12929,7 +12894,7 @@
         <v>0.93361506882395562</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" s="71" t="s">
         <v>178</v>
       </c>
@@ -12959,7 +12924,7 @@
       </c>
       <c r="K46" s="73"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" s="48" t="s">
         <v>397</v>
       </c>
@@ -12988,7 +12953,7 @@
         <v>0.93361506882395551</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" s="48" t="s">
         <v>179</v>
       </c>
@@ -13017,7 +12982,7 @@
         <v>0.93500003751584626</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A49" s="48" t="s">
         <v>180</v>
       </c>
@@ -13047,7 +13012,7 @@
       </c>
       <c r="J49" s="73"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A50" s="48" t="s">
         <v>181</v>
       </c>
@@ -13077,7 +13042,7 @@
       </c>
       <c r="J50" s="73"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A51" s="48" t="s">
         <v>182</v>
       </c>
@@ -13107,7 +13072,7 @@
       </c>
       <c r="J51" s="73"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A52" s="48" t="s">
         <v>183</v>
       </c>
@@ -13137,7 +13102,7 @@
       </c>
       <c r="J52" s="73"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A53" s="48" t="s">
         <v>184</v>
       </c>
@@ -13167,7 +13132,7 @@
       </c>
       <c r="J53" s="73"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A54" s="48" t="s">
         <v>185</v>
       </c>
@@ -13197,7 +13162,7 @@
       </c>
       <c r="J54" s="73"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A55" s="48" t="s">
         <v>186</v>
       </c>
@@ -13227,7 +13192,7 @@
       </c>
       <c r="J55" s="73"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A56" s="67" t="s">
         <v>187</v>
       </c>
@@ -13256,7 +13221,7 @@
         <v>0.92157077225989936</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A57" s="48" t="s">
         <v>188</v>
       </c>
@@ -13283,7 +13248,7 @@
         <v>0.92932939503336609</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A58" s="41" t="s">
         <v>189</v>
       </c>
@@ -13312,7 +13277,7 @@
         <v>0.93722267739953979</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A59" s="48" t="s">
         <v>191</v>
       </c>
@@ -13335,7 +13300,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A60" s="67" t="s">
         <v>194</v>
       </c>
@@ -13364,7 +13329,7 @@
         <v>0.90266299357208446</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A61" s="48" t="s">
         <v>195</v>
       </c>
@@ -13394,7 +13359,7 @@
       </c>
       <c r="L61" s="47"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A62" s="48" t="s">
         <v>196</v>
       </c>
@@ -13423,7 +13388,7 @@
         <v>0.84548104956268222</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A63" s="71" t="s">
         <v>197</v>
       </c>
@@ -13444,7 +13409,7 @@
       </c>
       <c r="I63" s="54"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A64" s="41" t="s">
         <v>190</v>
       </c>
@@ -13474,7 +13439,7 @@
       </c>
       <c r="K64" s="47"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A65" s="67" t="s">
         <v>198</v>
       </c>
@@ -13495,7 +13460,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A66" s="68" t="s">
         <v>200</v>
       </c>
@@ -13521,7 +13486,7 @@
       <c r="I66" s="94"/>
       <c r="K66" s="95"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A67" s="68" t="s">
         <v>201</v>
       </c>
@@ -13549,7 +13514,7 @@
       </c>
       <c r="K67" s="95"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A68" s="68" t="s">
         <v>202</v>
       </c>
@@ -13577,7 +13542,7 @@
       </c>
       <c r="K68" s="95"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A69" s="68" t="s">
         <v>203</v>
       </c>
@@ -13605,7 +13570,7 @@
       </c>
       <c r="K69" s="95"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A70" s="68" t="s">
         <v>204</v>
       </c>
@@ -13634,7 +13599,7 @@
       <c r="K70" s="95"/>
       <c r="M70" s="73"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A71" s="71" t="s">
         <v>205</v>
       </c>
@@ -13663,7 +13628,7 @@
       <c r="K71" s="95"/>
       <c r="L71" s="95"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A72" s="70" t="s">
         <v>206</v>
       </c>
@@ -13691,7 +13656,7 @@
       </c>
       <c r="K72" s="95"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A73" s="48" t="s">
         <v>207</v>
       </c>
@@ -13718,7 +13683,7 @@
         <v>0.94242199100000001</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" ht="12.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="48" t="s">
         <v>208</v>
       </c>
@@ -13746,7 +13711,7 @@
       </c>
       <c r="K74" s="97"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A75" s="48" t="s">
         <v>398</v>
       </c>
@@ -13774,7 +13739,7 @@
       </c>
       <c r="K75" s="97"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A76" s="48" t="s">
         <v>209</v>
       </c>
@@ -13801,7 +13766,7 @@
         <v>0.93173565722585328</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A77" s="70" t="s">
         <v>210</v>
       </c>
@@ -13830,7 +13795,7 @@
       <c r="J77" s="55"/>
       <c r="K77" s="98"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A78" s="71" t="s">
         <v>211</v>
       </c>
@@ -13858,7 +13823,7 @@
       </c>
       <c r="K78" s="97"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A79" s="71" t="s">
         <v>212</v>
       </c>
@@ -13885,7 +13850,7 @@
         <v>0.93680161201685286</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A80" s="71" t="s">
         <v>213</v>
       </c>
@@ -13912,7 +13877,7 @@
         <v>0.93292760238366934</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A81" s="71" t="s">
         <v>214</v>
       </c>
@@ -13939,7 +13904,7 @@
         <v>0.96554227633195577</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A82" s="71" t="s">
         <v>399</v>
       </c>
@@ -13966,7 +13931,7 @@
         <v>0.93359512366662756</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A83" s="99" t="s">
         <v>215</v>
       </c>
@@ -13989,7 +13954,7 @@
       </c>
       <c r="I83" s="102"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A84" s="103" t="s">
         <v>216</v>
       </c>
@@ -14012,7 +13977,7 @@
         <v>0.85292563033160751</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A85" s="103" t="s">
         <v>217</v>
       </c>
@@ -14035,7 +14000,7 @@
         <v>0.88047037071579148</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A86" s="103" t="s">
         <v>218</v>
       </c>
@@ -14062,7 +14027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A87" s="106" t="s">
         <v>219</v>
       </c>
@@ -14089,7 +14054,7 @@
         <v>0.90447216306662592</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A88" s="107" t="s">
         <v>220</v>
       </c>
@@ -14116,7 +14081,7 @@
         <v>0.94150280898876404</v>
       </c>
     </row>
-    <row r="89" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A89" s="73" t="s">
         <v>221</v>
       </c>
@@ -14143,7 +14108,7 @@
         <v>0.94150280898876404</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A90" s="23" t="s">
         <v>222</v>
       </c>
@@ -14170,7 +14135,7 @@
         <v>0.8252427184466018</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A91" s="73" t="s">
         <v>223</v>
       </c>
@@ -14197,7 +14162,7 @@
         <v>0.87681159420289856</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A92" s="118" t="s">
         <v>400</v>
       </c>
@@ -14231,7 +14196,7 @@
       <c r="M92" s="121"/>
       <c r="N92" s="122"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A93" s="123" t="s">
         <v>401</v>
       </c>
@@ -14257,12 +14222,12 @@
       <c r="M93" s="125"/>
       <c r="N93" s="126"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A94" s="127"/>
       <c r="B94" s="128"/>
       <c r="N94" s="129"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A95" s="127" t="s">
         <v>224</v>
       </c>
@@ -14277,7 +14242,7 @@
       <c r="M95" s="73"/>
       <c r="N95" s="129"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A96" s="130" t="s">
         <v>225</v>
       </c>
@@ -14295,7 +14260,7 @@
       <c r="M96" s="133"/>
       <c r="N96" s="134"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A97" s="135" t="s">
         <v>226</v>
       </c>
@@ -14339,7 +14304,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A98" s="136" t="s">
         <v>233</v>
       </c>
@@ -14383,7 +14348,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A99" s="137" t="s">
         <v>234</v>
       </c>
@@ -14427,7 +14392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A100" s="123" t="s">
         <v>235</v>
       </c>
@@ -14471,7 +14436,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A101" s="127" t="s">
         <v>236</v>
       </c>
@@ -14515,13 +14480,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A102" s="127"/>
       <c r="B102" s="128"/>
       <c r="F102" s="73"/>
       <c r="G102" s="129"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A103" s="127" t="s">
         <v>237</v>
       </c>
@@ -14530,7 +14495,7 @@
       <c r="F103" s="73"/>
       <c r="G103" s="129"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A104" s="127" t="s">
         <v>238</v>
       </c>
@@ -14553,7 +14518,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A105" s="130" t="s">
         <v>233</v>
       </c>
@@ -14574,7 +14539,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A106" s="22" t="s">
         <v>242</v>
       </c>
@@ -14597,7 +14562,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A107" s="23" t="s">
         <v>243</v>
       </c>
@@ -14620,7 +14585,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A108" s="118" t="s">
         <v>244</v>
       </c>
@@ -14643,7 +14608,7 @@
         <v>-87</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A109" s="127" t="s">
         <v>245</v>
       </c>
@@ -14666,7 +14631,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A110" s="127" t="s">
         <v>246</v>
       </c>
@@ -14689,17 +14654,17 @@
         <v>-71</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A111" s="127"/>
       <c r="B111" s="146"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A112" s="130" t="s">
         <v>247</v>
       </c>
       <c r="B112" s="147"/>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A113" s="22" t="s">
         <v>248</v>
       </c>
@@ -14707,7 +14672,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A114" s="148" t="s">
         <v>249</v>
       </c>
@@ -14717,7 +14682,7 @@
       <c r="C114" s="73"/>
       <c r="D114" s="73"/>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A115" s="73" t="s">
         <v>250</v>
       </c>
@@ -14725,7 +14690,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A116" s="22" t="s">
         <v>251</v>
       </c>
@@ -14738,7 +14703,7 @@
       <c r="R116" s="151"/>
       <c r="V116" s="151"/>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A117" s="22" t="s">
         <v>252</v>
       </c>
@@ -14751,7 +14716,7 @@
       <c r="R117" s="154"/>
       <c r="V117" s="154"/>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B118" s="155"/>
       <c r="C118" s="156"/>
       <c r="D118" s="157"/>
@@ -14771,7 +14736,7 @@
       <c r="W118" s="158"/>
       <c r="X118" s="157"/>
     </row>
-    <row r="119" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A119" s="73" t="s">
         <v>253</v>
       </c>
@@ -14794,7 +14759,7 @@
       <c r="W119" s="160"/>
       <c r="X119" s="161"/>
     </row>
-    <row r="120" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B120" s="162"/>
       <c r="C120" s="163"/>
       <c r="D120" s="164"/>
@@ -14814,7 +14779,7 @@
       <c r="W120" s="163"/>
       <c r="X120" s="164"/>
     </row>
-    <row r="121" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B121" s="162">
         <v>10</v>
       </c>
@@ -14846,7 +14811,7 @@
       <c r="W121" s="163"/>
       <c r="X121" s="164"/>
     </row>
-    <row r="122" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B122" s="162">
         <v>10</v>
       </c>
@@ -14878,7 +14843,7 @@
       <c r="W122" s="163"/>
       <c r="X122" s="164"/>
     </row>
-    <row r="123" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B123" s="162" t="s">
         <v>254</v>
       </c>
@@ -14934,7 +14899,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="124" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B124" s="162">
         <v>1990</v>
       </c>
@@ -14990,7 +14955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B125" s="162">
         <v>1995</v>
       </c>
@@ -15046,7 +15011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B126" s="168">
         <v>2000</v>
       </c>
@@ -15102,7 +15067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B127" s="22">
         <v>2005</v>
       </c>
@@ -15158,7 +15123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A128" s="148"/>
       <c r="B128" s="22">
         <v>2010</v>
@@ -15215,7 +15180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A129" s="171"/>
       <c r="B129" s="172">
         <v>2015</v>
@@ -15273,7 +15238,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A130" s="175"/>
       <c r="B130" s="176">
         <v>2017</v>
@@ -15331,7 +15296,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A131" s="175"/>
       <c r="B131" s="179">
         <v>2020</v>
@@ -15347,7 +15312,7 @@
       <c r="G131" s="174"/>
       <c r="H131" s="174"/>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A132" s="175"/>
       <c r="B132" s="179"/>
       <c r="C132" s="179"/>
@@ -15357,7 +15322,7 @@
       <c r="G132" s="174"/>
       <c r="H132" s="174"/>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A133" s="175" t="s">
         <v>262</v>
       </c>
@@ -15369,7 +15334,7 @@
       <c r="G133" s="174"/>
       <c r="H133" s="174"/>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A134" s="181" t="s">
         <v>263</v>
       </c>
@@ -15391,7 +15356,7 @@
       <c r="G134" s="174"/>
       <c r="H134" s="174"/>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A135" s="174" t="s">
         <v>269</v>
       </c>
@@ -15413,7 +15378,7 @@
       <c r="G135" s="174"/>
       <c r="H135" s="174"/>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A136" s="171" t="s">
         <v>270</v>
       </c>
@@ -15435,7 +15400,7 @@
       <c r="G136" s="174"/>
       <c r="H136" s="174"/>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A137" s="175" t="s">
         <v>271</v>
       </c>
@@ -15457,7 +15422,7 @@
       <c r="G137" s="174"/>
       <c r="H137" s="174"/>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A138" s="175" t="s">
         <v>272</v>
       </c>
@@ -15479,7 +15444,7 @@
       <c r="G138" s="174"/>
       <c r="H138" s="174"/>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A139" s="175" t="s">
         <v>273</v>
       </c>
@@ -15501,7 +15466,7 @@
       <c r="G139" s="174"/>
       <c r="H139" s="174"/>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A140" s="175"/>
       <c r="B140" s="163"/>
       <c r="C140" s="179"/>
@@ -15511,7 +15476,7 @@
       <c r="G140" s="174"/>
       <c r="H140" s="174"/>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A141" s="181" t="s">
         <v>274</v>
       </c>
@@ -15533,7 +15498,7 @@
       <c r="G141" s="174"/>
       <c r="H141" s="174"/>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A142" s="174" t="s">
         <v>280</v>
       </c>
@@ -15555,7 +15520,7 @@
       <c r="G142" s="174"/>
       <c r="H142" s="174"/>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A143" s="171" t="s">
         <v>281</v>
       </c>
@@ -15578,7 +15543,7 @@
       <c r="H143" s="172"/>
       <c r="I143" s="190"/>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A144" s="175" t="s">
         <v>282</v>
       </c>
@@ -15601,7 +15566,7 @@
       <c r="H144" s="176"/>
       <c r="I144" s="129"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A145" s="175" t="s">
         <v>283</v>
       </c>
@@ -15624,7 +15589,7 @@
       <c r="H145" s="176"/>
       <c r="I145" s="129"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A146" s="175" t="s">
         <v>284</v>
       </c>
@@ -15647,7 +15612,7 @@
       <c r="H146" s="176"/>
       <c r="I146" s="129"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A147" s="175"/>
       <c r="B147" s="179"/>
       <c r="C147" s="177"/>
@@ -15658,7 +15623,7 @@
       <c r="H147" s="176"/>
       <c r="I147" s="129"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A148" s="175" t="s">
         <v>285</v>
       </c>
@@ -15687,7 +15652,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A149" s="175" t="s">
         <v>294</v>
       </c>
@@ -15716,7 +15681,7 @@
         <v>2684519.5376862194</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A150" s="175" t="s">
         <v>295</v>
       </c>
@@ -15745,7 +15710,7 @@
         <v>2684.5195376862198</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A151" s="195" t="s">
         <v>296</v>
       </c>
@@ -15774,7 +15739,7 @@
         <v>2.6845195376862194</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A152" s="22" t="s">
         <v>297</v>
       </c>
@@ -15803,7 +15768,7 @@
         <v>745.69987157950538</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A153" s="22" t="s">
         <v>298</v>
       </c>
@@ -15832,7 +15797,7 @@
         <v>0.74569987157950535</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A154" s="22" t="s">
         <v>299</v>
       </c>
@@ -15861,7 +15826,7 @@
         <v>2544.4335839531336</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A155" s="22" t="s">
         <v>300</v>
       </c>
@@ -15890,7 +15855,7 @@
         <v>2.5444335839531337E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A156" s="22" t="s">
         <v>301</v>
       </c>
@@ -15919,7 +15884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A158" s="22" t="s">
         <v>402</v>
       </c>
@@ -15939,7 +15904,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A159" s="22" t="s">
         <v>403</v>
       </c>
@@ -15959,7 +15924,7 @@
         <v>1609340</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A160" s="22" t="s">
         <v>404</v>
       </c>
@@ -15979,7 +15944,7 @@
         <v>1609.34</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A161" s="22" t="s">
         <v>405</v>
       </c>
@@ -15999,7 +15964,7 @@
         <v>1.60934</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A162" s="22" t="s">
         <v>406</v>
       </c>
@@ -16019,7 +15984,7 @@
         <v>5280</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A163" s="22" t="s">
         <v>407</v>
       </c>
@@ -16041,19 +16006,19 @@
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B100" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B100">
       <formula1>$D$100:$E$100</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B99" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B99">
       <formula1>"None, GWP, GTP"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93">
       <formula1>$C$93:$D$93</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B92" xr:uid="{00000000-0002-0000-0200-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B92">
       <formula1>"AR5/GWP,AR5/GTP,AR4/GWP,AR3/GWP,AR2/GWP,AR1/GWP"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-0200-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
       <formula1>"1,2"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16063,24 +16028,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AI24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="U10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:AI22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.86328125" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="35" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>393</v>
       </c>
@@ -16187,7 +16152,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>340</v>
       </c>
@@ -16328,7 +16293,7 @@
         <v>3142000000000</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>322</v>
       </c>
@@ -16469,7 +16434,7 @@
         <v>21922172488039.996</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>323</v>
       </c>
@@ -16610,7 +16575,7 @@
         <v>36621343900000</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>334</v>
       </c>
@@ -16751,7 +16716,7 @@
         <v>947813394498.89111</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>335</v>
       </c>
@@ -16858,7 +16823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>336</v>
       </c>
@@ -16965,7 +16930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>337</v>
       </c>
@@ -17072,7 +17037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>324</v>
       </c>
@@ -17213,7 +17178,7 @@
         <v>19737962860000</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>325</v>
       </c>
@@ -17354,7 +17319,7 @@
         <v>42239166363636.359</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>326</v>
       </c>
@@ -17495,7 +17460,7 @@
         <v>43155771495877.5</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>327</v>
       </c>
@@ -17636,7 +17601,7 @@
         <v>33545822954545.457</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>328</v>
       </c>
@@ -17777,7 +17742,7 @@
         <v>39703309776207.305</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>362</v>
       </c>
@@ -17918,7 +17883,7 @@
         <v>44138985148514.852</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>341</v>
       </c>
@@ -18059,7 +18024,7 @@
         <v>3142000000000</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>338</v>
       </c>
@@ -18166,7 +18131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>329</v>
       </c>
@@ -18307,7 +18272,7 @@
         <v>14321544386446.23</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>358</v>
       </c>
@@ -18448,7 +18413,7 @@
         <v>40525891691259.93</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>359</v>
       </c>
@@ -18589,7 +18554,7 @@
         <v>43696386740331.492</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>360</v>
       </c>
@@ -18730,7 +18695,7 @@
         <v>187648767950.10846</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>361</v>
       </c>
@@ -18871,149 +18836,149 @@
         <v>14973166799680.666</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>357</v>
       </c>
       <c r="B22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="C22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="D22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="E22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="F22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="G22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="H22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="I22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="J22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="K22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="L22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="M22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="N22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="O22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="P22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="Q22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="R22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="S22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="T22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="U22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="V22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="W22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="X22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="Y22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="Z22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="AA22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="AB22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="AC22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="AD22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="AE22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="AF22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="AG22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="AH22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="AI22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B24" s="209"/>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="B24" s="208"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19021,24 +18986,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AI22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="U7" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:AI22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="30.86328125" style="2" customWidth="1"/>
     <col min="2" max="35" width="10" style="2" customWidth="1"/>
-    <col min="36" max="16384" width="9.140625" style="2"/>
+    <col min="36" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>394</v>
       </c>
@@ -19145,7 +19110,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>345</v>
       </c>
@@ -19286,7 +19251,7 @@
         <v>3142000</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>322</v>
       </c>
@@ -19427,289 +19392,289 @@
         <v>21922172.488039996</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B4" s="209">
+      <c r="B4" s="208">
         <f>'AEO Table 73'!C54*10^3*About!$A$67</f>
         <v>36621.3439</v>
       </c>
-      <c r="C4" s="209">
+      <c r="C4" s="208">
         <f>'AEO Table 73'!D54*10^3*About!$A$67</f>
         <v>36621.3439</v>
       </c>
-      <c r="D4" s="209">
+      <c r="D4" s="208">
         <f>'AEO Table 73'!E54*10^3*About!$A$67</f>
         <v>36621.3439</v>
       </c>
-      <c r="E4" s="209">
+      <c r="E4" s="208">
         <f>'AEO Table 73'!F54*10^3*About!$A$67</f>
         <v>36621.3439</v>
       </c>
-      <c r="F4" s="209">
+      <c r="F4" s="208">
         <f>'AEO Table 73'!G54*10^3*About!$A$67</f>
         <v>36621.3439</v>
       </c>
-      <c r="G4" s="209">
+      <c r="G4" s="208">
         <f>'AEO Table 73'!H54*10^3*About!$A$67</f>
         <v>36621.3439</v>
       </c>
-      <c r="H4" s="209">
+      <c r="H4" s="208">
         <f>'AEO Table 73'!I54*10^3*About!$A$67</f>
         <v>36621.3439</v>
       </c>
-      <c r="I4" s="209">
+      <c r="I4" s="208">
         <f>'AEO Table 73'!J54*10^3*About!$A$67</f>
         <v>36621.3439</v>
       </c>
-      <c r="J4" s="209">
+      <c r="J4" s="208">
         <f>'AEO Table 73'!K54*10^3*About!$A$67</f>
         <v>36621.3439</v>
       </c>
-      <c r="K4" s="209">
+      <c r="K4" s="208">
         <f>'AEO Table 73'!L54*10^3*About!$A$67</f>
         <v>36621.3439</v>
       </c>
-      <c r="L4" s="209">
+      <c r="L4" s="208">
         <f>'AEO Table 73'!M54*10^3*About!$A$67</f>
         <v>36621.3439</v>
       </c>
-      <c r="M4" s="209">
+      <c r="M4" s="208">
         <f>'AEO Table 73'!N54*10^3*About!$A$67</f>
         <v>36621.3439</v>
       </c>
-      <c r="N4" s="209">
+      <c r="N4" s="208">
         <f>'AEO Table 73'!O54*10^3*About!$A$67</f>
         <v>36621.3439</v>
       </c>
-      <c r="O4" s="209">
+      <c r="O4" s="208">
         <f>'AEO Table 73'!P54*10^3*About!$A$67</f>
         <v>36621.3439</v>
       </c>
-      <c r="P4" s="209">
+      <c r="P4" s="208">
         <f>'AEO Table 73'!Q54*10^3*About!$A$67</f>
         <v>36621.3439</v>
       </c>
-      <c r="Q4" s="209">
+      <c r="Q4" s="208">
         <f>'AEO Table 73'!R54*10^3*About!$A$67</f>
         <v>36621.3439</v>
       </c>
-      <c r="R4" s="209">
+      <c r="R4" s="208">
         <f>'AEO Table 73'!S54*10^3*About!$A$67</f>
         <v>36621.3439</v>
       </c>
-      <c r="S4" s="209">
+      <c r="S4" s="208">
         <f>'AEO Table 73'!T54*10^3*About!$A$67</f>
         <v>36621.3439</v>
       </c>
-      <c r="T4" s="209">
+      <c r="T4" s="208">
         <f>'AEO Table 73'!U54*10^3*About!$A$67</f>
         <v>36621.3439</v>
       </c>
-      <c r="U4" s="209">
+      <c r="U4" s="208">
         <f>'AEO Table 73'!V54*10^3*About!$A$67</f>
         <v>36621.3439</v>
       </c>
-      <c r="V4" s="209">
+      <c r="V4" s="208">
         <f>'AEO Table 73'!W54*10^3*About!$A$67</f>
         <v>36621.3439</v>
       </c>
-      <c r="W4" s="209">
+      <c r="W4" s="208">
         <f>'AEO Table 73'!X54*10^3*About!$A$67</f>
         <v>36621.3439</v>
       </c>
-      <c r="X4" s="209">
+      <c r="X4" s="208">
         <f>'AEO Table 73'!Y54*10^3*About!$A$67</f>
         <v>36621.3439</v>
       </c>
-      <c r="Y4" s="209">
+      <c r="Y4" s="208">
         <f>'AEO Table 73'!Z54*10^3*About!$A$67</f>
         <v>36621.3439</v>
       </c>
-      <c r="Z4" s="209">
+      <c r="Z4" s="208">
         <f>'AEO Table 73'!AA54*10^3*About!$A$67</f>
         <v>36621.3439</v>
       </c>
-      <c r="AA4" s="209">
+      <c r="AA4" s="208">
         <f>'AEO Table 73'!AB54*10^3*About!$A$67</f>
         <v>36621.3439</v>
       </c>
-      <c r="AB4" s="209">
+      <c r="AB4" s="208">
         <f>'AEO Table 73'!AC54*10^3*About!$A$67</f>
         <v>36621.3439</v>
       </c>
-      <c r="AC4" s="209">
+      <c r="AC4" s="208">
         <f>'AEO Table 73'!AD54*10^3*About!$A$67</f>
         <v>36621.3439</v>
       </c>
-      <c r="AD4" s="209">
+      <c r="AD4" s="208">
         <f>'AEO Table 73'!AE54*10^3*About!$A$67</f>
         <v>36621.3439</v>
       </c>
-      <c r="AE4" s="209">
+      <c r="AE4" s="208">
         <f>'AEO Table 73'!AF54*10^3*About!$A$67</f>
         <v>36621.3439</v>
       </c>
-      <c r="AF4" s="209">
+      <c r="AF4" s="208">
         <f>'AEO Table 73'!AG54*10^3*About!$A$67</f>
         <v>36621.3439</v>
       </c>
-      <c r="AG4" s="209">
+      <c r="AG4" s="208">
         <f>'AEO Table 73'!AH54*10^3*About!$A$67</f>
         <v>36621.3439</v>
       </c>
-      <c r="AH4" s="209">
+      <c r="AH4" s="208">
         <f>'AEO Table 73'!AI54*10^3*About!$A$67</f>
         <v>36621.3439</v>
       </c>
-      <c r="AI4" s="209">
+      <c r="AI4" s="208">
         <f>'AEO Table 73'!AJ54*10^3*About!$A$67</f>
         <v>36621.3439</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B5" s="209">
+      <c r="B5" s="208">
         <f>10^6/About!$A$80*1000</f>
         <v>947813.39449889108</v>
       </c>
-      <c r="C5" s="209">
+      <c r="C5" s="208">
         <f>10^6/About!$A$80*1000</f>
         <v>947813.39449889108</v>
       </c>
-      <c r="D5" s="209">
+      <c r="D5" s="208">
         <f>10^6/About!$A$80*1000</f>
         <v>947813.39449889108</v>
       </c>
-      <c r="E5" s="209">
+      <c r="E5" s="208">
         <f>10^6/About!$A$80*1000</f>
         <v>947813.39449889108</v>
       </c>
-      <c r="F5" s="209">
+      <c r="F5" s="208">
         <f>10^6/About!$A$80*1000</f>
         <v>947813.39449889108</v>
       </c>
-      <c r="G5" s="209">
+      <c r="G5" s="208">
         <f>10^6/About!$A$80*1000</f>
         <v>947813.39449889108</v>
       </c>
-      <c r="H5" s="209">
+      <c r="H5" s="208">
         <f>10^6/About!$A$80*1000</f>
         <v>947813.39449889108</v>
       </c>
-      <c r="I5" s="209">
+      <c r="I5" s="208">
         <f>10^6/About!$A$80*1000</f>
         <v>947813.39449889108</v>
       </c>
-      <c r="J5" s="209">
+      <c r="J5" s="208">
         <f>10^6/About!$A$80*1000</f>
         <v>947813.39449889108</v>
       </c>
-      <c r="K5" s="209">
+      <c r="K5" s="208">
         <f>10^6/About!$A$80*1000</f>
         <v>947813.39449889108</v>
       </c>
-      <c r="L5" s="209">
+      <c r="L5" s="208">
         <f>10^6/About!$A$80*1000</f>
         <v>947813.39449889108</v>
       </c>
-      <c r="M5" s="209">
+      <c r="M5" s="208">
         <f>10^6/About!$A$80*1000</f>
         <v>947813.39449889108</v>
       </c>
-      <c r="N5" s="209">
+      <c r="N5" s="208">
         <f>10^6/About!$A$80*1000</f>
         <v>947813.39449889108</v>
       </c>
-      <c r="O5" s="209">
+      <c r="O5" s="208">
         <f>10^6/About!$A$80*1000</f>
         <v>947813.39449889108</v>
       </c>
-      <c r="P5" s="209">
+      <c r="P5" s="208">
         <f>10^6/About!$A$80*1000</f>
         <v>947813.39449889108</v>
       </c>
-      <c r="Q5" s="209">
+      <c r="Q5" s="208">
         <f>10^6/About!$A$80*1000</f>
         <v>947813.39449889108</v>
       </c>
-      <c r="R5" s="209">
+      <c r="R5" s="208">
         <f>10^6/About!$A$80*1000</f>
         <v>947813.39449889108</v>
       </c>
-      <c r="S5" s="209">
+      <c r="S5" s="208">
         <f>10^6/About!$A$80*1000</f>
         <v>947813.39449889108</v>
       </c>
-      <c r="T5" s="209">
+      <c r="T5" s="208">
         <f>10^6/About!$A$80*1000</f>
         <v>947813.39449889108</v>
       </c>
-      <c r="U5" s="209">
+      <c r="U5" s="208">
         <f>10^6/About!$A$80*1000</f>
         <v>947813.39449889108</v>
       </c>
-      <c r="V5" s="209">
+      <c r="V5" s="208">
         <f>10^6/About!$A$80*1000</f>
         <v>947813.39449889108</v>
       </c>
-      <c r="W5" s="209">
+      <c r="W5" s="208">
         <f>10^6/About!$A$80*1000</f>
         <v>947813.39449889108</v>
       </c>
-      <c r="X5" s="209">
+      <c r="X5" s="208">
         <f>10^6/About!$A$80*1000</f>
         <v>947813.39449889108</v>
       </c>
-      <c r="Y5" s="209">
+      <c r="Y5" s="208">
         <f>10^6/About!$A$80*1000</f>
         <v>947813.39449889108</v>
       </c>
-      <c r="Z5" s="209">
+      <c r="Z5" s="208">
         <f>10^6/About!$A$80*1000</f>
         <v>947813.39449889108</v>
       </c>
-      <c r="AA5" s="209">
+      <c r="AA5" s="208">
         <f>10^6/About!$A$80*1000</f>
         <v>947813.39449889108</v>
       </c>
-      <c r="AB5" s="209">
+      <c r="AB5" s="208">
         <f>10^6/About!$A$80*1000</f>
         <v>947813.39449889108</v>
       </c>
-      <c r="AC5" s="209">
+      <c r="AC5" s="208">
         <f>10^6/About!$A$80*1000</f>
         <v>947813.39449889108</v>
       </c>
-      <c r="AD5" s="209">
+      <c r="AD5" s="208">
         <f>10^6/About!$A$80*1000</f>
         <v>947813.39449889108</v>
       </c>
-      <c r="AE5" s="209">
+      <c r="AE5" s="208">
         <f>10^6/About!$A$80*1000</f>
         <v>947813.39449889108</v>
       </c>
-      <c r="AF5" s="209">
+      <c r="AF5" s="208">
         <f>10^6/About!$A$80*1000</f>
         <v>947813.39449889108</v>
       </c>
-      <c r="AG5" s="209">
+      <c r="AG5" s="208">
         <f>10^6/About!$A$80*1000</f>
         <v>947813.39449889108</v>
       </c>
-      <c r="AH5" s="209">
+      <c r="AH5" s="208">
         <f>10^6/About!$A$80*1000</f>
         <v>947813.39449889108</v>
       </c>
-      <c r="AI5" s="209">
+      <c r="AI5" s="208">
         <f>10^6/About!$A$80*1000</f>
         <v>947813.39449889108</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>335</v>
       </c>
@@ -19816,7 +19781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>336</v>
       </c>
@@ -19923,7 +19888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>337</v>
       </c>
@@ -20030,7 +19995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>324</v>
       </c>
@@ -20171,712 +20136,712 @@
         <v>19737962.859999999</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B10" s="209">
+      <c r="B10" s="208">
         <f>'AEO Table 73'!C32*10^6/gal_per_barrel/About!$A$69</f>
         <v>31805.342592945519</v>
       </c>
-      <c r="C10" s="209">
+      <c r="C10" s="208">
         <f>'AEO Table 73'!D32*10^6/gal_per_barrel/About!$A$69</f>
         <v>31796.64378055041</v>
       </c>
-      <c r="D10" s="209">
+      <c r="D10" s="208">
         <f>'AEO Table 73'!E32*10^6/gal_per_barrel/About!$A$69</f>
         <v>31800.826506683996</v>
       </c>
-      <c r="E10" s="209">
+      <c r="E10" s="208">
         <f>'AEO Table 73'!F32*10^6/gal_per_barrel/About!$A$69</f>
         <v>31802.99649242247</v>
       </c>
-      <c r="F10" s="209">
+      <c r="F10" s="208">
         <f>'AEO Table 73'!G32*10^6/gal_per_barrel/About!$A$69</f>
         <v>31797.279051737616</v>
       </c>
-      <c r="G10" s="209">
+      <c r="G10" s="208">
         <f>'AEO Table 73'!H32*10^6/gal_per_barrel/About!$A$69</f>
         <v>31784.542178924821</v>
       </c>
-      <c r="H10" s="209">
+      <c r="H10" s="208">
         <f>'AEO Table 73'!I32*10^6/gal_per_barrel/About!$A$69</f>
         <v>31768.691848313341</v>
       </c>
-      <c r="I10" s="209">
+      <c r="I10" s="208">
         <f>'AEO Table 73'!J32*10^6/gal_per_barrel/About!$A$69</f>
         <v>31763.571939933285</v>
       </c>
-      <c r="J10" s="209">
+      <c r="J10" s="208">
         <f>'AEO Table 73'!K32*10^6/gal_per_barrel/About!$A$69</f>
         <v>31760.282367350028</v>
       </c>
-      <c r="K10" s="209">
+      <c r="K10" s="208">
         <f>'AEO Table 73'!L32*10^6/gal_per_barrel/About!$A$69</f>
         <v>31757.690964091325</v>
       </c>
-      <c r="L10" s="209">
+      <c r="L10" s="208">
         <f>'AEO Table 73'!M32*10^6/gal_per_barrel/About!$A$69</f>
         <v>31754.879417351909</v>
       </c>
-      <c r="M10" s="209">
+      <c r="M10" s="208">
         <f>'AEO Table 73'!N32*10^6/gal_per_barrel/About!$A$69</f>
         <v>31752.149638191044</v>
       </c>
-      <c r="N10" s="209">
+      <c r="N10" s="208">
         <f>'AEO Table 73'!O32*10^6/gal_per_barrel/About!$A$69</f>
         <v>31749.419859030178</v>
       </c>
-      <c r="O10" s="209">
+      <c r="O10" s="208">
         <f>'AEO Table 73'!P32*10^6/gal_per_barrel/About!$A$69</f>
         <v>31749.891595060282</v>
       </c>
-      <c r="P10" s="209">
+      <c r="P10" s="208">
         <f>'AEO Table 73'!Q32*10^6/gal_per_barrel/About!$A$69</f>
         <v>31745.394378239958</v>
       </c>
-      <c r="Q10" s="209">
+      <c r="Q10" s="208">
         <f>'AEO Table 73'!R32*10^6/gal_per_barrel/About!$A$69</f>
         <v>31742.878452746074</v>
       </c>
-      <c r="R10" s="209">
+      <c r="R10" s="208">
         <f>'AEO Table 73'!S32*10^6/gal_per_barrel/About!$A$69</f>
         <v>31741.318578939867</v>
       </c>
-      <c r="S10" s="209">
+      <c r="S10" s="208">
         <f>'AEO Table 73'!T32*10^6/gal_per_barrel/About!$A$69</f>
         <v>31737.626458277588</v>
       </c>
-      <c r="T10" s="209">
+      <c r="T10" s="208">
         <f>'AEO Table 73'!U32*10^6/gal_per_barrel/About!$A$69</f>
         <v>31733.2801969869</v>
       </c>
-      <c r="U10" s="209">
+      <c r="U10" s="208">
         <f>'AEO Table 73'!V32*10^6/gal_per_barrel/About!$A$69</f>
         <v>31728.525097803456</v>
       </c>
-      <c r="V10" s="209">
+      <c r="V10" s="208">
         <f>'AEO Table 73'!W32*10^6/gal_per_barrel/About!$A$69</f>
         <v>31723.185045942686</v>
       </c>
-      <c r="W10" s="209">
+      <c r="W10" s="208">
         <f>'AEO Table 73'!X32*10^6/gal_per_barrel/About!$A$69</f>
         <v>31717.989659797811</v>
       </c>
-      <c r="X10" s="209">
+      <c r="X10" s="208">
         <f>'AEO Table 73'!Y32*10^6/gal_per_barrel/About!$A$69</f>
         <v>31711.278428542872</v>
       </c>
-      <c r="Y10" s="209">
+      <c r="Y10" s="208">
         <f>'AEO Table 73'!Z32*10^6/gal_per_barrel/About!$A$69</f>
         <v>31703.793550198563</v>
       </c>
-      <c r="Z10" s="209">
+      <c r="Z10" s="208">
         <f>'AEO Table 73'!AA32*10^6/gal_per_barrel/About!$A$69</f>
         <v>31695.377779421513</v>
       </c>
-      <c r="AA10" s="209">
+      <c r="AA10" s="208">
         <f>'AEO Table 73'!AB32*10^6/gal_per_barrel/About!$A$69</f>
         <v>31687.245050262529</v>
       </c>
-      <c r="AB10" s="209">
+      <c r="AB10" s="208">
         <f>'AEO Table 73'!AC32*10^6/gal_per_barrel/About!$A$69</f>
         <v>31676.910886296395</v>
       </c>
-      <c r="AC10" s="209">
+      <c r="AC10" s="208">
         <f>'AEO Table 73'!AD32*10^6/gal_per_barrel/About!$A$69</f>
         <v>31666.708808418687</v>
       </c>
-      <c r="AD10" s="209">
+      <c r="AD10" s="208">
         <f>'AEO Table 73'!AE32*10^6/gal_per_barrel/About!$A$69</f>
         <v>31655.833720471368</v>
       </c>
-      <c r="AE10" s="209">
+      <c r="AE10" s="208">
         <f>'AEO Table 73'!AF32*10^6/gal_per_barrel/About!$A$69</f>
         <v>31643.70695959084</v>
       </c>
-      <c r="AF10" s="209">
+      <c r="AF10" s="208">
         <f>'AEO Table 73'!AG32*10^6/gal_per_barrel/About!$A$69</f>
         <v>31628.630276068729</v>
       </c>
-      <c r="AG10" s="209">
+      <c r="AG10" s="208">
         <f>'AEO Table 73'!AH32*10^6/gal_per_barrel/About!$A$69</f>
         <v>31612.088065946431</v>
       </c>
-      <c r="AH10" s="209">
+      <c r="AH10" s="208">
         <f>'AEO Table 73'!AI32*10^6/gal_per_barrel/About!$A$69</f>
         <v>31593.973402390453</v>
       </c>
-      <c r="AI10" s="209">
+      <c r="AI10" s="208">
         <f>'AEO Table 73'!AJ32*10^6/gal_per_barrel/About!$A$69</f>
         <v>31593.960822762987</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B11" s="209">
+      <c r="B11" s="208">
         <f>'AEO Table 73'!C19*10^6/gal_per_barrel/About!$A$69</f>
         <v>36638.165004709183</v>
       </c>
-      <c r="C11" s="209">
+      <c r="C11" s="208">
         <f>'AEO Table 73'!D19*10^6/gal_per_barrel/About!$A$69</f>
         <v>36638.165004709183</v>
       </c>
-      <c r="D11" s="209">
+      <c r="D11" s="208">
         <f>'AEO Table 73'!E19*10^6/gal_per_barrel/About!$A$69</f>
         <v>36638.165004709183</v>
       </c>
-      <c r="E11" s="209">
+      <c r="E11" s="208">
         <f>'AEO Table 73'!F19*10^6/gal_per_barrel/About!$A$69</f>
         <v>36638.165004709183</v>
       </c>
-      <c r="F11" s="209">
+      <c r="F11" s="208">
         <f>'AEO Table 73'!G19*10^6/gal_per_barrel/About!$A$69</f>
         <v>36638.165004709183</v>
       </c>
-      <c r="G11" s="209">
+      <c r="G11" s="208">
         <f>'AEO Table 73'!H19*10^6/gal_per_barrel/About!$A$69</f>
         <v>36638.165004709183</v>
       </c>
-      <c r="H11" s="209">
+      <c r="H11" s="208">
         <f>'AEO Table 73'!I19*10^6/gal_per_barrel/About!$A$69</f>
         <v>36638.165004709183</v>
       </c>
-      <c r="I11" s="209">
+      <c r="I11" s="208">
         <f>'AEO Table 73'!J19*10^6/gal_per_barrel/About!$A$69</f>
         <v>36638.165004709183</v>
       </c>
-      <c r="J11" s="209">
+      <c r="J11" s="208">
         <f>'AEO Table 73'!K19*10^6/gal_per_barrel/About!$A$69</f>
         <v>36638.165004709183</v>
       </c>
-      <c r="K11" s="209">
+      <c r="K11" s="208">
         <f>'AEO Table 73'!L19*10^6/gal_per_barrel/About!$A$69</f>
         <v>36638.165004709183</v>
       </c>
-      <c r="L11" s="209">
+      <c r="L11" s="208">
         <f>'AEO Table 73'!M19*10^6/gal_per_barrel/About!$A$69</f>
         <v>36638.165004709183</v>
       </c>
-      <c r="M11" s="209">
+      <c r="M11" s="208">
         <f>'AEO Table 73'!N19*10^6/gal_per_barrel/About!$A$69</f>
         <v>36638.165004709183</v>
       </c>
-      <c r="N11" s="209">
+      <c r="N11" s="208">
         <f>'AEO Table 73'!O19*10^6/gal_per_barrel/About!$A$69</f>
         <v>36638.165004709183</v>
       </c>
-      <c r="O11" s="209">
+      <c r="O11" s="208">
         <f>'AEO Table 73'!P19*10^6/gal_per_barrel/About!$A$69</f>
         <v>36638.165004709183</v>
       </c>
-      <c r="P11" s="209">
+      <c r="P11" s="208">
         <f>'AEO Table 73'!Q19*10^6/gal_per_barrel/About!$A$69</f>
         <v>36638.165004709183</v>
       </c>
-      <c r="Q11" s="209">
+      <c r="Q11" s="208">
         <f>'AEO Table 73'!R19*10^6/gal_per_barrel/About!$A$69</f>
         <v>36638.165004709183</v>
       </c>
-      <c r="R11" s="209">
+      <c r="R11" s="208">
         <f>'AEO Table 73'!S19*10^6/gal_per_barrel/About!$A$69</f>
         <v>36638.165004709183</v>
       </c>
-      <c r="S11" s="209">
+      <c r="S11" s="208">
         <f>'AEO Table 73'!T19*10^6/gal_per_barrel/About!$A$69</f>
         <v>36638.165004709183</v>
       </c>
-      <c r="T11" s="209">
+      <c r="T11" s="208">
         <f>'AEO Table 73'!U19*10^6/gal_per_barrel/About!$A$69</f>
         <v>36638.165004709183</v>
       </c>
-      <c r="U11" s="209">
+      <c r="U11" s="208">
         <f>'AEO Table 73'!V19*10^6/gal_per_barrel/About!$A$69</f>
         <v>36638.165004709183</v>
       </c>
-      <c r="V11" s="209">
+      <c r="V11" s="208">
         <f>'AEO Table 73'!W19*10^6/gal_per_barrel/About!$A$69</f>
         <v>36638.165004709183</v>
       </c>
-      <c r="W11" s="209">
+      <c r="W11" s="208">
         <f>'AEO Table 73'!X19*10^6/gal_per_barrel/About!$A$69</f>
         <v>36638.165004709183</v>
       </c>
-      <c r="X11" s="209">
+      <c r="X11" s="208">
         <f>'AEO Table 73'!Y19*10^6/gal_per_barrel/About!$A$69</f>
         <v>36638.165004709183</v>
       </c>
-      <c r="Y11" s="209">
+      <c r="Y11" s="208">
         <f>'AEO Table 73'!Z19*10^6/gal_per_barrel/About!$A$69</f>
         <v>36638.165004709183</v>
       </c>
-      <c r="Z11" s="209">
+      <c r="Z11" s="208">
         <f>'AEO Table 73'!AA19*10^6/gal_per_barrel/About!$A$69</f>
         <v>36638.165004709183</v>
       </c>
-      <c r="AA11" s="209">
+      <c r="AA11" s="208">
         <f>'AEO Table 73'!AB19*10^6/gal_per_barrel/About!$A$69</f>
         <v>36638.165004709183</v>
       </c>
-      <c r="AB11" s="209">
+      <c r="AB11" s="208">
         <f>'AEO Table 73'!AC19*10^6/gal_per_barrel/About!$A$69</f>
         <v>36638.165004709183</v>
       </c>
-      <c r="AC11" s="209">
+      <c r="AC11" s="208">
         <f>'AEO Table 73'!AD19*10^6/gal_per_barrel/About!$A$69</f>
         <v>36638.165004709183</v>
       </c>
-      <c r="AD11" s="209">
+      <c r="AD11" s="208">
         <f>'AEO Table 73'!AE19*10^6/gal_per_barrel/About!$A$69</f>
         <v>36638.165004709183</v>
       </c>
-      <c r="AE11" s="209">
+      <c r="AE11" s="208">
         <f>'AEO Table 73'!AF19*10^6/gal_per_barrel/About!$A$69</f>
         <v>36638.165004709183</v>
       </c>
-      <c r="AF11" s="209">
+      <c r="AF11" s="208">
         <f>'AEO Table 73'!AG19*10^6/gal_per_barrel/About!$A$69</f>
         <v>36638.165004709183</v>
       </c>
-      <c r="AG11" s="209">
+      <c r="AG11" s="208">
         <f>'AEO Table 73'!AH19*10^6/gal_per_barrel/About!$A$69</f>
         <v>36638.165004709183</v>
       </c>
-      <c r="AH11" s="209">
+      <c r="AH11" s="208">
         <f>'AEO Table 73'!AI19*10^6/gal_per_barrel/About!$A$69</f>
         <v>36638.165004709183</v>
       </c>
-      <c r="AI11" s="209">
+      <c r="AI11" s="208">
         <f>'AEO Table 73'!AJ19*10^6/gal_per_barrel/About!$A$69</f>
         <v>36638.165004709183</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B12" s="209">
+      <c r="B12" s="208">
         <f>'AEO Table 73'!C29*10^6/gal_per_barrel/About!$A$69</f>
         <v>25141.769256673586</v>
       </c>
-      <c r="C12" s="209">
+      <c r="C12" s="208">
         <f>'AEO Table 73'!D29*10^6/gal_per_barrel/About!$A$69</f>
         <v>25091.532514374423</v>
       </c>
-      <c r="D12" s="209">
+      <c r="D12" s="208">
         <f>'AEO Table 73'!E29*10^6/gal_per_barrel/About!$A$69</f>
         <v>25091.532514374423</v>
       </c>
-      <c r="E12" s="209">
+      <c r="E12" s="208">
         <f>'AEO Table 73'!F29*10^6/gal_per_barrel/About!$A$69</f>
         <v>25091.532514374423</v>
       </c>
-      <c r="F12" s="209">
+      <c r="F12" s="208">
         <f>'AEO Table 73'!G29*10^6/gal_per_barrel/About!$A$69</f>
         <v>25091.532514374423</v>
       </c>
-      <c r="G12" s="209">
+      <c r="G12" s="208">
         <f>'AEO Table 73'!H29*10^6/gal_per_barrel/About!$A$69</f>
         <v>25091.532514374423</v>
       </c>
-      <c r="H12" s="209">
+      <c r="H12" s="208">
         <f>'AEO Table 73'!I29*10^6/gal_per_barrel/About!$A$69</f>
         <v>25091.532514374423</v>
       </c>
-      <c r="I12" s="209">
+      <c r="I12" s="208">
         <f>'AEO Table 73'!J29*10^6/gal_per_barrel/About!$A$69</f>
         <v>25091.532514374423</v>
       </c>
-      <c r="J12" s="209">
+      <c r="J12" s="208">
         <f>'AEO Table 73'!K29*10^6/gal_per_barrel/About!$A$69</f>
         <v>25091.532514374423</v>
       </c>
-      <c r="K12" s="209">
+      <c r="K12" s="208">
         <f>'AEO Table 73'!L29*10^6/gal_per_barrel/About!$A$69</f>
         <v>25091.532514374423</v>
       </c>
-      <c r="L12" s="209">
+      <c r="L12" s="208">
         <f>'AEO Table 73'!M29*10^6/gal_per_barrel/About!$A$69</f>
         <v>25091.532514374423</v>
       </c>
-      <c r="M12" s="209">
+      <c r="M12" s="208">
         <f>'AEO Table 73'!N29*10^6/gal_per_barrel/About!$A$69</f>
         <v>25091.532514374423</v>
       </c>
-      <c r="N12" s="209">
+      <c r="N12" s="208">
         <f>'AEO Table 73'!O29*10^6/gal_per_barrel/About!$A$69</f>
         <v>25091.532514374423</v>
       </c>
-      <c r="O12" s="209">
+      <c r="O12" s="208">
         <f>'AEO Table 73'!P29*10^6/gal_per_barrel/About!$A$69</f>
         <v>25091.532514374423</v>
       </c>
-      <c r="P12" s="209">
+      <c r="P12" s="208">
         <f>'AEO Table 73'!Q29*10^6/gal_per_barrel/About!$A$69</f>
         <v>25091.532514374423</v>
       </c>
-      <c r="Q12" s="209">
+      <c r="Q12" s="208">
         <f>'AEO Table 73'!R29*10^6/gal_per_barrel/About!$A$69</f>
         <v>25091.532514374423</v>
       </c>
-      <c r="R12" s="209">
+      <c r="R12" s="208">
         <f>'AEO Table 73'!S29*10^6/gal_per_barrel/About!$A$69</f>
         <v>25091.532514374423</v>
       </c>
-      <c r="S12" s="209">
+      <c r="S12" s="208">
         <f>'AEO Table 73'!T29*10^6/gal_per_barrel/About!$A$69</f>
         <v>25091.532514374423</v>
       </c>
-      <c r="T12" s="209">
+      <c r="T12" s="208">
         <f>'AEO Table 73'!U29*10^6/gal_per_barrel/About!$A$69</f>
         <v>25091.532514374423</v>
       </c>
-      <c r="U12" s="209">
+      <c r="U12" s="208">
         <f>'AEO Table 73'!V29*10^6/gal_per_barrel/About!$A$69</f>
         <v>25091.532514374423</v>
       </c>
-      <c r="V12" s="209">
+      <c r="V12" s="208">
         <f>'AEO Table 73'!W29*10^6/gal_per_barrel/About!$A$69</f>
         <v>25091.532514374423</v>
       </c>
-      <c r="W12" s="209">
+      <c r="W12" s="208">
         <f>'AEO Table 73'!X29*10^6/gal_per_barrel/About!$A$69</f>
         <v>25091.532514374423</v>
       </c>
-      <c r="X12" s="209">
+      <c r="X12" s="208">
         <f>'AEO Table 73'!Y29*10^6/gal_per_barrel/About!$A$69</f>
         <v>25091.532514374423</v>
       </c>
-      <c r="Y12" s="209">
+      <c r="Y12" s="208">
         <f>'AEO Table 73'!Z29*10^6/gal_per_barrel/About!$A$69</f>
         <v>25091.532514374423</v>
       </c>
-      <c r="Z12" s="209">
+      <c r="Z12" s="208">
         <f>'AEO Table 73'!AA29*10^6/gal_per_barrel/About!$A$69</f>
         <v>25091.532514374423</v>
       </c>
-      <c r="AA12" s="209">
+      <c r="AA12" s="208">
         <f>'AEO Table 73'!AB29*10^6/gal_per_barrel/About!$A$69</f>
         <v>25091.532514374423</v>
       </c>
-      <c r="AB12" s="209">
+      <c r="AB12" s="208">
         <f>'AEO Table 73'!AC29*10^6/gal_per_barrel/About!$A$69</f>
         <v>25091.532514374423</v>
       </c>
-      <c r="AC12" s="209">
+      <c r="AC12" s="208">
         <f>'AEO Table 73'!AD29*10^6/gal_per_barrel/About!$A$69</f>
         <v>25091.532514374423</v>
       </c>
-      <c r="AD12" s="209">
+      <c r="AD12" s="208">
         <f>'AEO Table 73'!AE29*10^6/gal_per_barrel/About!$A$69</f>
         <v>25091.532514374423</v>
       </c>
-      <c r="AE12" s="209">
+      <c r="AE12" s="208">
         <f>'AEO Table 73'!AF29*10^6/gal_per_barrel/About!$A$69</f>
         <v>25091.532514374423</v>
       </c>
-      <c r="AF12" s="209">
+      <c r="AF12" s="208">
         <f>'AEO Table 73'!AG29*10^6/gal_per_barrel/About!$A$69</f>
         <v>25091.532514374423</v>
       </c>
-      <c r="AG12" s="209">
+      <c r="AG12" s="208">
         <f>'AEO Table 73'!AH29*10^6/gal_per_barrel/About!$A$69</f>
         <v>25091.532514374423</v>
       </c>
-      <c r="AH12" s="209">
+      <c r="AH12" s="208">
         <f>'AEO Table 73'!AI29*10^6/gal_per_barrel/About!$A$69</f>
         <v>25091.532514374423</v>
       </c>
-      <c r="AI12" s="209">
+      <c r="AI12" s="208">
         <f>'AEO Table 73'!AJ29*10^6/gal_per_barrel/About!$A$69</f>
         <v>25091.532514374423</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B13" s="209">
+      <c r="B13" s="208">
         <f>'AEO Table 73'!C18*10^6/gal_per_barrel/About!$A$69</f>
         <v>33707.111804332446</v>
       </c>
-      <c r="C13" s="209">
+      <c r="C13" s="208">
         <f>'AEO Table 73'!D18*10^6/gal_per_barrel/About!$A$69</f>
         <v>33707.111804332446</v>
       </c>
-      <c r="D13" s="209">
+      <c r="D13" s="208">
         <f>'AEO Table 73'!E18*10^6/gal_per_barrel/About!$A$69</f>
         <v>33707.111804332446</v>
       </c>
-      <c r="E13" s="209">
+      <c r="E13" s="208">
         <f>'AEO Table 73'!F18*10^6/gal_per_barrel/About!$A$69</f>
         <v>33707.111804332446</v>
       </c>
-      <c r="F13" s="209">
+      <c r="F13" s="208">
         <f>'AEO Table 73'!G18*10^6/gal_per_barrel/About!$A$69</f>
         <v>33707.111804332446</v>
       </c>
-      <c r="G13" s="209">
+      <c r="G13" s="208">
         <f>'AEO Table 73'!H18*10^6/gal_per_barrel/About!$A$69</f>
         <v>33707.111804332446</v>
       </c>
-      <c r="H13" s="209">
+      <c r="H13" s="208">
         <f>'AEO Table 73'!I18*10^6/gal_per_barrel/About!$A$69</f>
         <v>33707.111804332446</v>
       </c>
-      <c r="I13" s="209">
+      <c r="I13" s="208">
         <f>'AEO Table 73'!J18*10^6/gal_per_barrel/About!$A$69</f>
         <v>33707.111804332446</v>
       </c>
-      <c r="J13" s="209">
+      <c r="J13" s="208">
         <f>'AEO Table 73'!K18*10^6/gal_per_barrel/About!$A$69</f>
         <v>33707.111804332446</v>
       </c>
-      <c r="K13" s="209">
+      <c r="K13" s="208">
         <f>'AEO Table 73'!L18*10^6/gal_per_barrel/About!$A$69</f>
         <v>33707.111804332446</v>
       </c>
-      <c r="L13" s="209">
+      <c r="L13" s="208">
         <f>'AEO Table 73'!M18*10^6/gal_per_barrel/About!$A$69</f>
         <v>33707.111804332446</v>
       </c>
-      <c r="M13" s="209">
+      <c r="M13" s="208">
         <f>'AEO Table 73'!N18*10^6/gal_per_barrel/About!$A$69</f>
         <v>33707.111804332446</v>
       </c>
-      <c r="N13" s="209">
+      <c r="N13" s="208">
         <f>'AEO Table 73'!O18*10^6/gal_per_barrel/About!$A$69</f>
         <v>33707.111804332446</v>
       </c>
-      <c r="O13" s="209">
+      <c r="O13" s="208">
         <f>'AEO Table 73'!P18*10^6/gal_per_barrel/About!$A$69</f>
         <v>33707.111804332446</v>
       </c>
-      <c r="P13" s="209">
+      <c r="P13" s="208">
         <f>'AEO Table 73'!Q18*10^6/gal_per_barrel/About!$A$69</f>
         <v>33707.111804332446</v>
       </c>
-      <c r="Q13" s="209">
+      <c r="Q13" s="208">
         <f>'AEO Table 73'!R18*10^6/gal_per_barrel/About!$A$69</f>
         <v>33707.111804332446</v>
       </c>
-      <c r="R13" s="209">
+      <c r="R13" s="208">
         <f>'AEO Table 73'!S18*10^6/gal_per_barrel/About!$A$69</f>
         <v>33707.111804332446</v>
       </c>
-      <c r="S13" s="209">
+      <c r="S13" s="208">
         <f>'AEO Table 73'!T18*10^6/gal_per_barrel/About!$A$69</f>
         <v>33707.111804332446</v>
       </c>
-      <c r="T13" s="209">
+      <c r="T13" s="208">
         <f>'AEO Table 73'!U18*10^6/gal_per_barrel/About!$A$69</f>
         <v>33707.111804332446</v>
       </c>
-      <c r="U13" s="209">
+      <c r="U13" s="208">
         <f>'AEO Table 73'!V18*10^6/gal_per_barrel/About!$A$69</f>
         <v>33707.111804332446</v>
       </c>
-      <c r="V13" s="209">
+      <c r="V13" s="208">
         <f>'AEO Table 73'!W18*10^6/gal_per_barrel/About!$A$69</f>
         <v>33707.111804332446</v>
       </c>
-      <c r="W13" s="209">
+      <c r="W13" s="208">
         <f>'AEO Table 73'!X18*10^6/gal_per_barrel/About!$A$69</f>
         <v>33707.111804332446</v>
       </c>
-      <c r="X13" s="209">
+      <c r="X13" s="208">
         <f>'AEO Table 73'!Y18*10^6/gal_per_barrel/About!$A$69</f>
         <v>33707.111804332446</v>
       </c>
-      <c r="Y13" s="209">
+      <c r="Y13" s="208">
         <f>'AEO Table 73'!Z18*10^6/gal_per_barrel/About!$A$69</f>
         <v>33707.111804332446</v>
       </c>
-      <c r="Z13" s="209">
+      <c r="Z13" s="208">
         <f>'AEO Table 73'!AA18*10^6/gal_per_barrel/About!$A$69</f>
         <v>33707.111804332446</v>
       </c>
-      <c r="AA13" s="209">
+      <c r="AA13" s="208">
         <f>'AEO Table 73'!AB18*10^6/gal_per_barrel/About!$A$69</f>
         <v>33707.111804332446</v>
       </c>
-      <c r="AB13" s="209">
+      <c r="AB13" s="208">
         <f>'AEO Table 73'!AC18*10^6/gal_per_barrel/About!$A$69</f>
         <v>33707.111804332446</v>
       </c>
-      <c r="AC13" s="209">
+      <c r="AC13" s="208">
         <f>'AEO Table 73'!AD18*10^6/gal_per_barrel/About!$A$69</f>
         <v>33707.111804332446</v>
       </c>
-      <c r="AD13" s="209">
+      <c r="AD13" s="208">
         <f>'AEO Table 73'!AE18*10^6/gal_per_barrel/About!$A$69</f>
         <v>33707.111804332446</v>
       </c>
-      <c r="AE13" s="209">
+      <c r="AE13" s="208">
         <f>'AEO Table 73'!AF18*10^6/gal_per_barrel/About!$A$69</f>
         <v>33707.111804332446</v>
       </c>
-      <c r="AF13" s="209">
+      <c r="AF13" s="208">
         <f>'AEO Table 73'!AG18*10^6/gal_per_barrel/About!$A$69</f>
         <v>33707.111804332446</v>
       </c>
-      <c r="AG13" s="209">
+      <c r="AG13" s="208">
         <f>'AEO Table 73'!AH18*10^6/gal_per_barrel/About!$A$69</f>
         <v>33707.111804332446</v>
       </c>
-      <c r="AH13" s="209">
+      <c r="AH13" s="208">
         <f>'AEO Table 73'!AI18*10^6/gal_per_barrel/About!$A$69</f>
         <v>33707.111804332446</v>
       </c>
-      <c r="AI13" s="209">
+      <c r="AI13" s="208">
         <f>'AEO Table 73'!AJ18*10^6/gal_per_barrel/About!$A$69</f>
         <v>33707.111804332446</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B14" s="209">
+      <c r="B14" s="208">
         <f>'AEO Table 73'!C30*10^6/gal_per_barrel/About!$A$69</f>
         <v>35663.243875828506</v>
       </c>
-      <c r="C14" s="209">
+      <c r="C14" s="208">
         <f>'AEO Table 73'!D30*10^6/gal_per_barrel/About!$A$69</f>
         <v>35663.243875828506</v>
       </c>
-      <c r="D14" s="209">
+      <c r="D14" s="208">
         <f>'AEO Table 73'!E30*10^6/gal_per_barrel/About!$A$69</f>
         <v>35663.243875828506</v>
       </c>
-      <c r="E14" s="209">
+      <c r="E14" s="208">
         <f>'AEO Table 73'!F30*10^6/gal_per_barrel/About!$A$69</f>
         <v>35663.243875828506</v>
       </c>
-      <c r="F14" s="209">
+      <c r="F14" s="208">
         <f>'AEO Table 73'!G30*10^6/gal_per_barrel/About!$A$69</f>
         <v>35663.243875828506</v>
       </c>
-      <c r="G14" s="209">
+      <c r="G14" s="208">
         <f>'AEO Table 73'!H30*10^6/gal_per_barrel/About!$A$69</f>
         <v>35663.243875828506</v>
       </c>
-      <c r="H14" s="209">
+      <c r="H14" s="208">
         <f>'AEO Table 73'!I30*10^6/gal_per_barrel/About!$A$69</f>
         <v>35663.243875828506</v>
       </c>
-      <c r="I14" s="209">
+      <c r="I14" s="208">
         <f>'AEO Table 73'!J30*10^6/gal_per_barrel/About!$A$69</f>
         <v>35663.243875828506</v>
       </c>
-      <c r="J14" s="209">
+      <c r="J14" s="208">
         <f>'AEO Table 73'!K30*10^6/gal_per_barrel/About!$A$69</f>
         <v>35663.243875828506</v>
       </c>
-      <c r="K14" s="209">
+      <c r="K14" s="208">
         <f>'AEO Table 73'!L30*10^6/gal_per_barrel/About!$A$69</f>
         <v>35663.243875828506</v>
       </c>
-      <c r="L14" s="209">
+      <c r="L14" s="208">
         <f>'AEO Table 73'!M30*10^6/gal_per_barrel/About!$A$69</f>
         <v>35663.243875828506</v>
       </c>
-      <c r="M14" s="209">
+      <c r="M14" s="208">
         <f>'AEO Table 73'!N30*10^6/gal_per_barrel/About!$A$69</f>
         <v>35663.243875828506</v>
       </c>
-      <c r="N14" s="209">
+      <c r="N14" s="208">
         <f>'AEO Table 73'!O30*10^6/gal_per_barrel/About!$A$69</f>
         <v>35663.243875828506</v>
       </c>
-      <c r="O14" s="209">
+      <c r="O14" s="208">
         <f>'AEO Table 73'!P30*10^6/gal_per_barrel/About!$A$69</f>
         <v>35663.243875828506</v>
       </c>
-      <c r="P14" s="209">
+      <c r="P14" s="208">
         <f>'AEO Table 73'!Q30*10^6/gal_per_barrel/About!$A$69</f>
         <v>35663.243875828506</v>
       </c>
-      <c r="Q14" s="209">
+      <c r="Q14" s="208">
         <f>'AEO Table 73'!R30*10^6/gal_per_barrel/About!$A$69</f>
         <v>35663.243875828506</v>
       </c>
-      <c r="R14" s="209">
+      <c r="R14" s="208">
         <f>'AEO Table 73'!S30*10^6/gal_per_barrel/About!$A$69</f>
         <v>35663.243875828506</v>
       </c>
-      <c r="S14" s="209">
+      <c r="S14" s="208">
         <f>'AEO Table 73'!T30*10^6/gal_per_barrel/About!$A$69</f>
         <v>35663.243875828506</v>
       </c>
-      <c r="T14" s="209">
+      <c r="T14" s="208">
         <f>'AEO Table 73'!U30*10^6/gal_per_barrel/About!$A$69</f>
         <v>35663.243875828506</v>
       </c>
-      <c r="U14" s="209">
+      <c r="U14" s="208">
         <f>'AEO Table 73'!V30*10^6/gal_per_barrel/About!$A$69</f>
         <v>35663.243875828506</v>
       </c>
-      <c r="V14" s="209">
+      <c r="V14" s="208">
         <f>'AEO Table 73'!W30*10^6/gal_per_barrel/About!$A$69</f>
         <v>35663.243875828506</v>
       </c>
-      <c r="W14" s="209">
+      <c r="W14" s="208">
         <f>'AEO Table 73'!X30*10^6/gal_per_barrel/About!$A$69</f>
         <v>35663.243875828506</v>
       </c>
-      <c r="X14" s="209">
+      <c r="X14" s="208">
         <f>'AEO Table 73'!Y30*10^6/gal_per_barrel/About!$A$69</f>
         <v>35663.243875828506</v>
       </c>
-      <c r="Y14" s="209">
+      <c r="Y14" s="208">
         <f>'AEO Table 73'!Z30*10^6/gal_per_barrel/About!$A$69</f>
         <v>35663.243875828506</v>
       </c>
-      <c r="Z14" s="209">
+      <c r="Z14" s="208">
         <f>'AEO Table 73'!AA30*10^6/gal_per_barrel/About!$A$69</f>
         <v>35663.243875828506</v>
       </c>
-      <c r="AA14" s="209">
+      <c r="AA14" s="208">
         <f>'AEO Table 73'!AB30*10^6/gal_per_barrel/About!$A$69</f>
         <v>35663.243875828506</v>
       </c>
-      <c r="AB14" s="209">
+      <c r="AB14" s="208">
         <f>'AEO Table 73'!AC30*10^6/gal_per_barrel/About!$A$69</f>
         <v>35663.243875828506</v>
       </c>
-      <c r="AC14" s="209">
+      <c r="AC14" s="208">
         <f>'AEO Table 73'!AD30*10^6/gal_per_barrel/About!$A$69</f>
         <v>35663.243875828506</v>
       </c>
-      <c r="AD14" s="209">
+      <c r="AD14" s="208">
         <f>'AEO Table 73'!AE30*10^6/gal_per_barrel/About!$A$69</f>
         <v>35663.243875828506</v>
       </c>
-      <c r="AE14" s="209">
+      <c r="AE14" s="208">
         <f>'AEO Table 73'!AF30*10^6/gal_per_barrel/About!$A$69</f>
         <v>35663.243875828506</v>
       </c>
-      <c r="AF14" s="209">
+      <c r="AF14" s="208">
         <f>'AEO Table 73'!AG30*10^6/gal_per_barrel/About!$A$69</f>
         <v>35663.243875828506</v>
       </c>
-      <c r="AG14" s="209">
+      <c r="AG14" s="208">
         <f>'AEO Table 73'!AH30*10^6/gal_per_barrel/About!$A$69</f>
         <v>35663.243875828506</v>
       </c>
-      <c r="AH14" s="209">
+      <c r="AH14" s="208">
         <f>'AEO Table 73'!AI30*10^6/gal_per_barrel/About!$A$69</f>
         <v>35663.243875828506</v>
       </c>
-      <c r="AI14" s="209">
+      <c r="AI14" s="208">
         <f>'AEO Table 73'!AJ30*10^6/gal_per_barrel/About!$A$69</f>
         <v>35663.243875828506</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>346</v>
       </c>
@@ -21017,7 +20982,7 @@
         <v>3142000</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>338</v>
       </c>
@@ -21124,7 +21089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>329</v>
       </c>
@@ -21265,7 +21230,7 @@
         <v>14321544.386446232</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>358</v>
       </c>
@@ -21406,7 +21371,7 @@
         <v>40525891.691259928</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>359</v>
       </c>
@@ -21547,148 +21512,148 @@
         <v>43696386.740331493</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B20" s="209">
+      <c r="B20" s="208">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
         <v>346024.32810000004</v>
       </c>
-      <c r="C20" s="209">
+      <c r="C20" s="208">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
         <v>346024.32810000004</v>
       </c>
-      <c r="D20" s="209">
+      <c r="D20" s="208">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
         <v>346024.32810000004</v>
       </c>
-      <c r="E20" s="209">
+      <c r="E20" s="208">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
         <v>346024.32810000004</v>
       </c>
-      <c r="F20" s="209">
+      <c r="F20" s="208">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
         <v>346024.32810000004</v>
       </c>
-      <c r="G20" s="209">
+      <c r="G20" s="208">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
         <v>346024.32810000004</v>
       </c>
-      <c r="H20" s="209">
+      <c r="H20" s="208">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
         <v>346024.32810000004</v>
       </c>
-      <c r="I20" s="209">
+      <c r="I20" s="208">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
         <v>346024.32810000004</v>
       </c>
-      <c r="J20" s="209">
+      <c r="J20" s="208">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
         <v>346024.32810000004</v>
       </c>
-      <c r="K20" s="209">
+      <c r="K20" s="208">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
         <v>346024.32810000004</v>
       </c>
-      <c r="L20" s="209">
+      <c r="L20" s="208">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
         <v>346024.32810000004</v>
       </c>
-      <c r="M20" s="209">
+      <c r="M20" s="208">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
         <v>346024.32810000004</v>
       </c>
-      <c r="N20" s="209">
+      <c r="N20" s="208">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
         <v>346024.32810000004</v>
       </c>
-      <c r="O20" s="209">
+      <c r="O20" s="208">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
         <v>346024.32810000004</v>
       </c>
-      <c r="P20" s="209">
+      <c r="P20" s="208">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
         <v>346024.32810000004</v>
       </c>
-      <c r="Q20" s="209">
+      <c r="Q20" s="208">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
         <v>346024.32810000004</v>
       </c>
-      <c r="R20" s="209">
+      <c r="R20" s="208">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
         <v>346024.32810000004</v>
       </c>
-      <c r="S20" s="209">
+      <c r="S20" s="208">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
         <v>346024.32810000004</v>
       </c>
-      <c r="T20" s="209">
+      <c r="T20" s="208">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
         <v>346024.32810000004</v>
       </c>
-      <c r="U20" s="209">
+      <c r="U20" s="208">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
         <v>346024.32810000004</v>
       </c>
-      <c r="V20" s="209">
+      <c r="V20" s="208">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
         <v>346024.32810000004</v>
       </c>
-      <c r="W20" s="209">
+      <c r="W20" s="208">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
         <v>346024.32810000004</v>
       </c>
-      <c r="X20" s="209">
+      <c r="X20" s="208">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
         <v>346024.32810000004</v>
       </c>
-      <c r="Y20" s="209">
+      <c r="Y20" s="208">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
         <v>346024.32810000004</v>
       </c>
-      <c r="Z20" s="209">
+      <c r="Z20" s="208">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
         <v>346024.32810000004</v>
       </c>
-      <c r="AA20" s="209">
+      <c r="AA20" s="208">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
         <v>346024.32810000004</v>
       </c>
-      <c r="AB20" s="209">
+      <c r="AB20" s="208">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
         <v>346024.32810000004</v>
       </c>
-      <c r="AC20" s="209">
+      <c r="AC20" s="208">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
         <v>346024.32810000004</v>
       </c>
-      <c r="AD20" s="209">
+      <c r="AD20" s="208">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
         <v>346024.32810000004</v>
       </c>
-      <c r="AE20" s="209">
+      <c r="AE20" s="208">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
         <v>346024.32810000004</v>
       </c>
-      <c r="AF20" s="209">
+      <c r="AF20" s="208">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
         <v>346024.32810000004</v>
       </c>
-      <c r="AG20" s="209">
+      <c r="AG20" s="208">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
         <v>346024.32810000004</v>
       </c>
-      <c r="AH20" s="209">
+      <c r="AH20" s="208">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
         <v>346024.32810000004</v>
       </c>
-      <c r="AI20" s="209">
+      <c r="AI20" s="208">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
         <v>346024.32810000004</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>361</v>
       </c>
@@ -21829,145 +21794,145 @@
         <v>14973166.799680665</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>357</v>
       </c>
       <c r="B22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="C22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="D22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="E22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="F22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="G22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="H22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="I22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="J22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="K22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="L22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="M22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="N22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="O22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="P22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="Q22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="R22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="S22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="T22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="U22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="V22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="W22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="X22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="Y22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="Z22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="AA22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="AB22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="AC22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="AD22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="AE22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="AF22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="AG22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="AH22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="AI22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
     </row>
   </sheetData>
@@ -21976,7 +21941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -21986,13 +21951,13 @@
       <selection activeCell="B8" sqref="B8:AI8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" customWidth="1"/>
+    <col min="1" max="1" width="38.265625" customWidth="1"/>
     <col min="2" max="35" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>392</v>
       </c>
@@ -22099,7 +22064,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>310</v>
       </c>
@@ -22206,7 +22171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>311</v>
       </c>
@@ -22313,7 +22278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>317</v>
       </c>
@@ -22454,7 +22419,7 @@
         <v>50845.424910505382</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>318</v>
       </c>
@@ -22595,7 +22560,7 @@
         <v>58963.264468678673</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>312</v>
       </c>
@@ -22702,7 +22667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>313</v>
       </c>
@@ -22809,7 +22774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>319</v>
       </c>
@@ -22950,7 +22915,7 @@
         <v>57394.284899125851</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>390</v>
       </c>
@@ -23057,7 +23022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>360</v>
       </c>
@@ -23164,7 +23129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>357</v>
       </c>
@@ -23277,7 +23242,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -23287,14 +23252,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>299</v>
       </c>

--- a/InputData/web-app/BCF/BTU Conversion Factors.xlsx
+++ b/InputData/web-app/BCF/BTU Conversion Factors.xlsx
@@ -23,7 +23,7 @@
   <definedNames>
     <definedName name="gal_per_barrel">About!$A$63</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcMode="manual" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -23249,7 +23249,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -23263,9 +23263,8 @@
       <c r="A2" t="s">
         <v>299</v>
       </c>
-      <c r="B2">
-        <f>10^9/About!A80</f>
-        <v>947813.39449889108</v>
+      <c r="B2" s="207">
+        <v>947800000000</v>
       </c>
     </row>
   </sheetData>
